--- a/RESULTADOS_EXPERIMENTO_CONSOLIDADO.xlsx
+++ b/RESULTADOS_EXPERIMENTO_CONSOLIDADO.xlsx
@@ -521,7 +521,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>15.24 GB (Disponible: 4.39 GB)</t>
+          <t>15.24 GB (Disponible: 3.74 GB)</t>
         </is>
       </c>
     </row>
@@ -540,7 +540,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>30 ejecuciones</t>
+          <t>0 ejecuciones</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,181 +688,151 @@
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>Grupo 0</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>0% (Sin CPLEX)</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="C4" s="4" t="n">
         <v>30</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>9166.67</v>
+        <v>8942.1</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>92442.42999999999</v>
+        <v>111210.33</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5738.544767</v>
+        <v>5005.909967</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.212519</v>
+        <v>0.198718</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.12634</v>
+        <v>0.109563</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="C5" s="4" t="n">
         <v>30</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8885.870000000001</v>
+        <v>8930.57</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>56569.4</v>
+        <v>114820.4</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1489.4766</v>
+        <v>7268.047</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.211892</v>
+        <v>0.203351</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.090507</v>
+        <v>0.09177</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="C6" s="4" t="n">
         <v>30</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9166.67</v>
+        <v>9136.67</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>92442.42999999999</v>
+        <v>81923.77</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5738.544767</v>
+        <v>9399.156367</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.210779</v>
+        <v>0.215228</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.114258</v>
+        <v>0.114656</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="C7" s="4" t="n">
         <v>30</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>8685.07</v>
+        <v>9011.1</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>174101.83</v>
+        <v>112267.43</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14914.274567</v>
+        <v>17188.910967</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.204825</v>
+        <v>0.201761</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.10963</v>
+        <v>0.11617</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 5</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="C8" s="4" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>8928.870000000001</v>
+        <v>9091.969999999999</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>207426.7</v>
+        <v>196451.5</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>20649.7777</v>
+        <v>35231.956933</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.209218</v>
+        <v>0.213328</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.120503</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>Grupo 5</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>9046.67</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>96229</v>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>13905.839667</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>0.21038</v>
-      </c>
-      <c r="H9" s="6" t="n">
-        <v>0.114731</v>
+        <v>0.120281</v>
       </c>
     </row>
   </sheetData>
@@ -879,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J183"/>
+  <dimension ref="A1:J153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -955,20 +925,20 @@
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>Grupo 0</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>566</v>
+        <v>614</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>405</v>
+        <v>1372</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.125</v>
+        <v>22.609</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0</v>
@@ -977,29 +947,29 @@
         <v>0</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.241427</v>
+        <v>0.1250019</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.241427</v>
+        <v>0.1250019</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>Grupo 0</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
         <v>2</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1147</v>
+        <v>1179</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>788</v>
+        <v>23999</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.578</v>
+        <v>1450.047</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
@@ -1008,29 +978,29 @@
         <v>0</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2313119</v>
+        <v>0.1887559</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2313119</v>
+        <v>0.1887559</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>Grupo 0</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
         <v>3</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1668</v>
+        <v>1848</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1137</v>
+        <v>24315</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.906</v>
+        <v>1450.375</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>0</v>
@@ -1039,29 +1009,29 @@
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2034144</v>
+        <v>0.2670515</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2034144</v>
+        <v>0.2670515</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>Grupo 0</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
         <v>4</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>2271</v>
+        <v>2440</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>2071</v>
+        <v>24642</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14.531</v>
+        <v>1454.688</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0</v>
@@ -1070,29 +1040,29 @@
         <v>0</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2434774</v>
+        <v>0.1987498</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2434774</v>
+        <v>0.1987498</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>Grupo 0</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B8" s="4" t="n">
         <v>5</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2866</v>
+        <v>3095</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3027</v>
+        <v>24915</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>42.344</v>
+        <v>1463.156</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0</v>
@@ -1101,29 +1071,29 @@
         <v>0</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1761397</v>
+        <v>0.2364685</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1761397</v>
+        <v>0.2364685</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>Grupo 0</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B9" s="4" t="n">
         <v>6</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3568</v>
+        <v>3646</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>46746</v>
+        <v>25581</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3227.203</v>
+        <v>1466.078</v>
       </c>
       <c r="F9" s="5" t="n">
         <v>0</v>
@@ -1132,29 +1102,29 @@
         <v>0</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2710387</v>
+        <v>0.194044</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2710387</v>
+        <v>0.194044</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>Grupo 0</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B10" s="4" t="n">
         <v>7</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>4152</v>
+        <v>4155</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>85755</v>
+        <v>36371</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6140.953</v>
+        <v>2148.531</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0</v>
@@ -1163,29 +1133,29 @@
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.2688232</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.2688232</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>Grupo 0</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B11" s="4" t="n">
         <v>8</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4730</v>
+        <v>4696</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>86094</v>
+        <v>37607</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6143.688</v>
+        <v>2161.844</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
@@ -1194,29 +1164,29 @@
         <v>0</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.2447125</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.2447125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>Grupo 0</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B12" s="4" t="n">
         <v>9</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5258</v>
+        <v>5271</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>90373</v>
+        <v>40502</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6404.547</v>
+        <v>2170.203</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>0</v>
@@ -1225,29 +1195,29 @@
         <v>0</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2670515</v>
+        <v>0.1250019</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2670515</v>
+        <v>0.1250019</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>Grupo 0</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B13" s="4" t="n">
         <v>10</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>5914</v>
+        <v>5901</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>90726</v>
+        <v>55551</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6405.844</v>
+        <v>2963.313</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0</v>
@@ -1256,29 +1226,29 @@
         <v>0</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1833566</v>
+        <v>0.1625948</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1833566</v>
+        <v>0.1625948</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>Grupo 0</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B14" s="4" t="n">
         <v>11</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6534</v>
+        <v>6441</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>91135</v>
+        <v>56183</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6405.844</v>
+        <v>2976.375</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
@@ -1287,29 +1257,29 @@
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2506747</v>
+        <v>0.1095627</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2506747</v>
+        <v>0.1095627</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>Grupo 0</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B15" s="4" t="n">
         <v>12</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7139</v>
+        <v>6926</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>98290</v>
+        <v>71651</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6773.875</v>
+        <v>3852.094</v>
       </c>
       <c r="F15" s="5" t="n">
         <v>0</v>
@@ -1318,29 +1288,29 @@
         <v>0</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.192526</v>
+        <v>0.1237076</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.192526</v>
+        <v>0.1237076</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>Grupo 0</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B16" s="4" t="n">
         <v>13</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>7754</v>
+        <v>7471</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>98723</v>
+        <v>101462</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6775.844</v>
+        <v>5719.531</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0</v>
@@ -1349,29 +1319,29 @@
         <v>0</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1775986</v>
+        <v>0.1260111</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1775986</v>
+        <v>0.1260111</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>Grupo 0</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B17" s="4" t="n">
         <v>14</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8380</v>
+        <v>8032</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>99666</v>
+        <v>102483</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6790.531</v>
+        <v>5745</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>0</v>
@@ -1380,29 +1350,29 @@
         <v>0</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1263403</v>
+        <v>0.2611755</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1263403</v>
+        <v>0.2611755</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>Grupo 0</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B18" s="4" t="n">
         <v>15</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9068</v>
+        <v>8593</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>99964</v>
+        <v>103030</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6790.656</v>
+        <v>5745</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>0</v>
@@ -1411,29 +1381,29 @@
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.183909</v>
+        <v>0.2601367</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.183909</v>
+        <v>0.2601367</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>Grupo 0</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B19" s="4" t="n">
         <v>16</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>9621</v>
+        <v>9219</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>102588</v>
+        <v>105332</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6910.219</v>
+        <v>5746.5</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>0</v>
@@ -1442,29 +1412,29 @@
         <v>0</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1817561</v>
+        <v>0.1225956</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1817561</v>
+        <v>0.1225956</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>Grupo 0</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B20" s="4" t="n">
         <v>17</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>10158</v>
+        <v>9775</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>120479</v>
+        <v>164021</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7287.609</v>
+        <v>6988.969</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
@@ -1473,29 +1443,29 @@
         <v>0</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2540514</v>
+        <v>0.2220208</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2540514</v>
+        <v>0.2220208</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>Grupo 0</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B21" s="4" t="n">
         <v>18</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>10727</v>
+        <v>10304</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>120894</v>
+        <v>164583</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7295.531</v>
+        <v>6991.578</v>
       </c>
       <c r="F21" s="5" t="n">
         <v>0</v>
@@ -1504,29 +1474,29 @@
         <v>0</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.192526</v>
+        <v>0.2207892</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.192526</v>
+        <v>0.2207892</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>Grupo 0</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B22" s="4" t="n">
         <v>19</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>11226</v>
+        <v>10865</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>121296</v>
+        <v>165001</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7309.25</v>
+        <v>6991.641</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0</v>
@@ -1535,29 +1505,29 @@
         <v>0</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2448322</v>
+        <v>0.1252291</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2448322</v>
+        <v>0.1252291</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>Grupo 0</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B23" s="4" t="n">
         <v>20</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>11783</v>
+        <v>11432</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>122040</v>
+        <v>169990</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7336.125</v>
+        <v>7006.094</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>0</v>
@@ -1566,29 +1536,29 @@
         <v>0</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1451073</v>
+        <v>0.184894</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1451073</v>
+        <v>0.184894</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>Grupo 0</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B24" s="4" t="n">
         <v>21</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>12362</v>
+        <v>11937</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>122237</v>
+        <v>171100</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7340.203</v>
+        <v>7016.375</v>
       </c>
       <c r="F24" s="5" t="n">
         <v>0</v>
@@ -1597,29 +1567,29 @@
         <v>0</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1931998</v>
+        <v>0.2897047</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1931998</v>
+        <v>0.2897047</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>Grupo 0</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B25" s="4" t="n">
         <v>22</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>12934</v>
+        <v>12608</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>122504</v>
+        <v>171929</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7341.219</v>
+        <v>7033.703</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>0</v>
@@ -1628,29 +1598,29 @@
         <v>0</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.173393</v>
+        <v>0.170116</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.173393</v>
+        <v>0.170116</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>Grupo 0</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B26" s="4" t="n">
         <v>23</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>13558</v>
+        <v>13150</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>124536</v>
+        <v>174211</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7345.906</v>
+        <v>7101.063</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>0</v>
@@ -1659,29 +1629,29 @@
         <v>0</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1994911</v>
+        <v>0.192526</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1994911</v>
+        <v>0.192526</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>Grupo 0</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B27" s="4" t="n">
         <v>24</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>14229</v>
+        <v>13772</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>128422</v>
+        <v>187435</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>7348.016</v>
+        <v>7773.781</v>
       </c>
       <c r="F27" s="5" t="n">
         <v>0</v>
@@ -1690,29 +1660,29 @@
         <v>0</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1660496</v>
+        <v>0.2844053</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1660496</v>
+        <v>0.2844053</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>Grupo 0</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B28" s="4" t="n">
         <v>25</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>14810</v>
+        <v>14385</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>131051</v>
+        <v>187673</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>7426.328</v>
+        <v>7776</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>0</v>
@@ -1721,29 +1691,29 @@
         <v>0</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2425669</v>
+        <v>0.2167756</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2425669</v>
+        <v>0.2167756</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>Grupo 0</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B29" s="4" t="n">
         <v>26</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>15379</v>
+        <v>14966</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>131737</v>
+        <v>187885</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7443.359</v>
+        <v>7776.063</v>
       </c>
       <c r="F29" s="5" t="n">
         <v>0</v>
@@ -1752,29 +1722,29 @@
         <v>0</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2216986</v>
+        <v>0.2518649</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2216986</v>
+        <v>0.2518649</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>Grupo 0</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B30" s="4" t="n">
         <v>27</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>15957</v>
+        <v>15510</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>132172</v>
+        <v>188030</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7457.859</v>
+        <v>7776.063</v>
       </c>
       <c r="F30" s="5" t="n">
         <v>0</v>
@@ -1783,29 +1753,29 @@
         <v>0</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1413269</v>
+        <v>0.2300291</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1413269</v>
+        <v>0.2300291</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>Grupo 0</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B31" s="4" t="n">
         <v>28</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>16491</v>
+        <v>16091</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>132614</v>
+        <v>189167</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>7458.109</v>
+        <v>7783.969</v>
       </c>
       <c r="F31" s="5" t="n">
         <v>0</v>
@@ -1814,29 +1784,29 @@
         <v>0</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.2498192</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.2498192</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>Grupo 0</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B32" s="4" t="n">
         <v>29</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>17084</v>
+        <v>16673</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>132753</v>
+        <v>189419</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>7461.969</v>
+        <v>7784.547</v>
       </c>
       <c r="F32" s="5" t="n">
         <v>0</v>
@@ -1845,29 +1815,29 @@
         <v>0</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.205575</v>
+        <v>0.1102495</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.205575</v>
+        <v>0.1102495</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>Grupo 0</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B33" s="4" t="n">
         <v>30</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>17666</v>
+        <v>17268</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>133050</v>
+        <v>190870</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>7462.172</v>
+        <v>7842.109</v>
       </c>
       <c r="F33" s="5" t="n">
         <v>0</v>
@@ -1885,20 +1855,20 @@
     <row r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B34" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>575</v>
+        <v>553</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>8780</v>
+        <v>1100</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>473.516</v>
+        <v>21.188</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>0</v>
@@ -1907,29 +1877,29 @@
         <v>0</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.1260111</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.1260111</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B35" s="4" t="n">
         <v>2</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>9279</v>
+        <v>1886</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>474.625</v>
+        <v>61.344</v>
       </c>
       <c r="F35" s="5" t="n">
         <v>0</v>
@@ -1938,29 +1908,29 @@
         <v>0</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1838224</v>
+        <v>0.2289273</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1838224</v>
+        <v>0.2289273</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B36" s="4" t="n">
         <v>3</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1721</v>
+        <v>1739</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>9392</v>
+        <v>2462</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>474.922</v>
+        <v>61.516</v>
       </c>
       <c r="F36" s="5" t="n">
         <v>0</v>
@@ -1969,29 +1939,29 @@
         <v>0</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2010608</v>
+        <v>0.199396</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2010608</v>
+        <v>0.199396</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B37" s="4" t="n">
         <v>4</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>2251</v>
+        <v>2289</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>9638</v>
+        <v>2602</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>475.094</v>
+        <v>61.703</v>
       </c>
       <c r="F37" s="5" t="n">
         <v>0</v>
@@ -2000,29 +1970,29 @@
         <v>0</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1950825</v>
+        <v>0.192526</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1950825</v>
+        <v>0.192526</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B38" s="4" t="n">
         <v>5</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>2777</v>
+        <v>2815</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>18730</v>
+        <v>7996</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>488.438</v>
+        <v>177.078</v>
       </c>
       <c r="F38" s="5" t="n">
         <v>0</v>
@@ -2031,29 +2001,29 @@
         <v>0</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1878298</v>
+        <v>0.1624159</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1878298</v>
+        <v>0.1624159</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B39" s="4" t="n">
         <v>6</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>3427</v>
+        <v>3326</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>19894</v>
+        <v>34943</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>516.25</v>
+        <v>327.453</v>
       </c>
       <c r="F39" s="5" t="n">
         <v>0</v>
@@ -2062,29 +2032,29 @@
         <v>0</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2576497</v>
+        <v>0.1985302</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2576497</v>
+        <v>0.1985302</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B40" s="4" t="n">
         <v>7</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>3973</v>
+        <v>3896</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>20547</v>
+        <v>36925</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>518.578</v>
+        <v>381.141</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>0</v>
@@ -2093,29 +2063,29 @@
         <v>0</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2120623</v>
+        <v>0.2313895</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2120623</v>
+        <v>0.2313895</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B41" s="4" t="n">
         <v>8</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>4520</v>
+        <v>4471</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>21738</v>
+        <v>37591</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>520.3440000000001</v>
+        <v>393.484</v>
       </c>
       <c r="F41" s="5" t="n">
         <v>0</v>
@@ -2124,29 +2094,29 @@
         <v>0</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.192526</v>
+        <v>0.233184</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.192526</v>
+        <v>0.233184</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B42" s="4" t="n">
         <v>9</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>5108</v>
+        <v>5047</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>21998</v>
+        <v>37660</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>527.422</v>
+        <v>393.484</v>
       </c>
       <c r="F42" s="5" t="n">
         <v>0</v>
@@ -2155,29 +2125,29 @@
         <v>0</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1285862</v>
+        <v>0.1201376</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1285862</v>
+        <v>0.1201376</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B43" s="4" t="n">
         <v>10</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>5676</v>
+        <v>5575</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>22710</v>
+        <v>94259</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>537.922</v>
+        <v>4808.094</v>
       </c>
       <c r="F43" s="5" t="n">
         <v>0</v>
@@ -2186,29 +2156,29 @@
         <v>0</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2414365</v>
+        <v>0.1229662</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2414365</v>
+        <v>0.1229662</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B44" s="4" t="n">
         <v>11</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>6289</v>
+        <v>6197</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>23648</v>
+        <v>95246</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>541.875</v>
+        <v>4865.203</v>
       </c>
       <c r="F44" s="5" t="n">
         <v>0</v>
@@ -2217,29 +2187,29 @@
         <v>0</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2258766</v>
+        <v>0.2826314</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2258766</v>
+        <v>0.2826314</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B45" s="4" t="n">
         <v>12</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>6829</v>
+        <v>6774</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>46472</v>
+        <v>95637</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>951.047</v>
+        <v>4865.516</v>
       </c>
       <c r="F45" s="5" t="n">
         <v>0</v>
@@ -2248,29 +2218,29 @@
         <v>0</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.2485337</v>
+        <v>0.2844053</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2485337</v>
+        <v>0.2844053</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B46" s="4" t="n">
         <v>13</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>7368</v>
+        <v>7359</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>50147</v>
+        <v>96792</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>956.297</v>
+        <v>4877.359</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>0</v>
@@ -2279,29 +2249,29 @@
         <v>0</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2199911</v>
+        <v>0.2844053</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2199911</v>
+        <v>0.2844053</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B47" s="4" t="n">
         <v>14</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>7994</v>
+        <v>7920</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>50672</v>
+        <v>96910</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>956.4059999999999</v>
+        <v>4880.266</v>
       </c>
       <c r="F47" s="5" t="n">
         <v>0</v>
@@ -2310,29 +2280,29 @@
         <v>0</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1091383</v>
+        <v>0.1880851</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1091383</v>
+        <v>0.1880851</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B48" s="4" t="n">
         <v>15</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>8522</v>
+        <v>8553</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>62087</v>
+        <v>97248</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1138.844</v>
+        <v>4880.906</v>
       </c>
       <c r="F48" s="5" t="n">
         <v>0</v>
@@ -2341,29 +2311,29 @@
         <v>0</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2034502</v>
+        <v>0.1033878</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2034502</v>
+        <v>0.1033878</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B49" s="4" t="n">
         <v>16</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>9033</v>
+        <v>9250</v>
       </c>
       <c r="D49" s="5" t="n">
-        <v>62401</v>
+        <v>98483</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>1140.625</v>
+        <v>4907.063</v>
       </c>
       <c r="F49" s="5" t="n">
         <v>0</v>
@@ -2372,29 +2342,29 @@
         <v>0</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2471033</v>
+        <v>0.1060832</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2471033</v>
+        <v>0.1060832</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B50" s="4" t="n">
         <v>17</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>9687</v>
+        <v>9862</v>
       </c>
       <c r="D50" s="5" t="n">
-        <v>62702</v>
+        <v>164386</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>1142.859</v>
+        <v>11341.281</v>
       </c>
       <c r="F50" s="5" t="n">
         <v>0</v>
@@ -2403,29 +2373,29 @@
         <v>0</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.2591467</v>
+        <v>0.0917698</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2591467</v>
+        <v>0.0917698</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B51" s="4" t="n">
         <v>18</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>10315</v>
+        <v>10456</v>
       </c>
       <c r="D51" s="5" t="n">
-        <v>63293</v>
+        <v>177876</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>1146.656</v>
+        <v>12569.578</v>
       </c>
       <c r="F51" s="5" t="n">
         <v>0</v>
@@ -2434,29 +2404,29 @@
         <v>0</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.2503026</v>
+        <v>0.2272512</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.2503026</v>
+        <v>0.2272512</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B52" s="4" t="n">
         <v>19</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>10868</v>
+        <v>10996</v>
       </c>
       <c r="D52" s="5" t="n">
-        <v>64171</v>
+        <v>178642</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>1146.766</v>
+        <v>12603.969</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>0</v>
@@ -2465,29 +2435,29 @@
         <v>0</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.2626572</v>
+        <v>0.1987498</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.2626572</v>
+        <v>0.1987498</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B53" s="4" t="n">
         <v>20</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>11394</v>
+        <v>11596</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>65193</v>
+        <v>179166</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>1153.75</v>
+        <v>12606.875</v>
       </c>
       <c r="F53" s="5" t="n">
         <v>0</v>
@@ -2496,29 +2466,29 @@
         <v>0</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.1769451</v>
+        <v>0.201175</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.1769451</v>
+        <v>0.201175</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B54" s="4" t="n">
         <v>21</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>12024</v>
+        <v>12149</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>71495</v>
+        <v>179746</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1471.875</v>
+        <v>12620.625</v>
       </c>
       <c r="F54" s="5" t="n">
         <v>0</v>
@@ -2527,29 +2497,29 @@
         <v>0</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2264003</v>
+        <v>0.2186665</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2264003</v>
+        <v>0.2186665</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B55" s="4" t="n">
         <v>22</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>12619</v>
+        <v>12664</v>
       </c>
       <c r="D55" s="5" t="n">
-        <v>71988</v>
+        <v>179926</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>1473.125</v>
+        <v>12623.547</v>
       </c>
       <c r="F55" s="5" t="n">
         <v>0</v>
@@ -2558,29 +2528,29 @@
         <v>0</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.3100512</v>
+        <v>0.2634557</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.3100512</v>
+        <v>0.2634557</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B56" s="4" t="n">
         <v>23</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>13220</v>
+        <v>13282</v>
       </c>
       <c r="D56" s="5" t="n">
-        <v>72772</v>
+        <v>180638</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>1492.234</v>
+        <v>12636.344</v>
       </c>
       <c r="F56" s="5" t="n">
         <v>0</v>
@@ -2589,29 +2559,29 @@
         <v>0</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1987498</v>
+        <v>0.2184949</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1987498</v>
+        <v>0.2184949</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B57" s="4" t="n">
         <v>24</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>13755</v>
+        <v>13898</v>
       </c>
       <c r="D57" s="5" t="n">
-        <v>73595</v>
+        <v>193549</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>1511.328</v>
+        <v>13554.313</v>
       </c>
       <c r="F57" s="5" t="n">
         <v>0</v>
@@ -2620,29 +2590,29 @@
         <v>0</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.0940738</v>
+        <v>0.2258766</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.0940738</v>
+        <v>0.2258766</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B58" s="4" t="n">
         <v>25</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>14372</v>
+        <v>14434</v>
       </c>
       <c r="D58" s="5" t="n">
-        <v>98887</v>
+        <v>193837</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>2881.672</v>
+        <v>13555.188</v>
       </c>
       <c r="F58" s="5" t="n">
         <v>0</v>
@@ -2651,29 +2621,29 @@
         <v>0</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.2713141</v>
+        <v>0.2176948</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.2713141</v>
+        <v>0.2176948</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B59" s="4" t="n">
         <v>26</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>14964</v>
+        <v>15100</v>
       </c>
       <c r="D59" s="5" t="n">
-        <v>99103</v>
+        <v>194297</v>
       </c>
       <c r="E59" s="5" t="n">
-        <v>2881.875</v>
+        <v>13558.016</v>
       </c>
       <c r="F59" s="5" t="n">
         <v>0</v>
@@ -2682,29 +2652,29 @@
         <v>0</v>
       </c>
       <c r="H59" s="6" t="n">
-        <v>0.0905072</v>
+        <v>0.208873</v>
       </c>
       <c r="I59" s="6" t="n">
-        <v>0.0905072</v>
+        <v>0.208873</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B60" s="4" t="n">
         <v>27</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>15636</v>
+        <v>15671</v>
       </c>
       <c r="D60" s="5" t="n">
-        <v>123523</v>
+        <v>194602</v>
       </c>
       <c r="E60" s="5" t="n">
-        <v>4420.984</v>
+        <v>13564.25</v>
       </c>
       <c r="F60" s="5" t="n">
         <v>0</v>
@@ -2713,29 +2683,29 @@
         <v>0</v>
       </c>
       <c r="H60" s="6" t="n">
-        <v>0.2502525</v>
+        <v>0.2844053</v>
       </c>
       <c r="I60" s="6" t="n">
-        <v>0.2502525</v>
+        <v>0.2844053</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B61" s="4" t="n">
         <v>28</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>16267</v>
+        <v>16252</v>
       </c>
       <c r="D61" s="5" t="n">
-        <v>123813</v>
+        <v>195404</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>4422.359</v>
+        <v>13564.25</v>
       </c>
       <c r="F61" s="5" t="n">
         <v>0</v>
@@ -2744,29 +2714,29 @@
         <v>0</v>
       </c>
       <c r="H61" s="6" t="n">
-        <v>0.2131697</v>
+        <v>0.2844053</v>
       </c>
       <c r="I61" s="6" t="n">
-        <v>0.2131697</v>
+        <v>0.2844053</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B62" s="4" t="n">
         <v>29</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>16827</v>
+        <v>17009</v>
       </c>
       <c r="D62" s="5" t="n">
-        <v>124104</v>
+        <v>196343</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>4422.391</v>
+        <v>13569.688</v>
       </c>
       <c r="F62" s="5" t="n">
         <v>0</v>
@@ -2775,29 +2745,29 @@
         <v>0</v>
       </c>
       <c r="H62" s="6" t="n">
-        <v>0.2027321</v>
+        <v>0.1918669</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.2027321</v>
+        <v>0.1918669</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B63" s="4" t="n">
         <v>30</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>17389</v>
+        <v>17609</v>
       </c>
       <c r="D63" s="5" t="n">
-        <v>124310</v>
+        <v>198460</v>
       </c>
       <c r="E63" s="5" t="n">
-        <v>4424.219</v>
+        <v>13710.688</v>
       </c>
       <c r="F63" s="5" t="n">
         <v>0</v>
@@ -2815,20 +2785,20 @@
     <row r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B64" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>566</v>
+        <v>654</v>
       </c>
       <c r="D64" s="5" t="n">
-        <v>405</v>
+        <v>531</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>0.125</v>
+        <v>1.313</v>
       </c>
       <c r="F64" s="5" t="n">
         <v>0</v>
@@ -2837,29 +2807,29 @@
         <v>0</v>
       </c>
       <c r="H64" s="6" t="n">
-        <v>0.2365232</v>
+        <v>0.2509308</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.2365232</v>
+        <v>0.2509308</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B65" s="4" t="n">
         <v>2</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>1147</v>
+        <v>1222</v>
       </c>
       <c r="D65" s="5" t="n">
-        <v>788</v>
+        <v>1386</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>4.578</v>
+        <v>10.969</v>
       </c>
       <c r="F65" s="5" t="n">
         <v>0</v>
@@ -2868,29 +2838,29 @@
         <v>0</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>0.2129765</v>
+        <v>0.2098487</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.2129765</v>
+        <v>0.2098487</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B66" s="4" t="n">
         <v>3</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>1668</v>
+        <v>1788</v>
       </c>
       <c r="D66" s="5" t="n">
-        <v>1137</v>
+        <v>1867</v>
       </c>
       <c r="E66" s="5" t="n">
-        <v>11.906</v>
+        <v>38.016</v>
       </c>
       <c r="F66" s="5" t="n">
         <v>0</v>
@@ -2899,29 +2869,29 @@
         <v>0</v>
       </c>
       <c r="H66" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.2110814</v>
       </c>
       <c r="I66" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.2110814</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B67" s="4" t="n">
         <v>4</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>2271</v>
+        <v>2358</v>
       </c>
       <c r="D67" s="5" t="n">
-        <v>2071</v>
+        <v>2203</v>
       </c>
       <c r="E67" s="5" t="n">
-        <v>14.531</v>
+        <v>48.266</v>
       </c>
       <c r="F67" s="5" t="n">
         <v>0</v>
@@ -2930,29 +2900,29 @@
         <v>0</v>
       </c>
       <c r="H67" s="6" t="n">
-        <v>0.2280568</v>
+        <v>0.2641469</v>
       </c>
       <c r="I67" s="6" t="n">
-        <v>0.2280568</v>
+        <v>0.2641469</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B68" s="4" t="n">
         <v>5</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>2866</v>
+        <v>2982</v>
       </c>
       <c r="D68" s="5" t="n">
-        <v>3027</v>
+        <v>4382</v>
       </c>
       <c r="E68" s="5" t="n">
-        <v>42.344</v>
+        <v>328.75</v>
       </c>
       <c r="F68" s="5" t="n">
         <v>0</v>
@@ -2961,29 +2931,29 @@
         <v>0</v>
       </c>
       <c r="H68" s="6" t="n">
-        <v>0.1234865</v>
+        <v>0.2788382</v>
       </c>
       <c r="I68" s="6" t="n">
-        <v>0.1234865</v>
+        <v>0.2788382</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B69" s="4" t="n">
         <v>6</v>
       </c>
       <c r="C69" s="5" t="n">
-        <v>3568</v>
+        <v>3537</v>
       </c>
       <c r="D69" s="5" t="n">
-        <v>46746</v>
+        <v>4851</v>
       </c>
       <c r="E69" s="5" t="n">
-        <v>3227.203</v>
+        <v>347.719</v>
       </c>
       <c r="F69" s="5" t="n">
         <v>0</v>
@@ -2992,29 +2962,29 @@
         <v>0</v>
       </c>
       <c r="H69" s="6" t="n">
-        <v>0.1142576</v>
+        <v>0.1232496</v>
       </c>
       <c r="I69" s="6" t="n">
-        <v>0.1142576</v>
+        <v>0.1232496</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B70" s="4" t="n">
         <v>7</v>
       </c>
       <c r="C70" s="5" t="n">
-        <v>4152</v>
+        <v>4087</v>
       </c>
       <c r="D70" s="5" t="n">
-        <v>85755</v>
+        <v>28631</v>
       </c>
       <c r="E70" s="5" t="n">
-        <v>6140.953</v>
+        <v>3465.188</v>
       </c>
       <c r="F70" s="5" t="n">
         <v>0</v>
@@ -3023,29 +2993,29 @@
         <v>0</v>
       </c>
       <c r="H70" s="6" t="n">
-        <v>0.2656861</v>
+        <v>0.2617761</v>
       </c>
       <c r="I70" s="6" t="n">
-        <v>0.2656861</v>
+        <v>0.2617761</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B71" s="4" t="n">
         <v>8</v>
       </c>
       <c r="C71" s="5" t="n">
-        <v>4730</v>
+        <v>4729</v>
       </c>
       <c r="D71" s="5" t="n">
-        <v>86094</v>
+        <v>28879</v>
       </c>
       <c r="E71" s="5" t="n">
-        <v>6143.688</v>
+        <v>3465.406</v>
       </c>
       <c r="F71" s="5" t="n">
         <v>0</v>
@@ -3054,29 +3024,29 @@
         <v>0</v>
       </c>
       <c r="H71" s="6" t="n">
-        <v>0.1904234</v>
+        <v>0.1838224</v>
       </c>
       <c r="I71" s="6" t="n">
-        <v>0.1904234</v>
+        <v>0.1838224</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B72" s="4" t="n">
         <v>9</v>
       </c>
       <c r="C72" s="5" t="n">
-        <v>5258</v>
+        <v>5320</v>
       </c>
       <c r="D72" s="5" t="n">
-        <v>90373</v>
+        <v>29491</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>6404.547</v>
+        <v>3479.125</v>
       </c>
       <c r="F72" s="5" t="n">
         <v>0</v>
@@ -3085,29 +3055,29 @@
         <v>0</v>
       </c>
       <c r="H72" s="6" t="n">
-        <v>0.1684238</v>
+        <v>0.1218389</v>
       </c>
       <c r="I72" s="6" t="n">
-        <v>0.1684238</v>
+        <v>0.1218389</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B73" s="4" t="n">
         <v>10</v>
       </c>
       <c r="C73" s="5" t="n">
-        <v>5914</v>
+        <v>5877</v>
       </c>
       <c r="D73" s="5" t="n">
-        <v>90726</v>
+        <v>76930</v>
       </c>
       <c r="E73" s="5" t="n">
-        <v>6405.844</v>
+        <v>9230.422</v>
       </c>
       <c r="F73" s="5" t="n">
         <v>0</v>
@@ -3116,29 +3086,29 @@
         <v>0</v>
       </c>
       <c r="H73" s="6" t="n">
-        <v>0.2381153</v>
+        <v>0.2667958</v>
       </c>
       <c r="I73" s="6" t="n">
-        <v>0.2381153</v>
+        <v>0.2667958</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B74" s="4" t="n">
         <v>11</v>
       </c>
       <c r="C74" s="5" t="n">
-        <v>6534</v>
+        <v>6422</v>
       </c>
       <c r="D74" s="5" t="n">
-        <v>91135</v>
+        <v>77029</v>
       </c>
       <c r="E74" s="5" t="n">
-        <v>6405.844</v>
+        <v>9230.422</v>
       </c>
       <c r="F74" s="5" t="n">
         <v>0</v>
@@ -3147,29 +3117,29 @@
         <v>0</v>
       </c>
       <c r="H74" s="6" t="n">
-        <v>0.1904234</v>
+        <v>0.2183271</v>
       </c>
       <c r="I74" s="6" t="n">
-        <v>0.1904234</v>
+        <v>0.2183271</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B75" s="4" t="n">
         <v>12</v>
       </c>
       <c r="C75" s="5" t="n">
-        <v>7139</v>
+        <v>7004</v>
       </c>
       <c r="D75" s="5" t="n">
-        <v>98290</v>
+        <v>77439</v>
       </c>
       <c r="E75" s="5" t="n">
-        <v>6773.875</v>
+        <v>9235.172</v>
       </c>
       <c r="F75" s="5" t="n">
         <v>0</v>
@@ -3178,29 +3148,29 @@
         <v>0</v>
       </c>
       <c r="H75" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.1704796</v>
       </c>
       <c r="I75" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.1704796</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B76" s="4" t="n">
         <v>13</v>
       </c>
       <c r="C76" s="5" t="n">
-        <v>7754</v>
+        <v>7605</v>
       </c>
       <c r="D76" s="5" t="n">
-        <v>98723</v>
+        <v>78111</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>6775.844</v>
+        <v>9250.531000000001</v>
       </c>
       <c r="F76" s="5" t="n">
         <v>0</v>
@@ -3209,29 +3179,29 @@
         <v>0</v>
       </c>
       <c r="H76" s="6" t="n">
-        <v>0.2706917</v>
+        <v>0.2498192</v>
       </c>
       <c r="I76" s="6" t="n">
-        <v>0.2706917</v>
+        <v>0.2498192</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B77" s="4" t="n">
         <v>14</v>
       </c>
       <c r="C77" s="5" t="n">
-        <v>8380</v>
+        <v>8200</v>
       </c>
       <c r="D77" s="5" t="n">
-        <v>99666</v>
+        <v>78317</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>6790.531</v>
+        <v>9258.188</v>
       </c>
       <c r="F77" s="5" t="n">
         <v>0</v>
@@ -3240,29 +3210,29 @@
         <v>0</v>
       </c>
       <c r="H77" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.1838224</v>
       </c>
       <c r="I77" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.1838224</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B78" s="4" t="n">
         <v>15</v>
       </c>
       <c r="C78" s="5" t="n">
-        <v>9068</v>
+        <v>8808</v>
       </c>
       <c r="D78" s="5" t="n">
-        <v>99964</v>
+        <v>79931</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>6790.656</v>
+        <v>9394.25</v>
       </c>
       <c r="F78" s="5" t="n">
         <v>0</v>
@@ -3271,29 +3241,29 @@
         <v>0</v>
       </c>
       <c r="H78" s="6" t="n">
-        <v>0.1279683</v>
+        <v>0.1920985</v>
       </c>
       <c r="I78" s="6" t="n">
-        <v>0.1279683</v>
+        <v>0.1920985</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B79" s="4" t="n">
         <v>16</v>
       </c>
       <c r="C79" s="5" t="n">
-        <v>9621</v>
+        <v>9351</v>
       </c>
       <c r="D79" s="5" t="n">
-        <v>102588</v>
+        <v>80265</v>
       </c>
       <c r="E79" s="5" t="n">
-        <v>6910.219</v>
+        <v>9394.468999999999</v>
       </c>
       <c r="F79" s="5" t="n">
         <v>0</v>
@@ -3302,29 +3272,29 @@
         <v>0</v>
       </c>
       <c r="H79" s="6" t="n">
-        <v>0.1838224</v>
+        <v>0.1146563</v>
       </c>
       <c r="I79" s="6" t="n">
-        <v>0.1838224</v>
+        <v>0.1146563</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B80" s="4" t="n">
         <v>17</v>
       </c>
       <c r="C80" s="5" t="n">
-        <v>10158</v>
+        <v>9966</v>
       </c>
       <c r="D80" s="5" t="n">
-        <v>120479</v>
+        <v>119963</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>7287.609</v>
+        <v>13801.844</v>
       </c>
       <c r="F80" s="5" t="n">
         <v>0</v>
@@ -3333,29 +3303,29 @@
         <v>0</v>
       </c>
       <c r="H80" s="6" t="n">
-        <v>0.1937767</v>
+        <v>0.1980923</v>
       </c>
       <c r="I80" s="6" t="n">
-        <v>0.1937767</v>
+        <v>0.1980923</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B81" s="4" t="n">
         <v>18</v>
       </c>
       <c r="C81" s="5" t="n">
-        <v>10727</v>
+        <v>10518</v>
       </c>
       <c r="D81" s="5" t="n">
-        <v>120894</v>
+        <v>120554</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>7295.531</v>
+        <v>13813.891</v>
       </c>
       <c r="F81" s="5" t="n">
         <v>0</v>
@@ -3364,29 +3334,29 @@
         <v>0</v>
       </c>
       <c r="H81" s="6" t="n">
-        <v>0.1938797</v>
+        <v>0.2844053</v>
       </c>
       <c r="I81" s="6" t="n">
-        <v>0.1938797</v>
+        <v>0.2844053</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B82" s="4" t="n">
         <v>19</v>
       </c>
       <c r="C82" s="5" t="n">
-        <v>11226</v>
+        <v>11092</v>
       </c>
       <c r="D82" s="5" t="n">
-        <v>121296</v>
+        <v>120898</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>7309.25</v>
+        <v>13814.109</v>
       </c>
       <c r="F82" s="5" t="n">
         <v>0</v>
@@ -3395,29 +3365,29 @@
         <v>0</v>
       </c>
       <c r="H82" s="6" t="n">
-        <v>0.1826752</v>
+        <v>0.1395497</v>
       </c>
       <c r="I82" s="6" t="n">
-        <v>0.1826752</v>
+        <v>0.1395497</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B83" s="4" t="n">
         <v>20</v>
       </c>
       <c r="C83" s="5" t="n">
-        <v>11783</v>
+        <v>11804</v>
       </c>
       <c r="D83" s="5" t="n">
-        <v>122040</v>
+        <v>121445</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>7336.125</v>
+        <v>13829.688</v>
       </c>
       <c r="F83" s="5" t="n">
         <v>0</v>
@@ -3426,29 +3396,29 @@
         <v>0</v>
       </c>
       <c r="H83" s="6" t="n">
-        <v>0.2688232</v>
+        <v>0.2235431</v>
       </c>
       <c r="I83" s="6" t="n">
-        <v>0.2688232</v>
+        <v>0.2235431</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B84" s="4" t="n">
         <v>21</v>
       </c>
       <c r="C84" s="5" t="n">
-        <v>12362</v>
+        <v>12427</v>
       </c>
       <c r="D84" s="5" t="n">
-        <v>122237</v>
+        <v>121671</v>
       </c>
       <c r="E84" s="5" t="n">
-        <v>7340.203</v>
+        <v>13831.234</v>
       </c>
       <c r="F84" s="5" t="n">
         <v>0</v>
@@ -3457,29 +3427,29 @@
         <v>0</v>
       </c>
       <c r="H84" s="6" t="n">
-        <v>0.1950825</v>
+        <v>0.2844053</v>
       </c>
       <c r="I84" s="6" t="n">
-        <v>0.1950825</v>
+        <v>0.2844053</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B85" s="4" t="n">
         <v>22</v>
       </c>
       <c r="C85" s="5" t="n">
-        <v>12934</v>
+        <v>13001</v>
       </c>
       <c r="D85" s="5" t="n">
-        <v>122504</v>
+        <v>121990</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>7341.219</v>
+        <v>13832.281</v>
       </c>
       <c r="F85" s="5" t="n">
         <v>0</v>
@@ -3488,29 +3458,29 @@
         <v>0</v>
       </c>
       <c r="H85" s="6" t="n">
-        <v>0.2359531</v>
+        <v>0.2285513</v>
       </c>
       <c r="I85" s="6" t="n">
-        <v>0.2359531</v>
+        <v>0.2285513</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B86" s="4" t="n">
         <v>23</v>
       </c>
       <c r="C86" s="5" t="n">
-        <v>13558</v>
+        <v>13538</v>
       </c>
       <c r="D86" s="5" t="n">
-        <v>124536</v>
+        <v>122134</v>
       </c>
       <c r="E86" s="5" t="n">
-        <v>7345.906</v>
+        <v>13837.453</v>
       </c>
       <c r="F86" s="5" t="n">
         <v>0</v>
@@ -3519,29 +3489,29 @@
         <v>0</v>
       </c>
       <c r="H86" s="6" t="n">
-        <v>0.2480938</v>
+        <v>0.2633335</v>
       </c>
       <c r="I86" s="6" t="n">
-        <v>0.2480938</v>
+        <v>0.2633335</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B87" s="4" t="n">
         <v>24</v>
       </c>
       <c r="C87" s="5" t="n">
-        <v>14229</v>
+        <v>14110</v>
       </c>
       <c r="D87" s="5" t="n">
-        <v>128422</v>
+        <v>122749</v>
       </c>
       <c r="E87" s="5" t="n">
-        <v>7348.016</v>
+        <v>13841.266</v>
       </c>
       <c r="F87" s="5" t="n">
         <v>0</v>
@@ -3550,29 +3520,29 @@
         <v>0</v>
       </c>
       <c r="H87" s="6" t="n">
-        <v>0.1987498</v>
+        <v>0.2755141</v>
       </c>
       <c r="I87" s="6" t="n">
-        <v>0.1987498</v>
+        <v>0.2755141</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B88" s="4" t="n">
         <v>25</v>
       </c>
       <c r="C88" s="5" t="n">
-        <v>14810</v>
+        <v>14755</v>
       </c>
       <c r="D88" s="5" t="n">
-        <v>131051</v>
+        <v>123888</v>
       </c>
       <c r="E88" s="5" t="n">
-        <v>7426.328</v>
+        <v>13857.031</v>
       </c>
       <c r="F88" s="5" t="n">
         <v>0</v>
@@ -3581,29 +3551,29 @@
         <v>0</v>
       </c>
       <c r="H88" s="6" t="n">
-        <v>0.1904234</v>
+        <v>0.2663427</v>
       </c>
       <c r="I88" s="6" t="n">
-        <v>0.1904234</v>
+        <v>0.2663427</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B89" s="4" t="n">
         <v>26</v>
       </c>
       <c r="C89" s="5" t="n">
-        <v>15379</v>
+        <v>15398</v>
       </c>
       <c r="D89" s="5" t="n">
-        <v>131737</v>
+        <v>124568</v>
       </c>
       <c r="E89" s="5" t="n">
-        <v>7443.359</v>
+        <v>13862.172</v>
       </c>
       <c r="F89" s="5" t="n">
         <v>0</v>
@@ -3612,29 +3582,29 @@
         <v>0</v>
       </c>
       <c r="H89" s="6" t="n">
-        <v>0.1950825</v>
+        <v>0.1870038</v>
       </c>
       <c r="I89" s="6" t="n">
-        <v>0.1950825</v>
+        <v>0.1870038</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B90" s="4" t="n">
         <v>27</v>
       </c>
       <c r="C90" s="5" t="n">
-        <v>15957</v>
+        <v>16000</v>
       </c>
       <c r="D90" s="5" t="n">
-        <v>132172</v>
+        <v>134847</v>
       </c>
       <c r="E90" s="5" t="n">
-        <v>7457.859</v>
+        <v>15375.422</v>
       </c>
       <c r="F90" s="5" t="n">
         <v>0</v>
@@ -3643,29 +3613,29 @@
         <v>0</v>
       </c>
       <c r="H90" s="6" t="n">
-        <v>0.216625</v>
+        <v>0.2487015</v>
       </c>
       <c r="I90" s="6" t="n">
-        <v>0.216625</v>
+        <v>0.2487015</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B91" s="4" t="n">
         <v>28</v>
       </c>
       <c r="C91" s="5" t="n">
-        <v>16491</v>
+        <v>16585</v>
       </c>
       <c r="D91" s="5" t="n">
-        <v>132614</v>
+        <v>135004</v>
       </c>
       <c r="E91" s="5" t="n">
-        <v>7458.109</v>
+        <v>15375.5</v>
       </c>
       <c r="F91" s="5" t="n">
         <v>0</v>
@@ -3674,29 +3644,29 @@
         <v>0</v>
       </c>
       <c r="H91" s="6" t="n">
-        <v>0.1904234</v>
+        <v>0.119323</v>
       </c>
       <c r="I91" s="6" t="n">
-        <v>0.1904234</v>
+        <v>0.119323</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B92" s="4" t="n">
         <v>29</v>
       </c>
       <c r="C92" s="5" t="n">
-        <v>17084</v>
+        <v>17195</v>
       </c>
       <c r="D92" s="5" t="n">
-        <v>132753</v>
+        <v>158688</v>
       </c>
       <c r="E92" s="5" t="n">
-        <v>7461.969</v>
+        <v>18359.891</v>
       </c>
       <c r="F92" s="5" t="n">
         <v>0</v>
@@ -3705,29 +3675,29 @@
         <v>0</v>
       </c>
       <c r="H92" s="6" t="n">
-        <v>0.1989461</v>
+        <v>0.2213283</v>
       </c>
       <c r="I92" s="6" t="n">
-        <v>0.1989461</v>
+        <v>0.2213283</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B93" s="4" t="n">
         <v>30</v>
       </c>
       <c r="C93" s="5" t="n">
-        <v>17666</v>
+        <v>17767</v>
       </c>
       <c r="D93" s="5" t="n">
-        <v>133050</v>
+        <v>159071</v>
       </c>
       <c r="E93" s="5" t="n">
-        <v>7462.172</v>
+        <v>18364.703</v>
       </c>
       <c r="F93" s="5" t="n">
         <v>0</v>
@@ -3745,20 +3715,20 @@
     <row r="94">
       <c r="A94" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B94" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C94" s="5" t="n">
-        <v>582</v>
+        <v>632</v>
       </c>
       <c r="D94" s="5" t="n">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="E94" s="5" t="n">
-        <v>3.328</v>
+        <v>0.188</v>
       </c>
       <c r="F94" s="5" t="n">
         <v>0</v>
@@ -3767,29 +3737,29 @@
         <v>0</v>
       </c>
       <c r="H94" s="6" t="n">
-        <v>0.2572555</v>
+        <v>0.2707355</v>
       </c>
       <c r="I94" s="6" t="n">
-        <v>0.2572555</v>
+        <v>0.2707355</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B95" s="4" t="n">
         <v>2</v>
       </c>
       <c r="C95" s="5" t="n">
-        <v>1135</v>
+        <v>1222</v>
       </c>
       <c r="D95" s="5" t="n">
-        <v>513</v>
+        <v>455</v>
       </c>
       <c r="E95" s="5" t="n">
-        <v>3.641</v>
+        <v>7.328</v>
       </c>
       <c r="F95" s="5" t="n">
         <v>0</v>
@@ -3798,29 +3768,29 @@
         <v>0</v>
       </c>
       <c r="H95" s="6" t="n">
-        <v>0.1250019</v>
+        <v>0.2844053</v>
       </c>
       <c r="I95" s="6" t="n">
-        <v>0.1250019</v>
+        <v>0.2844053</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B96" s="4" t="n">
         <v>3</v>
       </c>
       <c r="C96" s="5" t="n">
-        <v>1628</v>
+        <v>1880</v>
       </c>
       <c r="D96" s="5" t="n">
-        <v>33094</v>
+        <v>849</v>
       </c>
       <c r="E96" s="5" t="n">
-        <v>2445.219</v>
+        <v>7.703</v>
       </c>
       <c r="F96" s="5" t="n">
         <v>0</v>
@@ -3829,29 +3799,29 @@
         <v>0</v>
       </c>
       <c r="H96" s="6" t="n">
-        <v>0.22417</v>
+        <v>0.2263391</v>
       </c>
       <c r="I96" s="6" t="n">
-        <v>0.22417</v>
+        <v>0.2263391</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B97" s="4" t="n">
         <v>4</v>
       </c>
       <c r="C97" s="5" t="n">
-        <v>2221</v>
+        <v>2428</v>
       </c>
       <c r="D97" s="5" t="n">
-        <v>33689</v>
+        <v>1250</v>
       </c>
       <c r="E97" s="5" t="n">
-        <v>2464.766</v>
+        <v>7.703</v>
       </c>
       <c r="F97" s="5" t="n">
         <v>0</v>
@@ -3860,29 +3830,29 @@
         <v>0</v>
       </c>
       <c r="H97" s="6" t="n">
-        <v>0.1134578</v>
+        <v>0.1161702</v>
       </c>
       <c r="I97" s="6" t="n">
-        <v>0.1134578</v>
+        <v>0.1161702</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B98" s="4" t="n">
         <v>5</v>
       </c>
       <c r="C98" s="5" t="n">
-        <v>2824</v>
+        <v>3017</v>
       </c>
       <c r="D98" s="5" t="n">
-        <v>94580</v>
+        <v>9781</v>
       </c>
       <c r="E98" s="5" t="n">
-        <v>9255.234</v>
+        <v>1582.563</v>
       </c>
       <c r="F98" s="5" t="n">
         <v>0</v>
@@ -3891,29 +3861,29 @@
         <v>0</v>
       </c>
       <c r="H98" s="6" t="n">
-        <v>0.2304461</v>
+        <v>0.2195415</v>
       </c>
       <c r="I98" s="6" t="n">
-        <v>0.2304461</v>
+        <v>0.2195415</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B99" s="4" t="n">
         <v>6</v>
       </c>
       <c r="C99" s="5" t="n">
-        <v>3335</v>
+        <v>3653</v>
       </c>
       <c r="D99" s="5" t="n">
-        <v>97426</v>
+        <v>10116</v>
       </c>
       <c r="E99" s="5" t="n">
-        <v>9488.797</v>
+        <v>1582.766</v>
       </c>
       <c r="F99" s="5" t="n">
         <v>0</v>
@@ -3922,29 +3892,29 @@
         <v>0</v>
       </c>
       <c r="H99" s="6" t="n">
-        <v>0.210489</v>
+        <v>0.2489028</v>
       </c>
       <c r="I99" s="6" t="n">
-        <v>0.210489</v>
+        <v>0.2489028</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B100" s="4" t="n">
         <v>7</v>
       </c>
       <c r="C100" s="5" t="n">
-        <v>3891</v>
+        <v>4184</v>
       </c>
       <c r="D100" s="5" t="n">
-        <v>97776</v>
+        <v>10714</v>
       </c>
       <c r="E100" s="5" t="n">
-        <v>9500.625</v>
+        <v>1655.453</v>
       </c>
       <c r="F100" s="5" t="n">
         <v>0</v>
@@ -3953,29 +3923,29 @@
         <v>0</v>
       </c>
       <c r="H100" s="6" t="n">
-        <v>0.2222444</v>
+        <v>0.2530358</v>
       </c>
       <c r="I100" s="6" t="n">
-        <v>0.2222444</v>
+        <v>0.2530358</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B101" s="4" t="n">
         <v>8</v>
       </c>
       <c r="C101" s="5" t="n">
-        <v>4428</v>
+        <v>4774</v>
       </c>
       <c r="D101" s="5" t="n">
-        <v>112798</v>
+        <v>10974</v>
       </c>
       <c r="E101" s="5" t="n">
-        <v>10777.484</v>
+        <v>1662.656</v>
       </c>
       <c r="F101" s="5" t="n">
         <v>0</v>
@@ -3984,29 +3954,29 @@
         <v>0</v>
       </c>
       <c r="H101" s="6" t="n">
-        <v>0.2359851</v>
+        <v>0.2095464</v>
       </c>
       <c r="I101" s="6" t="n">
-        <v>0.2359851</v>
+        <v>0.2095464</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B102" s="4" t="n">
         <v>9</v>
       </c>
       <c r="C102" s="5" t="n">
-        <v>5085</v>
+        <v>5316</v>
       </c>
       <c r="D102" s="5" t="n">
-        <v>145680</v>
+        <v>11997</v>
       </c>
       <c r="E102" s="5" t="n">
-        <v>13252.391</v>
+        <v>1662.984</v>
       </c>
       <c r="F102" s="5" t="n">
         <v>0</v>
@@ -4015,29 +3985,29 @@
         <v>0</v>
       </c>
       <c r="H102" s="6" t="n">
-        <v>0.2217349</v>
+        <v>0.1755135</v>
       </c>
       <c r="I102" s="6" t="n">
-        <v>0.2217349</v>
+        <v>0.1755135</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B103" s="4" t="n">
         <v>10</v>
       </c>
       <c r="C103" s="5" t="n">
-        <v>5625</v>
+        <v>5909</v>
       </c>
       <c r="D103" s="5" t="n">
-        <v>146694</v>
+        <v>12326</v>
       </c>
       <c r="E103" s="5" t="n">
-        <v>13295.594</v>
+        <v>1695.375</v>
       </c>
       <c r="F103" s="5" t="n">
         <v>0</v>
@@ -4046,29 +4016,29 @@
         <v>0</v>
       </c>
       <c r="H103" s="6" t="n">
-        <v>0.1260111</v>
+        <v>0.2187398</v>
       </c>
       <c r="I103" s="6" t="n">
-        <v>0.1260111</v>
+        <v>0.2187398</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B104" s="4" t="n">
         <v>11</v>
       </c>
       <c r="C104" s="5" t="n">
-        <v>6127</v>
+        <v>6491</v>
       </c>
       <c r="D104" s="5" t="n">
-        <v>146931</v>
+        <v>12585</v>
       </c>
       <c r="E104" s="5" t="n">
-        <v>13314.594</v>
+        <v>1707.328</v>
       </c>
       <c r="F104" s="5" t="n">
         <v>0</v>
@@ -4077,29 +4047,29 @@
         <v>0</v>
       </c>
       <c r="H104" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.2640905</v>
       </c>
       <c r="I104" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.2640905</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B105" s="4" t="n">
         <v>12</v>
       </c>
       <c r="C105" s="5" t="n">
-        <v>6709</v>
+        <v>7048</v>
       </c>
       <c r="D105" s="5" t="n">
-        <v>147222</v>
+        <v>13123</v>
       </c>
       <c r="E105" s="5" t="n">
-        <v>13314.594</v>
+        <v>1723.906</v>
       </c>
       <c r="F105" s="5" t="n">
         <v>0</v>
@@ -4108,29 +4078,29 @@
         <v>0</v>
       </c>
       <c r="H105" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.1206024</v>
       </c>
       <c r="I105" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.1206024</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B106" s="4" t="n">
         <v>13</v>
       </c>
       <c r="C106" s="5" t="n">
-        <v>7302</v>
+        <v>7615</v>
       </c>
       <c r="D106" s="5" t="n">
-        <v>147492</v>
+        <v>60228</v>
       </c>
       <c r="E106" s="5" t="n">
-        <v>13314.594</v>
+        <v>10707.078</v>
       </c>
       <c r="F106" s="5" t="n">
         <v>0</v>
@@ -4139,29 +4109,29 @@
         <v>0</v>
       </c>
       <c r="H106" s="6" t="n">
-        <v>0.2256643</v>
+        <v>0.1250019</v>
       </c>
       <c r="I106" s="6" t="n">
-        <v>0.2256643</v>
+        <v>0.1250019</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B107" s="4" t="n">
         <v>14</v>
       </c>
       <c r="C107" s="5" t="n">
-        <v>7820</v>
+        <v>8182</v>
       </c>
       <c r="D107" s="5" t="n">
-        <v>147885</v>
+        <v>65693</v>
       </c>
       <c r="E107" s="5" t="n">
-        <v>13321.516</v>
+        <v>11424.781</v>
       </c>
       <c r="F107" s="5" t="n">
         <v>0</v>
@@ -4170,29 +4140,29 @@
         <v>0</v>
       </c>
       <c r="H107" s="6" t="n">
-        <v>0.2568637</v>
+        <v>0.2844053</v>
       </c>
       <c r="I107" s="6" t="n">
-        <v>0.2568637</v>
+        <v>0.2844053</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B108" s="4" t="n">
         <v>15</v>
       </c>
       <c r="C108" s="5" t="n">
-        <v>8341</v>
+        <v>8719</v>
       </c>
       <c r="D108" s="5" t="n">
-        <v>148114</v>
+        <v>66067</v>
       </c>
       <c r="E108" s="5" t="n">
-        <v>13326.109</v>
+        <v>11424.781</v>
       </c>
       <c r="F108" s="5" t="n">
         <v>0</v>
@@ -4201,29 +4171,29 @@
         <v>0</v>
       </c>
       <c r="H108" s="6" t="n">
-        <v>0.1250019</v>
+        <v>0.1176871</v>
       </c>
       <c r="I108" s="6" t="n">
-        <v>0.1250019</v>
+        <v>0.1176871</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B109" s="4" t="n">
         <v>16</v>
       </c>
       <c r="C109" s="5" t="n">
-        <v>8862</v>
+        <v>9325</v>
       </c>
       <c r="D109" s="5" t="n">
-        <v>150339</v>
+        <v>117309</v>
       </c>
       <c r="E109" s="5" t="n">
-        <v>13536.063</v>
+        <v>18184.078</v>
       </c>
       <c r="F109" s="5" t="n">
         <v>0</v>
@@ -4232,29 +4202,29 @@
         <v>0</v>
       </c>
       <c r="H109" s="6" t="n">
-        <v>0.1904234</v>
+        <v>0.2055215</v>
       </c>
       <c r="I109" s="6" t="n">
-        <v>0.1904234</v>
+        <v>0.2055215</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B110" s="4" t="n">
         <v>17</v>
       </c>
       <c r="C110" s="5" t="n">
-        <v>9426</v>
+        <v>9891</v>
       </c>
       <c r="D110" s="5" t="n">
-        <v>150840</v>
+        <v>117482</v>
       </c>
       <c r="E110" s="5" t="n">
-        <v>13548.328</v>
+        <v>18184.078</v>
       </c>
       <c r="F110" s="5" t="n">
         <v>0</v>
@@ -4263,29 +4233,29 @@
         <v>0</v>
       </c>
       <c r="H110" s="6" t="n">
-        <v>0.1838224</v>
+        <v>0.1249024</v>
       </c>
       <c r="I110" s="6" t="n">
-        <v>0.1838224</v>
+        <v>0.1249024</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B111" s="4" t="n">
         <v>18</v>
       </c>
       <c r="C111" s="5" t="n">
-        <v>10024</v>
+        <v>10449</v>
       </c>
       <c r="D111" s="5" t="n">
-        <v>151448</v>
+        <v>165547</v>
       </c>
       <c r="E111" s="5" t="n">
-        <v>13563.188</v>
+        <v>26878.344</v>
       </c>
       <c r="F111" s="5" t="n">
         <v>0</v>
@@ -4294,29 +4264,29 @@
         <v>0</v>
       </c>
       <c r="H111" s="6" t="n">
-        <v>0.2693628</v>
+        <v>0.12151</v>
       </c>
       <c r="I111" s="6" t="n">
-        <v>0.2693628</v>
+        <v>0.12151</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B112" s="4" t="n">
         <v>19</v>
       </c>
       <c r="C112" s="5" t="n">
-        <v>10591</v>
+        <v>11039</v>
       </c>
       <c r="D112" s="5" t="n">
-        <v>158018</v>
+        <v>197784</v>
       </c>
       <c r="E112" s="5" t="n">
-        <v>13600.703</v>
+        <v>31095.625</v>
       </c>
       <c r="F112" s="5" t="n">
         <v>0</v>
@@ -4325,29 +4295,29 @@
         <v>0</v>
       </c>
       <c r="H112" s="6" t="n">
-        <v>0.1096297</v>
+        <v>0.1979822</v>
       </c>
       <c r="I112" s="6" t="n">
-        <v>0.1096297</v>
+        <v>0.1979822</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B113" s="4" t="n">
         <v>20</v>
       </c>
       <c r="C113" s="5" t="n">
-        <v>11228</v>
+        <v>11623</v>
       </c>
       <c r="D113" s="5" t="n">
-        <v>192203</v>
+        <v>199378</v>
       </c>
       <c r="E113" s="5" t="n">
-        <v>17343.625</v>
+        <v>31122.781</v>
       </c>
       <c r="F113" s="5" t="n">
         <v>0</v>
@@ -4356,29 +4326,29 @@
         <v>0</v>
       </c>
       <c r="H113" s="6" t="n">
-        <v>0.1250019</v>
+        <v>0.223656</v>
       </c>
       <c r="I113" s="6" t="n">
-        <v>0.1250019</v>
+        <v>0.223656</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B114" s="4" t="n">
         <v>21</v>
       </c>
       <c r="C114" s="5" t="n">
-        <v>11752</v>
+        <v>12178</v>
       </c>
       <c r="D114" s="5" t="n">
-        <v>273977</v>
+        <v>200153</v>
       </c>
       <c r="E114" s="5" t="n">
-        <v>22491.844</v>
+        <v>31144.969</v>
       </c>
       <c r="F114" s="5" t="n">
         <v>0</v>
@@ -4387,29 +4357,29 @@
         <v>0</v>
       </c>
       <c r="H114" s="6" t="n">
-        <v>0.1987498</v>
+        <v>0.16747</v>
       </c>
       <c r="I114" s="6" t="n">
-        <v>0.1987498</v>
+        <v>0.16747</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B115" s="4" t="n">
         <v>22</v>
       </c>
       <c r="C115" s="5" t="n">
-        <v>12313</v>
+        <v>12715</v>
       </c>
       <c r="D115" s="5" t="n">
-        <v>286097</v>
+        <v>200402</v>
       </c>
       <c r="E115" s="5" t="n">
-        <v>23745.156</v>
+        <v>31145.297</v>
       </c>
       <c r="F115" s="5" t="n">
         <v>0</v>
@@ -4418,29 +4388,29 @@
         <v>0</v>
       </c>
       <c r="H115" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.2373027</v>
       </c>
       <c r="I115" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.2373027</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B116" s="4" t="n">
         <v>23</v>
       </c>
       <c r="C116" s="5" t="n">
-        <v>12886</v>
+        <v>13274</v>
       </c>
       <c r="D116" s="5" t="n">
-        <v>287097</v>
+        <v>201967</v>
       </c>
       <c r="E116" s="5" t="n">
-        <v>23748.797</v>
+        <v>31234.766</v>
       </c>
       <c r="F116" s="5" t="n">
         <v>0</v>
@@ -4449,29 +4419,29 @@
         <v>0</v>
       </c>
       <c r="H116" s="6" t="n">
-        <v>0.2226938</v>
+        <v>0.2300347</v>
       </c>
       <c r="I116" s="6" t="n">
-        <v>0.2226938</v>
+        <v>0.2300347</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B117" s="4" t="n">
         <v>24</v>
       </c>
       <c r="C117" s="5" t="n">
-        <v>13473</v>
+        <v>13806</v>
       </c>
       <c r="D117" s="5" t="n">
-        <v>290940</v>
+        <v>202488</v>
       </c>
       <c r="E117" s="5" t="n">
-        <v>23923.672</v>
+        <v>31263.094</v>
       </c>
       <c r="F117" s="5" t="n">
         <v>0</v>
@@ -4480,29 +4450,29 @@
         <v>0</v>
       </c>
       <c r="H117" s="6" t="n">
-        <v>0.2069138</v>
+        <v>0.2614626</v>
       </c>
       <c r="I117" s="6" t="n">
-        <v>0.2069138</v>
+        <v>0.2614626</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B118" s="4" t="n">
         <v>25</v>
       </c>
       <c r="C118" s="5" t="n">
-        <v>14017</v>
+        <v>14403</v>
       </c>
       <c r="D118" s="5" t="n">
-        <v>291339</v>
+        <v>203001</v>
       </c>
       <c r="E118" s="5" t="n">
-        <v>23929.031</v>
+        <v>31269.875</v>
       </c>
       <c r="F118" s="5" t="n">
         <v>0</v>
@@ -4511,29 +4481,29 @@
         <v>0</v>
       </c>
       <c r="H118" s="6" t="n">
-        <v>0.2174278</v>
+        <v>0.12151</v>
       </c>
       <c r="I118" s="6" t="n">
-        <v>0.2174278</v>
+        <v>0.12151</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B119" s="4" t="n">
         <v>26</v>
       </c>
       <c r="C119" s="5" t="n">
-        <v>14550</v>
+        <v>14947</v>
       </c>
       <c r="D119" s="5" t="n">
-        <v>291598</v>
+        <v>254074</v>
       </c>
       <c r="E119" s="5" t="n">
-        <v>23932.234</v>
+        <v>37437.781</v>
       </c>
       <c r="F119" s="5" t="n">
         <v>0</v>
@@ -4542,29 +4512,29 @@
         <v>0</v>
       </c>
       <c r="H119" s="6" t="n">
-        <v>0.1263403</v>
+        <v>0.2501633</v>
       </c>
       <c r="I119" s="6" t="n">
-        <v>0.1263403</v>
+        <v>0.2501633</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B120" s="4" t="n">
         <v>27</v>
       </c>
       <c r="C120" s="5" t="n">
-        <v>15199</v>
+        <v>15542</v>
       </c>
       <c r="D120" s="5" t="n">
-        <v>291833</v>
+        <v>255077</v>
       </c>
       <c r="E120" s="5" t="n">
-        <v>23935.344</v>
+        <v>37439.125</v>
       </c>
       <c r="F120" s="5" t="n">
         <v>0</v>
@@ -4573,29 +4543,29 @@
         <v>0</v>
       </c>
       <c r="H120" s="6" t="n">
-        <v>0.19116</v>
+        <v>0.2537298</v>
       </c>
       <c r="I120" s="6" t="n">
-        <v>0.19116</v>
+        <v>0.2537298</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B121" s="4" t="n">
         <v>28</v>
       </c>
       <c r="C121" s="5" t="n">
-        <v>15741</v>
+        <v>16110</v>
       </c>
       <c r="D121" s="5" t="n">
-        <v>292118</v>
+        <v>255464</v>
       </c>
       <c r="E121" s="5" t="n">
-        <v>23939.328</v>
+        <v>37459.891</v>
       </c>
       <c r="F121" s="5" t="n">
         <v>0</v>
@@ -4604,29 +4574,29 @@
         <v>0</v>
       </c>
       <c r="H121" s="6" t="n">
-        <v>0.2508696</v>
+        <v>0.1260111</v>
       </c>
       <c r="I121" s="6" t="n">
-        <v>0.2508696</v>
+        <v>0.1260111</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B122" s="4" t="n">
         <v>29</v>
       </c>
       <c r="C122" s="5" t="n">
-        <v>16406</v>
+        <v>16691</v>
       </c>
       <c r="D122" s="5" t="n">
-        <v>292663</v>
+        <v>255682</v>
       </c>
       <c r="E122" s="5" t="n">
-        <v>23942.844</v>
+        <v>37477.516</v>
       </c>
       <c r="F122" s="5" t="n">
         <v>0</v>
@@ -4635,29 +4605,29 @@
         <v>0</v>
       </c>
       <c r="H122" s="6" t="n">
-        <v>0.2199877</v>
+        <v>0.1950825</v>
       </c>
       <c r="I122" s="6" t="n">
-        <v>0.2199877</v>
+        <v>0.1950825</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B123" s="4" t="n">
         <v>30</v>
       </c>
       <c r="C123" s="5" t="n">
-        <v>17031</v>
+        <v>17270</v>
       </c>
       <c r="D123" s="5" t="n">
-        <v>322419</v>
+        <v>255870</v>
       </c>
       <c r="E123" s="5" t="n">
-        <v>25169.594</v>
+        <v>37477.516</v>
       </c>
       <c r="F123" s="5" t="n">
         <v>0</v>
@@ -4675,20 +4645,20 @@
     <row r="124">
       <c r="A124" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 5</t>
         </is>
       </c>
       <c r="B124" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C124" s="5" t="n">
-        <v>550</v>
+        <v>685</v>
       </c>
       <c r="D124" s="5" t="n">
-        <v>302</v>
+        <v>27931</v>
       </c>
       <c r="E124" s="5" t="n">
-        <v>2.156</v>
+        <v>6431.938</v>
       </c>
       <c r="F124" s="5" t="n">
         <v>0</v>
@@ -4697,29 +4667,29 @@
         <v>0</v>
       </c>
       <c r="H124" s="6" t="n">
-        <v>0.1205031</v>
+        <v>0.1833829</v>
       </c>
       <c r="I124" s="6" t="n">
-        <v>0.1205031</v>
+        <v>0.1833829</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 5</t>
         </is>
       </c>
       <c r="B125" s="4" t="n">
         <v>2</v>
       </c>
       <c r="C125" s="5" t="n">
-        <v>1117</v>
+        <v>1296</v>
       </c>
       <c r="D125" s="5" t="n">
-        <v>49421</v>
+        <v>28306</v>
       </c>
       <c r="E125" s="5" t="n">
-        <v>6681.203</v>
+        <v>6450.078</v>
       </c>
       <c r="F125" s="5" t="n">
         <v>0</v>
@@ -4728,29 +4698,29 @@
         <v>0</v>
       </c>
       <c r="H125" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.1209789</v>
       </c>
       <c r="I125" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.1209789</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 5</t>
         </is>
       </c>
       <c r="B126" s="4" t="n">
         <v>3</v>
       </c>
       <c r="C126" s="5" t="n">
-        <v>1691</v>
+        <v>1809</v>
       </c>
       <c r="D126" s="5" t="n">
-        <v>61784</v>
+        <v>80803</v>
       </c>
       <c r="E126" s="5" t="n">
-        <v>6707.75</v>
+        <v>18357.672</v>
       </c>
       <c r="F126" s="5" t="n">
         <v>0</v>
@@ -4759,29 +4729,29 @@
         <v>0</v>
       </c>
       <c r="H126" s="6" t="n">
-        <v>0.2298684</v>
+        <v>0.2206865</v>
       </c>
       <c r="I126" s="6" t="n">
-        <v>0.2298684</v>
+        <v>0.2206865</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 5</t>
         </is>
       </c>
       <c r="B127" s="4" t="n">
         <v>4</v>
       </c>
       <c r="C127" s="5" t="n">
-        <v>2274</v>
+        <v>2364</v>
       </c>
       <c r="D127" s="5" t="n">
-        <v>62454</v>
+        <v>80929</v>
       </c>
       <c r="E127" s="5" t="n">
-        <v>6746.313</v>
+        <v>18367.469</v>
       </c>
       <c r="F127" s="5" t="n">
         <v>0</v>
@@ -4790,29 +4760,29 @@
         <v>0</v>
       </c>
       <c r="H127" s="6" t="n">
-        <v>0.1250019</v>
+        <v>0.2277191</v>
       </c>
       <c r="I127" s="6" t="n">
-        <v>0.1250019</v>
+        <v>0.2277191</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 5</t>
         </is>
       </c>
       <c r="B128" s="4" t="n">
         <v>5</v>
       </c>
       <c r="C128" s="5" t="n">
-        <v>2817</v>
+        <v>2907</v>
       </c>
       <c r="D128" s="5" t="n">
-        <v>105386</v>
+        <v>81181</v>
       </c>
       <c r="E128" s="5" t="n">
-        <v>10732.5</v>
+        <v>18367.625</v>
       </c>
       <c r="F128" s="5" t="n">
         <v>0</v>
@@ -4821,29 +4791,29 @@
         <v>0</v>
       </c>
       <c r="H128" s="6" t="n">
-        <v>0.1234443</v>
+        <v>0.2844053</v>
       </c>
       <c r="I128" s="6" t="n">
-        <v>0.1234443</v>
+        <v>0.2844053</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 5</t>
         </is>
       </c>
       <c r="B129" s="4" t="n">
         <v>6</v>
       </c>
       <c r="C129" s="5" t="n">
-        <v>3358</v>
+        <v>3598</v>
       </c>
       <c r="D129" s="5" t="n">
-        <v>137938</v>
+        <v>89785</v>
       </c>
       <c r="E129" s="5" t="n">
-        <v>13561.953</v>
+        <v>18456.672</v>
       </c>
       <c r="F129" s="5" t="n">
         <v>0</v>
@@ -4852,29 +4822,29 @@
         <v>0</v>
       </c>
       <c r="H129" s="6" t="n">
-        <v>0.2337559</v>
+        <v>0.2265649</v>
       </c>
       <c r="I129" s="6" t="n">
-        <v>0.2337559</v>
+        <v>0.2265649</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 5</t>
         </is>
       </c>
       <c r="B130" s="4" t="n">
         <v>7</v>
       </c>
       <c r="C130" s="5" t="n">
-        <v>3894</v>
+        <v>4153</v>
       </c>
       <c r="D130" s="5" t="n">
-        <v>159404</v>
+        <v>117147</v>
       </c>
       <c r="E130" s="5" t="n">
-        <v>16063.656</v>
+        <v>23778.219</v>
       </c>
       <c r="F130" s="5" t="n">
         <v>0</v>
@@ -4883,29 +4853,29 @@
         <v>0</v>
       </c>
       <c r="H130" s="6" t="n">
-        <v>0.2128662</v>
+        <v>0.1260111</v>
       </c>
       <c r="I130" s="6" t="n">
-        <v>0.2128662</v>
+        <v>0.1260111</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 5</t>
         </is>
       </c>
       <c r="B131" s="4" t="n">
         <v>8</v>
       </c>
       <c r="C131" s="5" t="n">
-        <v>4438</v>
+        <v>4740</v>
       </c>
       <c r="D131" s="5" t="n">
-        <v>159791</v>
+        <v>119877</v>
       </c>
       <c r="E131" s="5" t="n">
-        <v>16086.063</v>
+        <v>24339.938</v>
       </c>
       <c r="F131" s="5" t="n">
         <v>0</v>
@@ -4914,29 +4884,29 @@
         <v>0</v>
       </c>
       <c r="H131" s="6" t="n">
-        <v>0.2323464</v>
+        <v>0.2316885</v>
       </c>
       <c r="I131" s="6" t="n">
-        <v>0.2323464</v>
+        <v>0.2316885</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 5</t>
         </is>
       </c>
       <c r="B132" s="4" t="n">
         <v>9</v>
       </c>
       <c r="C132" s="5" t="n">
-        <v>5034</v>
+        <v>5275</v>
       </c>
       <c r="D132" s="5" t="n">
-        <v>196096</v>
+        <v>120200</v>
       </c>
       <c r="E132" s="5" t="n">
-        <v>18982.453</v>
+        <v>24339.938</v>
       </c>
       <c r="F132" s="5" t="n">
         <v>0</v>
@@ -4945,29 +4915,29 @@
         <v>0</v>
       </c>
       <c r="H132" s="6" t="n">
-        <v>0.1833829</v>
+        <v>0.294502</v>
       </c>
       <c r="I132" s="6" t="n">
-        <v>0.1833829</v>
+        <v>0.294502</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 5</t>
         </is>
       </c>
       <c r="B133" s="4" t="n">
         <v>10</v>
       </c>
       <c r="C133" s="5" t="n">
-        <v>5647</v>
+        <v>5862</v>
       </c>
       <c r="D133" s="5" t="n">
-        <v>196590</v>
+        <v>139397</v>
       </c>
       <c r="E133" s="5" t="n">
-        <v>18998.375</v>
+        <v>24492.313</v>
       </c>
       <c r="F133" s="5" t="n">
         <v>0</v>
@@ -4976,29 +4946,29 @@
         <v>0</v>
       </c>
       <c r="H133" s="6" t="n">
-        <v>0.1950825</v>
+        <v>0.12151</v>
       </c>
       <c r="I133" s="6" t="n">
-        <v>0.1950825</v>
+        <v>0.12151</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 5</t>
         </is>
       </c>
       <c r="B134" s="4" t="n">
         <v>11</v>
       </c>
       <c r="C134" s="5" t="n">
-        <v>6339</v>
+        <v>6414</v>
       </c>
       <c r="D134" s="5" t="n">
-        <v>205220</v>
+        <v>181121</v>
       </c>
       <c r="E134" s="5" t="n">
-        <v>19833.891</v>
+        <v>32919.969</v>
       </c>
       <c r="F134" s="5" t="n">
         <v>0</v>
@@ -5007,29 +4977,29 @@
         <v>0</v>
       </c>
       <c r="H134" s="6" t="n">
-        <v>0.2742158</v>
+        <v>0.1822086</v>
       </c>
       <c r="I134" s="6" t="n">
-        <v>0.2742158</v>
+        <v>0.1822086</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 5</t>
         </is>
       </c>
       <c r="B135" s="4" t="n">
         <v>12</v>
       </c>
       <c r="C135" s="5" t="n">
-        <v>6949</v>
+        <v>6988</v>
       </c>
       <c r="D135" s="5" t="n">
-        <v>205552</v>
+        <v>183917</v>
       </c>
       <c r="E135" s="5" t="n">
-        <v>19833.891</v>
+        <v>33243.281</v>
       </c>
       <c r="F135" s="5" t="n">
         <v>0</v>
@@ -5038,29 +5008,29 @@
         <v>0</v>
       </c>
       <c r="H135" s="6" t="n">
-        <v>0.1868622</v>
+        <v>0.2793801</v>
       </c>
       <c r="I135" s="6" t="n">
-        <v>0.1868622</v>
+        <v>0.2793801</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 5</t>
         </is>
       </c>
       <c r="B136" s="4" t="n">
         <v>13</v>
       </c>
       <c r="C136" s="5" t="n">
-        <v>7487</v>
+        <v>7586</v>
       </c>
       <c r="D136" s="5" t="n">
-        <v>205992</v>
+        <v>206175</v>
       </c>
       <c r="E136" s="5" t="n">
-        <v>19845.297</v>
+        <v>33252.563</v>
       </c>
       <c r="F136" s="5" t="n">
         <v>0</v>
@@ -5069,29 +5039,29 @@
         <v>0</v>
       </c>
       <c r="H136" s="6" t="n">
-        <v>0.2226938</v>
+        <v>0.1252291</v>
       </c>
       <c r="I136" s="6" t="n">
-        <v>0.2226938</v>
+        <v>0.1252291</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 5</t>
         </is>
       </c>
       <c r="B137" s="4" t="n">
         <v>14</v>
       </c>
       <c r="C137" s="5" t="n">
-        <v>8073</v>
+        <v>8165</v>
       </c>
       <c r="D137" s="5" t="n">
-        <v>206412</v>
+        <v>206506</v>
       </c>
       <c r="E137" s="5" t="n">
-        <v>19845.922</v>
+        <v>33265.25</v>
       </c>
       <c r="F137" s="5" t="n">
         <v>0</v>
@@ -5100,29 +5070,29 @@
         <v>0</v>
       </c>
       <c r="H137" s="6" t="n">
-        <v>0.2580478</v>
+        <v>0.1904234</v>
       </c>
       <c r="I137" s="6" t="n">
-        <v>0.2580478</v>
+        <v>0.1904234</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 5</t>
         </is>
       </c>
       <c r="B138" s="4" t="n">
         <v>15</v>
       </c>
       <c r="C138" s="5" t="n">
-        <v>8705</v>
+        <v>8757</v>
       </c>
       <c r="D138" s="5" t="n">
-        <v>206851</v>
+        <v>206849</v>
       </c>
       <c r="E138" s="5" t="n">
-        <v>19862.75</v>
+        <v>33293.609</v>
       </c>
       <c r="F138" s="5" t="n">
         <v>0</v>
@@ -5131,29 +5101,29 @@
         <v>0</v>
       </c>
       <c r="H138" s="6" t="n">
-        <v>0.1218389</v>
+        <v>0.2459873</v>
       </c>
       <c r="I138" s="6" t="n">
-        <v>0.1218389</v>
+        <v>0.2459873</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 5</t>
         </is>
       </c>
       <c r="B139" s="4" t="n">
         <v>16</v>
       </c>
       <c r="C139" s="5" t="n">
-        <v>9344</v>
+        <v>9324</v>
       </c>
       <c r="D139" s="5" t="n">
-        <v>238966</v>
+        <v>207162</v>
       </c>
       <c r="E139" s="5" t="n">
-        <v>24443.844</v>
+        <v>33333.141</v>
       </c>
       <c r="F139" s="5" t="n">
         <v>0</v>
@@ -5162,29 +5132,29 @@
         <v>0</v>
       </c>
       <c r="H139" s="6" t="n">
-        <v>0.1618315</v>
+        <v>0.2452898</v>
       </c>
       <c r="I139" s="6" t="n">
-        <v>0.1618315</v>
+        <v>0.2452898</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 5</t>
         </is>
       </c>
       <c r="B140" s="4" t="n">
         <v>17</v>
       </c>
       <c r="C140" s="5" t="n">
-        <v>9843</v>
+        <v>9969</v>
       </c>
       <c r="D140" s="5" t="n">
-        <v>242413</v>
+        <v>207494</v>
       </c>
       <c r="E140" s="5" t="n">
-        <v>24475.828</v>
+        <v>33368.719</v>
       </c>
       <c r="F140" s="5" t="n">
         <v>0</v>
@@ -5193,29 +5163,29 @@
         <v>0</v>
       </c>
       <c r="H140" s="6" t="n">
-        <v>0.2658985</v>
+        <v>0.1234443</v>
       </c>
       <c r="I140" s="6" t="n">
-        <v>0.2658985</v>
+        <v>0.1234443</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 5</t>
         </is>
       </c>
       <c r="B141" s="4" t="n">
         <v>18</v>
       </c>
       <c r="C141" s="5" t="n">
-        <v>10373</v>
+        <v>10590</v>
       </c>
       <c r="D141" s="5" t="n">
-        <v>242860</v>
+        <v>226832</v>
       </c>
       <c r="E141" s="5" t="n">
-        <v>24502.938</v>
+        <v>38083.016</v>
       </c>
       <c r="F141" s="5" t="n">
         <v>0</v>
@@ -5224,29 +5194,29 @@
         <v>0</v>
       </c>
       <c r="H141" s="6" t="n">
-        <v>0.2491488</v>
+        <v>0.2363978</v>
       </c>
       <c r="I141" s="6" t="n">
-        <v>0.2491488</v>
+        <v>0.2363978</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 5</t>
         </is>
       </c>
       <c r="B142" s="4" t="n">
         <v>19</v>
       </c>
       <c r="C142" s="5" t="n">
-        <v>10944</v>
+        <v>11193</v>
       </c>
       <c r="D142" s="5" t="n">
-        <v>246565</v>
+        <v>227036</v>
       </c>
       <c r="E142" s="5" t="n">
-        <v>24555.031</v>
+        <v>38083.875</v>
       </c>
       <c r="F142" s="5" t="n">
         <v>0</v>
@@ -5255,29 +5225,29 @@
         <v>0</v>
       </c>
       <c r="H142" s="6" t="n">
-        <v>0.1817561</v>
+        <v>0.269941</v>
       </c>
       <c r="I142" s="6" t="n">
-        <v>0.1817561</v>
+        <v>0.269941</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 5</t>
         </is>
       </c>
       <c r="B143" s="4" t="n">
         <v>20</v>
       </c>
       <c r="C143" s="5" t="n">
-        <v>11530</v>
+        <v>11828</v>
       </c>
       <c r="D143" s="5" t="n">
-        <v>246829</v>
+        <v>227649</v>
       </c>
       <c r="E143" s="5" t="n">
-        <v>24561.563</v>
+        <v>38105.266</v>
       </c>
       <c r="F143" s="5" t="n">
         <v>0</v>
@@ -5286,29 +5256,29 @@
         <v>0</v>
       </c>
       <c r="H143" s="6" t="n">
-        <v>0.2378974</v>
+        <v>0.2643565</v>
       </c>
       <c r="I143" s="6" t="n">
-        <v>0.2378974</v>
+        <v>0.2643565</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 5</t>
         </is>
       </c>
       <c r="B144" s="4" t="n">
         <v>21</v>
       </c>
       <c r="C144" s="5" t="n">
-        <v>12093</v>
+        <v>12369</v>
       </c>
       <c r="D144" s="5" t="n">
-        <v>247066</v>
+        <v>228258</v>
       </c>
       <c r="E144" s="5" t="n">
-        <v>24561.563</v>
+        <v>38124.609</v>
       </c>
       <c r="F144" s="5" t="n">
         <v>0</v>
@@ -5317,29 +5287,29 @@
         <v>0</v>
       </c>
       <c r="H144" s="6" t="n">
-        <v>0.1761953</v>
+        <v>0.1202812</v>
       </c>
       <c r="I144" s="6" t="n">
-        <v>0.1761953</v>
+        <v>0.1202812</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 5</t>
         </is>
       </c>
       <c r="B145" s="4" t="n">
         <v>22</v>
       </c>
       <c r="C145" s="5" t="n">
-        <v>12698</v>
+        <v>12899</v>
       </c>
       <c r="D145" s="5" t="n">
-        <v>263233</v>
+        <v>279238</v>
       </c>
       <c r="E145" s="5" t="n">
-        <v>26026.953</v>
+        <v>50405.875</v>
       </c>
       <c r="F145" s="5" t="n">
         <v>0</v>
@@ -5348,29 +5318,29 @@
         <v>0</v>
       </c>
       <c r="H145" s="6" t="n">
-        <v>0.1260111</v>
+        <v>0.2222444</v>
       </c>
       <c r="I145" s="6" t="n">
-        <v>0.1260111</v>
+        <v>0.2222444</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 5</t>
         </is>
       </c>
       <c r="B146" s="4" t="n">
         <v>23</v>
       </c>
       <c r="C146" s="5" t="n">
-        <v>13290</v>
+        <v>13436</v>
       </c>
       <c r="D146" s="5" t="n">
-        <v>263686</v>
+        <v>284381</v>
       </c>
       <c r="E146" s="5" t="n">
-        <v>26045.922</v>
+        <v>51554.469</v>
       </c>
       <c r="F146" s="5" t="n">
         <v>0</v>
@@ -5379,29 +5349,29 @@
         <v>0</v>
       </c>
       <c r="H146" s="6" t="n">
-        <v>0.242128</v>
+        <v>0.193604</v>
       </c>
       <c r="I146" s="6" t="n">
-        <v>0.242128</v>
+        <v>0.193604</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 5</t>
         </is>
       </c>
       <c r="B147" s="4" t="n">
         <v>24</v>
       </c>
       <c r="C147" s="5" t="n">
-        <v>13864</v>
+        <v>14005</v>
       </c>
       <c r="D147" s="5" t="n">
-        <v>264192</v>
+        <v>284692</v>
       </c>
       <c r="E147" s="5" t="n">
-        <v>26063.047</v>
+        <v>51562.969</v>
       </c>
       <c r="F147" s="5" t="n">
         <v>0</v>
@@ -5410,29 +5380,29 @@
         <v>0</v>
       </c>
       <c r="H147" s="6" t="n">
-        <v>0.2692506</v>
+        <v>0.2632921</v>
       </c>
       <c r="I147" s="6" t="n">
-        <v>0.2692506</v>
+        <v>0.2632921</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 5</t>
         </is>
       </c>
       <c r="B148" s="4" t="n">
         <v>25</v>
       </c>
       <c r="C148" s="5" t="n">
-        <v>14418</v>
+        <v>14530</v>
       </c>
       <c r="D148" s="5" t="n">
-        <v>279459</v>
+        <v>284921</v>
       </c>
       <c r="E148" s="5" t="n">
-        <v>27869.344</v>
+        <v>51571.891</v>
       </c>
       <c r="F148" s="5" t="n">
         <v>0</v>
@@ -5441,29 +5411,29 @@
         <v>0</v>
       </c>
       <c r="H148" s="6" t="n">
-        <v>0.2488943</v>
+        <v>0.1840018</v>
       </c>
       <c r="I148" s="6" t="n">
-        <v>0.2488943</v>
+        <v>0.1840018</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 5</t>
         </is>
       </c>
       <c r="B149" s="4" t="n">
         <v>26</v>
       </c>
       <c r="C149" s="5" t="n">
-        <v>14995</v>
+        <v>15150</v>
       </c>
       <c r="D149" s="5" t="n">
-        <v>280901</v>
+        <v>285385</v>
       </c>
       <c r="E149" s="5" t="n">
-        <v>27891.875</v>
+        <v>51596.906</v>
       </c>
       <c r="F149" s="5" t="n">
         <v>0</v>
@@ -5472,29 +5442,29 @@
         <v>0</v>
       </c>
       <c r="H149" s="6" t="n">
-        <v>0.2550446</v>
+        <v>0.2916649</v>
       </c>
       <c r="I149" s="6" t="n">
-        <v>0.2550446</v>
+        <v>0.2916649</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 5</t>
         </is>
       </c>
       <c r="B150" s="4" t="n">
         <v>27</v>
       </c>
       <c r="C150" s="5" t="n">
-        <v>15580</v>
+        <v>15771</v>
       </c>
       <c r="D150" s="5" t="n">
-        <v>281414</v>
+        <v>319255</v>
       </c>
       <c r="E150" s="5" t="n">
-        <v>27906.422</v>
+        <v>57935.375</v>
       </c>
       <c r="F150" s="5" t="n">
         <v>0</v>
@@ -5503,29 +5473,29 @@
         <v>0</v>
       </c>
       <c r="H150" s="6" t="n">
-        <v>0.2887395</v>
+        <v>0.2448948</v>
       </c>
       <c r="I150" s="6" t="n">
-        <v>0.2887395</v>
+        <v>0.2448948</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 5</t>
         </is>
       </c>
       <c r="B151" s="4" t="n">
         <v>28</v>
       </c>
       <c r="C151" s="5" t="n">
-        <v>16194</v>
+        <v>16426</v>
       </c>
       <c r="D151" s="5" t="n">
-        <v>283844</v>
+        <v>319774</v>
       </c>
       <c r="E151" s="5" t="n">
-        <v>28100.375</v>
+        <v>57944.328</v>
       </c>
       <c r="F151" s="5" t="n">
         <v>0</v>
@@ -5534,29 +5504,29 @@
         <v>0</v>
       </c>
       <c r="H151" s="6" t="n">
-        <v>0.2359851</v>
+        <v>0.2639391</v>
       </c>
       <c r="I151" s="6" t="n">
-        <v>0.2359851</v>
+        <v>0.2639391</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 5</t>
         </is>
       </c>
       <c r="B152" s="4" t="n">
         <v>29</v>
       </c>
       <c r="C152" s="5" t="n">
-        <v>16886</v>
+        <v>17035</v>
       </c>
       <c r="D152" s="5" t="n">
-        <v>313136</v>
+        <v>320214</v>
       </c>
       <c r="E152" s="5" t="n">
-        <v>30835.156</v>
+        <v>57945.172</v>
       </c>
       <c r="F152" s="5" t="n">
         <v>0</v>
@@ -5565,29 +5535,29 @@
         <v>0</v>
       </c>
       <c r="H152" s="6" t="n">
-        <v>0.1242231</v>
+        <v>0.2024876</v>
       </c>
       <c r="I152" s="6" t="n">
-        <v>0.1242231</v>
+        <v>0.2024876</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 5</t>
         </is>
       </c>
       <c r="B153" s="4" t="n">
         <v>30</v>
       </c>
       <c r="C153" s="5" t="n">
-        <v>17441</v>
+        <v>17635</v>
       </c>
       <c r="D153" s="5" t="n">
-        <v>369044</v>
+        <v>321130</v>
       </c>
       <c r="E153" s="5" t="n">
-        <v>37869.297</v>
+        <v>57986.563</v>
       </c>
       <c r="F153" s="5" t="n">
         <v>0</v>
@@ -5599,936 +5569,6 @@
         <v>0</v>
       </c>
       <c r="I153" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="4" t="inlineStr">
-        <is>
-          <t>Grupo 5</t>
-        </is>
-      </c>
-      <c r="B154" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C154" s="5" t="n">
-        <v>646</v>
-      </c>
-      <c r="D154" s="5" t="n">
-        <v>708</v>
-      </c>
-      <c r="E154" s="5" t="n">
-        <v>29.625</v>
-      </c>
-      <c r="F154" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G154" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H154" s="6" t="n">
-        <v>0.1242231</v>
-      </c>
-      <c r="I154" s="6" t="n">
-        <v>0.1242231</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="4" t="inlineStr">
-        <is>
-          <t>Grupo 5</t>
-        </is>
-      </c>
-      <c r="B155" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C155" s="5" t="n">
-        <v>1247</v>
-      </c>
-      <c r="D155" s="5" t="n">
-        <v>16939</v>
-      </c>
-      <c r="E155" s="5" t="n">
-        <v>2792.453</v>
-      </c>
-      <c r="F155" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G155" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H155" s="6" t="n">
-        <v>0.2560582</v>
-      </c>
-      <c r="I155" s="6" t="n">
-        <v>0.2560582</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="4" t="inlineStr">
-        <is>
-          <t>Grupo 5</t>
-        </is>
-      </c>
-      <c r="B156" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C156" s="5" t="n">
-        <v>1888</v>
-      </c>
-      <c r="D156" s="5" t="n">
-        <v>17382</v>
-      </c>
-      <c r="E156" s="5" t="n">
-        <v>2811.797</v>
-      </c>
-      <c r="F156" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G156" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H156" s="6" t="n">
-        <v>0.2612426</v>
-      </c>
-      <c r="I156" s="6" t="n">
-        <v>0.2612426</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="4" t="inlineStr">
-        <is>
-          <t>Grupo 5</t>
-        </is>
-      </c>
-      <c r="B157" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C157" s="5" t="n">
-        <v>2502</v>
-      </c>
-      <c r="D157" s="5" t="n">
-        <v>17785</v>
-      </c>
-      <c r="E157" s="5" t="n">
-        <v>2826.641</v>
-      </c>
-      <c r="F157" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G157" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H157" s="6" t="n">
-        <v>0.1895522</v>
-      </c>
-      <c r="I157" s="6" t="n">
-        <v>0.1895522</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="4" t="inlineStr">
-        <is>
-          <t>Grupo 5</t>
-        </is>
-      </c>
-      <c r="B158" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C158" s="5" t="n">
-        <v>3033</v>
-      </c>
-      <c r="D158" s="5" t="n">
-        <v>32150</v>
-      </c>
-      <c r="E158" s="5" t="n">
-        <v>5126.172</v>
-      </c>
-      <c r="F158" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G158" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H158" s="6" t="n">
-        <v>0.2844053</v>
-      </c>
-      <c r="I158" s="6" t="n">
-        <v>0.2844053</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="4" t="inlineStr">
-        <is>
-          <t>Grupo 5</t>
-        </is>
-      </c>
-      <c r="B159" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C159" s="5" t="n">
-        <v>3585</v>
-      </c>
-      <c r="D159" s="5" t="n">
-        <v>32630</v>
-      </c>
-      <c r="E159" s="5" t="n">
-        <v>5146.984</v>
-      </c>
-      <c r="F159" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G159" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H159" s="6" t="n">
-        <v>0.2189813</v>
-      </c>
-      <c r="I159" s="6" t="n">
-        <v>0.2189813</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="4" t="inlineStr">
-        <is>
-          <t>Grupo 5</t>
-        </is>
-      </c>
-      <c r="B160" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C160" s="5" t="n">
-        <v>4118</v>
-      </c>
-      <c r="D160" s="5" t="n">
-        <v>33387</v>
-      </c>
-      <c r="E160" s="5" t="n">
-        <v>5174.781</v>
-      </c>
-      <c r="F160" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G160" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H160" s="6" t="n">
-        <v>0.12151</v>
-      </c>
-      <c r="I160" s="6" t="n">
-        <v>0.12151</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="4" t="inlineStr">
-        <is>
-          <t>Grupo 5</t>
-        </is>
-      </c>
-      <c r="B161" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C161" s="5" t="n">
-        <v>4673</v>
-      </c>
-      <c r="D161" s="5" t="n">
-        <v>56928</v>
-      </c>
-      <c r="E161" s="5" t="n">
-        <v>9136.468999999999</v>
-      </c>
-      <c r="F161" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G161" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H161" s="6" t="n">
-        <v>0.1664968</v>
-      </c>
-      <c r="I161" s="6" t="n">
-        <v>0.1664968</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="4" t="inlineStr">
-        <is>
-          <t>Grupo 5</t>
-        </is>
-      </c>
-      <c r="B162" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="C162" s="5" t="n">
-        <v>5286</v>
-      </c>
-      <c r="D162" s="5" t="n">
-        <v>57665</v>
-      </c>
-      <c r="E162" s="5" t="n">
-        <v>9147.609</v>
-      </c>
-      <c r="F162" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G162" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H162" s="6" t="n">
-        <v>0.2372299</v>
-      </c>
-      <c r="I162" s="6" t="n">
-        <v>0.2372299</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="4" t="inlineStr">
-        <is>
-          <t>Grupo 5</t>
-        </is>
-      </c>
-      <c r="B163" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C163" s="5" t="n">
-        <v>5922</v>
-      </c>
-      <c r="D163" s="5" t="n">
-        <v>58015</v>
-      </c>
-      <c r="E163" s="5" t="n">
-        <v>9153.625</v>
-      </c>
-      <c r="F163" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G163" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H163" s="6" t="n">
-        <v>0.2306355</v>
-      </c>
-      <c r="I163" s="6" t="n">
-        <v>0.2306355</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="4" t="inlineStr">
-        <is>
-          <t>Grupo 5</t>
-        </is>
-      </c>
-      <c r="B164" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="C164" s="5" t="n">
-        <v>6450</v>
-      </c>
-      <c r="D164" s="5" t="n">
-        <v>58119</v>
-      </c>
-      <c r="E164" s="5" t="n">
-        <v>9159.343999999999</v>
-      </c>
-      <c r="F164" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G164" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H164" s="6" t="n">
-        <v>0.2676521</v>
-      </c>
-      <c r="I164" s="6" t="n">
-        <v>0.2676521</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="4" t="inlineStr">
-        <is>
-          <t>Grupo 5</t>
-        </is>
-      </c>
-      <c r="B165" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="C165" s="5" t="n">
-        <v>7046</v>
-      </c>
-      <c r="D165" s="5" t="n">
-        <v>61385</v>
-      </c>
-      <c r="E165" s="5" t="n">
-        <v>9166.547</v>
-      </c>
-      <c r="F165" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G165" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H165" s="6" t="n">
-        <v>0.1841331</v>
-      </c>
-      <c r="I165" s="6" t="n">
-        <v>0.1841331</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="4" t="inlineStr">
-        <is>
-          <t>Grupo 5</t>
-        </is>
-      </c>
-      <c r="B166" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="C166" s="5" t="n">
-        <v>7675</v>
-      </c>
-      <c r="D166" s="5" t="n">
-        <v>62030</v>
-      </c>
-      <c r="E166" s="5" t="n">
-        <v>9177.938</v>
-      </c>
-      <c r="F166" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G166" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H166" s="6" t="n">
-        <v>0.1147306</v>
-      </c>
-      <c r="I166" s="6" t="n">
-        <v>0.1147306</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="4" t="inlineStr">
-        <is>
-          <t>Grupo 5</t>
-        </is>
-      </c>
-      <c r="B167" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="C167" s="5" t="n">
-        <v>8203</v>
-      </c>
-      <c r="D167" s="5" t="n">
-        <v>84599</v>
-      </c>
-      <c r="E167" s="5" t="n">
-        <v>12828.109</v>
-      </c>
-      <c r="F167" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G167" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H167" s="6" t="n">
-        <v>0.226795</v>
-      </c>
-      <c r="I167" s="6" t="n">
-        <v>0.226795</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="4" t="inlineStr">
-        <is>
-          <t>Grupo 5</t>
-        </is>
-      </c>
-      <c r="B168" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="C168" s="5" t="n">
-        <v>8763</v>
-      </c>
-      <c r="D168" s="5" t="n">
-        <v>84879</v>
-      </c>
-      <c r="E168" s="5" t="n">
-        <v>12828.109</v>
-      </c>
-      <c r="F168" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G168" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H168" s="6" t="n">
-        <v>0.2405375</v>
-      </c>
-      <c r="I168" s="6" t="n">
-        <v>0.2405375</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="4" t="inlineStr">
-        <is>
-          <t>Grupo 5</t>
-        </is>
-      </c>
-      <c r="B169" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="C169" s="5" t="n">
-        <v>9339</v>
-      </c>
-      <c r="D169" s="5" t="n">
-        <v>85238</v>
-      </c>
-      <c r="E169" s="5" t="n">
-        <v>12836.516</v>
-      </c>
-      <c r="F169" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G169" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H169" s="6" t="n">
-        <v>0.2321107</v>
-      </c>
-      <c r="I169" s="6" t="n">
-        <v>0.2321107</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="4" t="inlineStr">
-        <is>
-          <t>Grupo 5</t>
-        </is>
-      </c>
-      <c r="B170" s="4" t="n">
-        <v>17</v>
-      </c>
-      <c r="C170" s="5" t="n">
-        <v>9896</v>
-      </c>
-      <c r="D170" s="5" t="n">
-        <v>106484</v>
-      </c>
-      <c r="E170" s="5" t="n">
-        <v>15692.063</v>
-      </c>
-      <c r="F170" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G170" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H170" s="6" t="n">
-        <v>0.1987498</v>
-      </c>
-      <c r="I170" s="6" t="n">
-        <v>0.1987498</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="4" t="inlineStr">
-        <is>
-          <t>Grupo 5</t>
-        </is>
-      </c>
-      <c r="B171" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="C171" s="5" t="n">
-        <v>10480</v>
-      </c>
-      <c r="D171" s="5" t="n">
-        <v>107065</v>
-      </c>
-      <c r="E171" s="5" t="n">
-        <v>15698.328</v>
-      </c>
-      <c r="F171" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G171" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H171" s="6" t="n">
-        <v>0.1845507</v>
-      </c>
-      <c r="I171" s="6" t="n">
-        <v>0.1845507</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="4" t="inlineStr">
-        <is>
-          <t>Grupo 5</t>
-        </is>
-      </c>
-      <c r="B172" s="4" t="n">
-        <v>19</v>
-      </c>
-      <c r="C172" s="5" t="n">
-        <v>11014</v>
-      </c>
-      <c r="D172" s="5" t="n">
-        <v>107344</v>
-      </c>
-      <c r="E172" s="5" t="n">
-        <v>15699.563</v>
-      </c>
-      <c r="F172" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G172" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H172" s="6" t="n">
-        <v>0.1202575</v>
-      </c>
-      <c r="I172" s="6" t="n">
-        <v>0.1202575</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="4" t="inlineStr">
-        <is>
-          <t>Grupo 5</t>
-        </is>
-      </c>
-      <c r="B173" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="C173" s="5" t="n">
-        <v>11597</v>
-      </c>
-      <c r="D173" s="5" t="n">
-        <v>142293</v>
-      </c>
-      <c r="E173" s="5" t="n">
-        <v>20835.672</v>
-      </c>
-      <c r="F173" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G173" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H173" s="6" t="n">
-        <v>0.2414403</v>
-      </c>
-      <c r="I173" s="6" t="n">
-        <v>0.2414403</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="4" t="inlineStr">
-        <is>
-          <t>Grupo 5</t>
-        </is>
-      </c>
-      <c r="B174" s="4" t="n">
-        <v>21</v>
-      </c>
-      <c r="C174" s="5" t="n">
-        <v>12184</v>
-      </c>
-      <c r="D174" s="5" t="n">
-        <v>142548</v>
-      </c>
-      <c r="E174" s="5" t="n">
-        <v>20835.969</v>
-      </c>
-      <c r="F174" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G174" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H174" s="6" t="n">
-        <v>0.2179279</v>
-      </c>
-      <c r="I174" s="6" t="n">
-        <v>0.2179279</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="4" t="inlineStr">
-        <is>
-          <t>Grupo 5</t>
-        </is>
-      </c>
-      <c r="B175" s="4" t="n">
-        <v>22</v>
-      </c>
-      <c r="C175" s="5" t="n">
-        <v>12769</v>
-      </c>
-      <c r="D175" s="5" t="n">
-        <v>142854</v>
-      </c>
-      <c r="E175" s="5" t="n">
-        <v>20856.266</v>
-      </c>
-      <c r="F175" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G175" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H175" s="6" t="n">
-        <v>0.1776531</v>
-      </c>
-      <c r="I175" s="6" t="n">
-        <v>0.1776531</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="4" t="inlineStr">
-        <is>
-          <t>Grupo 5</t>
-        </is>
-      </c>
-      <c r="B176" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="C176" s="5" t="n">
-        <v>13341</v>
-      </c>
-      <c r="D176" s="5" t="n">
-        <v>143184</v>
-      </c>
-      <c r="E176" s="5" t="n">
-        <v>20856.797</v>
-      </c>
-      <c r="F176" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G176" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H176" s="6" t="n">
-        <v>0.2578481</v>
-      </c>
-      <c r="I176" s="6" t="n">
-        <v>0.2578481</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="4" t="inlineStr">
-        <is>
-          <t>Grupo 5</t>
-        </is>
-      </c>
-      <c r="B177" s="4" t="n">
-        <v>24</v>
-      </c>
-      <c r="C177" s="5" t="n">
-        <v>13945</v>
-      </c>
-      <c r="D177" s="5" t="n">
-        <v>143836</v>
-      </c>
-      <c r="E177" s="5" t="n">
-        <v>20861.828</v>
-      </c>
-      <c r="F177" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G177" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H177" s="6" t="n">
-        <v>0.3021135</v>
-      </c>
-      <c r="I177" s="6" t="n">
-        <v>0.3021135</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="4" t="inlineStr">
-        <is>
-          <t>Grupo 5</t>
-        </is>
-      </c>
-      <c r="B178" s="4" t="n">
-        <v>25</v>
-      </c>
-      <c r="C178" s="5" t="n">
-        <v>14505</v>
-      </c>
-      <c r="D178" s="5" t="n">
-        <v>164222</v>
-      </c>
-      <c r="E178" s="5" t="n">
-        <v>22919.766</v>
-      </c>
-      <c r="F178" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G178" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H178" s="6" t="n">
-        <v>0.2844053</v>
-      </c>
-      <c r="I178" s="6" t="n">
-        <v>0.2844053</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="4" t="inlineStr">
-        <is>
-          <t>Grupo 5</t>
-        </is>
-      </c>
-      <c r="B179" s="4" t="n">
-        <v>26</v>
-      </c>
-      <c r="C179" s="5" t="n">
-        <v>15089</v>
-      </c>
-      <c r="D179" s="5" t="n">
-        <v>170606</v>
-      </c>
-      <c r="E179" s="5" t="n">
-        <v>22925.422</v>
-      </c>
-      <c r="F179" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G179" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H179" s="6" t="n">
-        <v>0.2199682</v>
-      </c>
-      <c r="I179" s="6" t="n">
-        <v>0.2199682</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="4" t="inlineStr">
-        <is>
-          <t>Grupo 5</t>
-        </is>
-      </c>
-      <c r="B180" s="4" t="n">
-        <v>27</v>
-      </c>
-      <c r="C180" s="5" t="n">
-        <v>15652</v>
-      </c>
-      <c r="D180" s="5" t="n">
-        <v>170878</v>
-      </c>
-      <c r="E180" s="5" t="n">
-        <v>22931.141</v>
-      </c>
-      <c r="F180" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G180" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H180" s="6" t="n">
-        <v>0.2423875</v>
-      </c>
-      <c r="I180" s="6" t="n">
-        <v>0.2423875</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="4" t="inlineStr">
-        <is>
-          <t>Grupo 5</t>
-        </is>
-      </c>
-      <c r="B181" s="4" t="n">
-        <v>28</v>
-      </c>
-      <c r="C181" s="5" t="n">
-        <v>16249</v>
-      </c>
-      <c r="D181" s="5" t="n">
-        <v>171079</v>
-      </c>
-      <c r="E181" s="5" t="n">
-        <v>22940.547</v>
-      </c>
-      <c r="F181" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G181" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H181" s="6" t="n">
-        <v>0.1212974</v>
-      </c>
-      <c r="I181" s="6" t="n">
-        <v>0.1212974</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="4" t="inlineStr">
-        <is>
-          <t>Grupo 5</t>
-        </is>
-      </c>
-      <c r="B182" s="4" t="n">
-        <v>29</v>
-      </c>
-      <c r="C182" s="5" t="n">
-        <v>16848</v>
-      </c>
-      <c r="D182" s="5" t="n">
-        <v>207107</v>
-      </c>
-      <c r="E182" s="5" t="n">
-        <v>28369.25</v>
-      </c>
-      <c r="F182" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G182" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H182" s="6" t="n">
-        <v>0.1761397</v>
-      </c>
-      <c r="I182" s="6" t="n">
-        <v>0.1761397</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="4" t="inlineStr">
-        <is>
-          <t>Grupo 5</t>
-        </is>
-      </c>
-      <c r="B183" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="C183" s="5" t="n">
-        <v>17455</v>
-      </c>
-      <c r="D183" s="5" t="n">
-        <v>207531</v>
-      </c>
-      <c r="E183" s="5" t="n">
-        <v>28409.859</v>
-      </c>
-      <c r="F183" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G183" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H183" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" s="6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/RESULTADOS_EXPERIMENTO_CONSOLIDADO.xlsx
+++ b/RESULTADOS_EXPERIMENTO_CONSOLIDADO.xlsx
@@ -521,7 +521,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>15.24 GB (Disponible: 3.74 GB)</t>
+          <t>15.24 GB (Disponible: 2.42 GB)</t>
         </is>
       </c>
     </row>
@@ -540,7 +540,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0 ejecuciones</t>
+          <t>30 ejecuciones</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,150 +688,180 @@
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 0</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>0% (Sin CPLEX)</t>
         </is>
       </c>
       <c r="C4" s="4" t="n">
         <v>30</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>8942.1</v>
+        <v>45000</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>111210.33</v>
+        <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5005.909967</v>
+        <v>0</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.198718</v>
+        <v>0.386494</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.109563</v>
+        <v>0.204966</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="C5" s="4" t="n">
         <v>30</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8930.57</v>
+        <v>8942.1</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>114820.4</v>
+        <v>111210.33</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7268.047</v>
+        <v>5005.909967</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.203351</v>
+        <v>0.198718</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09177</v>
+        <v>0.109563</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="C6" s="4" t="n">
         <v>30</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9136.67</v>
+        <v>8930.57</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>81923.77</v>
+        <v>114820.4</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9399.156367</v>
+        <v>7268.047</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.215228</v>
+        <v>0.203351</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.114656</v>
+        <v>0.09177</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="C7" s="4" t="n">
         <v>30</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>9011.1</v>
+        <v>9136.67</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>112267.43</v>
+        <v>81923.77</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17188.910967</v>
+        <v>9399.156367</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.201761</v>
+        <v>0.215228</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.11617</v>
+        <v>0.114656</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>Grupo 5</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="C8" s="4" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="5" t="n">
+        <v>9011.1</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>112267.43</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>17188.910967</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.201761</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.11617</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>Grupo 5</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="5" t="n">
         <v>9091.969999999999</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E9" s="5" t="n">
         <v>196451.5</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F9" s="5" t="n">
         <v>35231.956933</v>
       </c>
-      <c r="G8" s="6" t="n">
+      <c r="G9" s="6" t="n">
         <v>0.213328</v>
       </c>
-      <c r="H8" s="6" t="n">
+      <c r="H9" s="6" t="n">
         <v>0.120281</v>
       </c>
     </row>
@@ -849,7 +879,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J153"/>
+  <dimension ref="A1:J183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -925,20 +955,20 @@
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 0</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>614</v>
+        <v>0</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>1372</v>
+        <v>0</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22.609</v>
+        <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0</v>
@@ -947,29 +977,29 @@
         <v>0</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1250019</v>
+        <v>0.1234259</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1250019</v>
+        <v>0.1234259</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 0</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
         <v>2</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1179</v>
+        <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>23999</v>
+        <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1450.047</v>
+        <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
@@ -978,29 +1008,29 @@
         <v>0</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1887559</v>
+        <v>0.2381442</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1887559</v>
+        <v>0.2381442</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 0</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
         <v>3</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1848</v>
+        <v>0</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>24315</v>
+        <v>0</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1450.375</v>
+        <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>0</v>
@@ -1009,29 +1039,29 @@
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2670515</v>
+        <v>0.2832955</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2670515</v>
+        <v>0.2832955</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 0</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
         <v>4</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>2440</v>
+        <v>0</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>24642</v>
+        <v>0</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1454.688</v>
+        <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0</v>
@@ -1040,29 +1070,29 @@
         <v>0</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1987498</v>
+        <v>0.2615152</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1987498</v>
+        <v>0.2615152</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 0</t>
         </is>
       </c>
       <c r="B8" s="4" t="n">
         <v>5</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3095</v>
+        <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>24915</v>
+        <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1463.156</v>
+        <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0</v>
@@ -1071,29 +1101,29 @@
         <v>0</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2364685</v>
+        <v>0.1117133</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2364685</v>
+        <v>0.1117133</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 0</t>
         </is>
       </c>
       <c r="B9" s="4" t="n">
         <v>6</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3646</v>
+        <v>0</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>25581</v>
+        <v>0</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1466.078</v>
+        <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
         <v>0</v>
@@ -1102,29 +1132,29 @@
         <v>0</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.194044</v>
+        <v>0.2166446</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.194044</v>
+        <v>0.2166446</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 0</t>
         </is>
       </c>
       <c r="B10" s="4" t="n">
         <v>7</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>4155</v>
+        <v>0</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>36371</v>
+        <v>0</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2148.531</v>
+        <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0</v>
@@ -1133,29 +1163,29 @@
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2688232</v>
+        <v>0.2389833</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2688232</v>
+        <v>0.2389833</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 0</t>
         </is>
       </c>
       <c r="B11" s="4" t="n">
         <v>8</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4696</v>
+        <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>37607</v>
+        <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2161.844</v>
+        <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
@@ -1164,29 +1194,29 @@
         <v>0</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2447125</v>
+        <v>0.2780455</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2447125</v>
+        <v>0.2780455</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 0</t>
         </is>
       </c>
       <c r="B12" s="4" t="n">
         <v>9</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5271</v>
+        <v>0</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>40502</v>
+        <v>0</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2170.203</v>
+        <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>0</v>
@@ -1195,29 +1225,29 @@
         <v>0</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1250019</v>
+        <v>0.2298738</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1250019</v>
+        <v>0.2298738</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 0</t>
         </is>
       </c>
       <c r="B13" s="4" t="n">
         <v>10</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>5901</v>
+        <v>0</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>55551</v>
+        <v>0</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2963.313</v>
+        <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0</v>
@@ -1226,29 +1256,29 @@
         <v>0</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1625948</v>
+        <v>0.1468191</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1625948</v>
+        <v>0.1468191</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 0</t>
         </is>
       </c>
       <c r="B14" s="4" t="n">
         <v>11</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6441</v>
+        <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>56183</v>
+        <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2976.375</v>
+        <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
@@ -1257,29 +1287,29 @@
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1095627</v>
+        <v>0.2788391</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1095627</v>
+        <v>0.2788391</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 0</t>
         </is>
       </c>
       <c r="B15" s="4" t="n">
         <v>12</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6926</v>
+        <v>0</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>71651</v>
+        <v>0</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3852.094</v>
+        <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
         <v>0</v>
@@ -1288,29 +1318,29 @@
         <v>0</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1237076</v>
+        <v>0.172061</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1237076</v>
+        <v>0.172061</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 0</t>
         </is>
       </c>
       <c r="B16" s="4" t="n">
         <v>13</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>7471</v>
+        <v>0</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>101462</v>
+        <v>0</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5719.531</v>
+        <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0</v>
@@ -1319,29 +1349,29 @@
         <v>0</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1260111</v>
+        <v>0.2247473</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1260111</v>
+        <v>0.2247473</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 0</t>
         </is>
       </c>
       <c r="B17" s="4" t="n">
         <v>14</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8032</v>
+        <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>102483</v>
+        <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5745</v>
+        <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>0</v>
@@ -1350,29 +1380,29 @@
         <v>0</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2611755</v>
+        <v>0.1229662</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2611755</v>
+        <v>0.1229662</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 0</t>
         </is>
       </c>
       <c r="B18" s="4" t="n">
         <v>15</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8593</v>
+        <v>0</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>103030</v>
+        <v>0</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5745</v>
+        <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>0</v>
@@ -1381,29 +1411,29 @@
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2601367</v>
+        <v>0.1220901</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2601367</v>
+        <v>0.1220901</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 0</t>
         </is>
       </c>
       <c r="B19" s="4" t="n">
         <v>16</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>9219</v>
+        <v>0</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>105332</v>
+        <v>0</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5746.5</v>
+        <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>0</v>
@@ -1412,29 +1442,29 @@
         <v>0</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1225956</v>
+        <v>0.1854472</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1225956</v>
+        <v>0.1854472</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 0</t>
         </is>
       </c>
       <c r="B20" s="4" t="n">
         <v>17</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>9775</v>
+        <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>164021</v>
+        <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6988.969</v>
+        <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
@@ -1443,29 +1473,29 @@
         <v>0</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2220208</v>
+        <v>0.2379217</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2220208</v>
+        <v>0.2379217</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 0</t>
         </is>
       </c>
       <c r="B21" s="4" t="n">
         <v>18</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>10304</v>
+        <v>0</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>164583</v>
+        <v>0</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6991.578</v>
+        <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
         <v>0</v>
@@ -1474,29 +1504,29 @@
         <v>0</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2207892</v>
+        <v>0.2208987</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2207892</v>
+        <v>0.2208987</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 0</t>
         </is>
       </c>
       <c r="B22" s="4" t="n">
         <v>19</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>10865</v>
+        <v>0</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>165001</v>
+        <v>0</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6991.641</v>
+        <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0</v>
@@ -1505,29 +1535,29 @@
         <v>0</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1252291</v>
+        <v>0.1285862</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1252291</v>
+        <v>0.1285862</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 0</t>
         </is>
       </c>
       <c r="B23" s="4" t="n">
         <v>20</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>11432</v>
+        <v>0</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>169990</v>
+        <v>0</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7006.094</v>
+        <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>0</v>
@@ -1536,29 +1566,29 @@
         <v>0</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.184894</v>
+        <v>0.1955921</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.184894</v>
+        <v>0.1955921</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 0</t>
         </is>
       </c>
       <c r="B24" s="4" t="n">
         <v>21</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>11937</v>
+        <v>0</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>171100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7016.375</v>
+        <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
         <v>0</v>
@@ -1567,29 +1597,29 @@
         <v>0</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2897047</v>
+        <v>0.1940448</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2897047</v>
+        <v>0.1940448</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 0</t>
         </is>
       </c>
       <c r="B25" s="4" t="n">
         <v>22</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>12608</v>
+        <v>0</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>171929</v>
+        <v>0</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7033.703</v>
+        <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>0</v>
@@ -1598,29 +1628,29 @@
         <v>0</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.170116</v>
+        <v>0.1832837</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.170116</v>
+        <v>0.1832837</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 0</t>
         </is>
       </c>
       <c r="B26" s="4" t="n">
         <v>23</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>13150</v>
+        <v>0</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>174211</v>
+        <v>0</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7101.063</v>
+        <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>0</v>
@@ -1629,29 +1659,29 @@
         <v>0</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.192526</v>
+        <v>0.1752454</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.192526</v>
+        <v>0.1752454</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 0</t>
         </is>
       </c>
       <c r="B27" s="4" t="n">
         <v>24</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>13772</v>
+        <v>0</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>187435</v>
+        <v>0</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>7773.781</v>
+        <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
         <v>0</v>
@@ -1660,29 +1690,29 @@
         <v>0</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.237883</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.237883</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 0</t>
         </is>
       </c>
       <c r="B28" s="4" t="n">
         <v>25</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>14385</v>
+        <v>0</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>187673</v>
+        <v>0</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>7776</v>
+        <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>0</v>
@@ -1691,29 +1721,29 @@
         <v>0</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2167756</v>
+        <v>0.2736944</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2167756</v>
+        <v>0.2736944</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 0</t>
         </is>
       </c>
       <c r="B29" s="4" t="n">
         <v>26</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>14966</v>
+        <v>0</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>187885</v>
+        <v>0</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7776.063</v>
+        <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
         <v>0</v>
@@ -1722,29 +1752,29 @@
         <v>0</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2518649</v>
+        <v>0.2218911</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2518649</v>
+        <v>0.2218911</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 0</t>
         </is>
       </c>
       <c r="B30" s="4" t="n">
         <v>27</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>15510</v>
+        <v>0</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>188030</v>
+        <v>0</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7776.063</v>
+        <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
         <v>0</v>
@@ -1753,29 +1783,29 @@
         <v>0</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2300291</v>
+        <v>0.1894443</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2300291</v>
+        <v>0.1894443</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 0</t>
         </is>
       </c>
       <c r="B31" s="4" t="n">
         <v>28</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>16091</v>
+        <v>0</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>189167</v>
+        <v>0</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>7783.969</v>
+        <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
         <v>0</v>
@@ -1784,29 +1814,29 @@
         <v>0</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2498192</v>
+        <v>0.237777</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2498192</v>
+        <v>0.237777</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 0</t>
         </is>
       </c>
       <c r="B32" s="4" t="n">
         <v>29</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>16673</v>
+        <v>0</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>189419</v>
+        <v>0</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>7784.547</v>
+        <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
         <v>0</v>
@@ -1815,29 +1845,29 @@
         <v>0</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1102495</v>
+        <v>0.2180408</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1102495</v>
+        <v>0.2180408</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>Grupo 1</t>
+          <t>Grupo 0</t>
         </is>
       </c>
       <c r="B33" s="4" t="n">
         <v>30</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>17268</v>
+        <v>0</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>190870</v>
+        <v>0</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>7842.109</v>
+        <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
         <v>0</v>
@@ -1855,20 +1885,20 @@
     <row r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B34" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>553</v>
+        <v>614</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>1100</v>
+        <v>1372</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>21.188</v>
+        <v>22.609</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>0</v>
@@ -1877,29 +1907,29 @@
         <v>0</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1260111</v>
+        <v>0.1250019</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1260111</v>
+        <v>0.1250019</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B35" s="4" t="n">
         <v>2</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>1175</v>
+        <v>1179</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>1886</v>
+        <v>23999</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>61.344</v>
+        <v>1450.047</v>
       </c>
       <c r="F35" s="5" t="n">
         <v>0</v>
@@ -1908,29 +1938,29 @@
         <v>0</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2289273</v>
+        <v>0.1887559</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2289273</v>
+        <v>0.1887559</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B36" s="4" t="n">
         <v>3</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1739</v>
+        <v>1848</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2462</v>
+        <v>24315</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>61.516</v>
+        <v>1450.375</v>
       </c>
       <c r="F36" s="5" t="n">
         <v>0</v>
@@ -1939,29 +1969,29 @@
         <v>0</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.199396</v>
+        <v>0.2670515</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.199396</v>
+        <v>0.2670515</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B37" s="4" t="n">
         <v>4</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>2289</v>
+        <v>2440</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>2602</v>
+        <v>24642</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>61.703</v>
+        <v>1454.688</v>
       </c>
       <c r="F37" s="5" t="n">
         <v>0</v>
@@ -1970,29 +2000,29 @@
         <v>0</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.192526</v>
+        <v>0.1987498</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.192526</v>
+        <v>0.1987498</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B38" s="4" t="n">
         <v>5</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>2815</v>
+        <v>3095</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>7996</v>
+        <v>24915</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>177.078</v>
+        <v>1463.156</v>
       </c>
       <c r="F38" s="5" t="n">
         <v>0</v>
@@ -2001,29 +2031,29 @@
         <v>0</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1624159</v>
+        <v>0.2364685</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1624159</v>
+        <v>0.2364685</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B39" s="4" t="n">
         <v>6</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>3326</v>
+        <v>3646</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>34943</v>
+        <v>25581</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>327.453</v>
+        <v>1466.078</v>
       </c>
       <c r="F39" s="5" t="n">
         <v>0</v>
@@ -2032,29 +2062,29 @@
         <v>0</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1985302</v>
+        <v>0.194044</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1985302</v>
+        <v>0.194044</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B40" s="4" t="n">
         <v>7</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>3896</v>
+        <v>4155</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>36925</v>
+        <v>36371</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>381.141</v>
+        <v>2148.531</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>0</v>
@@ -2063,29 +2093,29 @@
         <v>0</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2313895</v>
+        <v>0.2688232</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2313895</v>
+        <v>0.2688232</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B41" s="4" t="n">
         <v>8</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>4471</v>
+        <v>4696</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>37591</v>
+        <v>37607</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>393.484</v>
+        <v>2161.844</v>
       </c>
       <c r="F41" s="5" t="n">
         <v>0</v>
@@ -2094,29 +2124,29 @@
         <v>0</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.233184</v>
+        <v>0.2447125</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.233184</v>
+        <v>0.2447125</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B42" s="4" t="n">
         <v>9</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>5047</v>
+        <v>5271</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>37660</v>
+        <v>40502</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>393.484</v>
+        <v>2170.203</v>
       </c>
       <c r="F42" s="5" t="n">
         <v>0</v>
@@ -2125,29 +2155,29 @@
         <v>0</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1201376</v>
+        <v>0.1250019</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1201376</v>
+        <v>0.1250019</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B43" s="4" t="n">
         <v>10</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>5575</v>
+        <v>5901</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>94259</v>
+        <v>55551</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>4808.094</v>
+        <v>2963.313</v>
       </c>
       <c r="F43" s="5" t="n">
         <v>0</v>
@@ -2156,29 +2186,29 @@
         <v>0</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1229662</v>
+        <v>0.1625948</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1229662</v>
+        <v>0.1625948</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B44" s="4" t="n">
         <v>11</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>6197</v>
+        <v>6441</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>95246</v>
+        <v>56183</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>4865.203</v>
+        <v>2976.375</v>
       </c>
       <c r="F44" s="5" t="n">
         <v>0</v>
@@ -2187,29 +2217,29 @@
         <v>0</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2826314</v>
+        <v>0.1095627</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2826314</v>
+        <v>0.1095627</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B45" s="4" t="n">
         <v>12</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>6774</v>
+        <v>6926</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>95637</v>
+        <v>71651</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>4865.516</v>
+        <v>3852.094</v>
       </c>
       <c r="F45" s="5" t="n">
         <v>0</v>
@@ -2218,29 +2248,29 @@
         <v>0</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.1237076</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.1237076</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B46" s="4" t="n">
         <v>13</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>7359</v>
+        <v>7471</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>96792</v>
+        <v>101462</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>4877.359</v>
+        <v>5719.531</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>0</v>
@@ -2249,29 +2279,29 @@
         <v>0</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.1260111</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.1260111</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B47" s="4" t="n">
         <v>14</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>7920</v>
+        <v>8032</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>96910</v>
+        <v>102483</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>4880.266</v>
+        <v>5745</v>
       </c>
       <c r="F47" s="5" t="n">
         <v>0</v>
@@ -2280,29 +2310,29 @@
         <v>0</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1880851</v>
+        <v>0.2611755</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1880851</v>
+        <v>0.2611755</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B48" s="4" t="n">
         <v>15</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>8553</v>
+        <v>8593</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>97248</v>
+        <v>103030</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>4880.906</v>
+        <v>5745</v>
       </c>
       <c r="F48" s="5" t="n">
         <v>0</v>
@@ -2311,29 +2341,29 @@
         <v>0</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1033878</v>
+        <v>0.2601367</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1033878</v>
+        <v>0.2601367</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B49" s="4" t="n">
         <v>16</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>9250</v>
+        <v>9219</v>
       </c>
       <c r="D49" s="5" t="n">
-        <v>98483</v>
+        <v>105332</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>4907.063</v>
+        <v>5746.5</v>
       </c>
       <c r="F49" s="5" t="n">
         <v>0</v>
@@ -2342,29 +2372,29 @@
         <v>0</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1060832</v>
+        <v>0.1225956</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1060832</v>
+        <v>0.1225956</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B50" s="4" t="n">
         <v>17</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>9862</v>
+        <v>9775</v>
       </c>
       <c r="D50" s="5" t="n">
-        <v>164386</v>
+        <v>164021</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>11341.281</v>
+        <v>6988.969</v>
       </c>
       <c r="F50" s="5" t="n">
         <v>0</v>
@@ -2373,29 +2403,29 @@
         <v>0</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.0917698</v>
+        <v>0.2220208</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.0917698</v>
+        <v>0.2220208</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B51" s="4" t="n">
         <v>18</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>10456</v>
+        <v>10304</v>
       </c>
       <c r="D51" s="5" t="n">
-        <v>177876</v>
+        <v>164583</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>12569.578</v>
+        <v>6991.578</v>
       </c>
       <c r="F51" s="5" t="n">
         <v>0</v>
@@ -2404,29 +2434,29 @@
         <v>0</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.2272512</v>
+        <v>0.2207892</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.2272512</v>
+        <v>0.2207892</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B52" s="4" t="n">
         <v>19</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>10996</v>
+        <v>10865</v>
       </c>
       <c r="D52" s="5" t="n">
-        <v>178642</v>
+        <v>165001</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>12603.969</v>
+        <v>6991.641</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>0</v>
@@ -2435,29 +2465,29 @@
         <v>0</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.1987498</v>
+        <v>0.1252291</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.1987498</v>
+        <v>0.1252291</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B53" s="4" t="n">
         <v>20</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>11596</v>
+        <v>11432</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>179166</v>
+        <v>169990</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>12606.875</v>
+        <v>7006.094</v>
       </c>
       <c r="F53" s="5" t="n">
         <v>0</v>
@@ -2466,29 +2496,29 @@
         <v>0</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.201175</v>
+        <v>0.184894</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.201175</v>
+        <v>0.184894</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B54" s="4" t="n">
         <v>21</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>12149</v>
+        <v>11937</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>179746</v>
+        <v>171100</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>12620.625</v>
+        <v>7016.375</v>
       </c>
       <c r="F54" s="5" t="n">
         <v>0</v>
@@ -2497,29 +2527,29 @@
         <v>0</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2186665</v>
+        <v>0.2897047</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2186665</v>
+        <v>0.2897047</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B55" s="4" t="n">
         <v>22</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>12664</v>
+        <v>12608</v>
       </c>
       <c r="D55" s="5" t="n">
-        <v>179926</v>
+        <v>171929</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>12623.547</v>
+        <v>7033.703</v>
       </c>
       <c r="F55" s="5" t="n">
         <v>0</v>
@@ -2528,29 +2558,29 @@
         <v>0</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2634557</v>
+        <v>0.170116</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2634557</v>
+        <v>0.170116</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B56" s="4" t="n">
         <v>23</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>13282</v>
+        <v>13150</v>
       </c>
       <c r="D56" s="5" t="n">
-        <v>180638</v>
+        <v>174211</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>12636.344</v>
+        <v>7101.063</v>
       </c>
       <c r="F56" s="5" t="n">
         <v>0</v>
@@ -2559,29 +2589,29 @@
         <v>0</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.2184949</v>
+        <v>0.192526</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.2184949</v>
+        <v>0.192526</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B57" s="4" t="n">
         <v>24</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>13898</v>
+        <v>13772</v>
       </c>
       <c r="D57" s="5" t="n">
-        <v>193549</v>
+        <v>187435</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>13554.313</v>
+        <v>7773.781</v>
       </c>
       <c r="F57" s="5" t="n">
         <v>0</v>
@@ -2590,29 +2620,29 @@
         <v>0</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.2258766</v>
+        <v>0.2844053</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.2258766</v>
+        <v>0.2844053</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B58" s="4" t="n">
         <v>25</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>14434</v>
+        <v>14385</v>
       </c>
       <c r="D58" s="5" t="n">
-        <v>193837</v>
+        <v>187673</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>13555.188</v>
+        <v>7776</v>
       </c>
       <c r="F58" s="5" t="n">
         <v>0</v>
@@ -2621,29 +2651,29 @@
         <v>0</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.2176948</v>
+        <v>0.2167756</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.2176948</v>
+        <v>0.2167756</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B59" s="4" t="n">
         <v>26</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>15100</v>
+        <v>14966</v>
       </c>
       <c r="D59" s="5" t="n">
-        <v>194297</v>
+        <v>187885</v>
       </c>
       <c r="E59" s="5" t="n">
-        <v>13558.016</v>
+        <v>7776.063</v>
       </c>
       <c r="F59" s="5" t="n">
         <v>0</v>
@@ -2652,29 +2682,29 @@
         <v>0</v>
       </c>
       <c r="H59" s="6" t="n">
-        <v>0.208873</v>
+        <v>0.2518649</v>
       </c>
       <c r="I59" s="6" t="n">
-        <v>0.208873</v>
+        <v>0.2518649</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B60" s="4" t="n">
         <v>27</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>15671</v>
+        <v>15510</v>
       </c>
       <c r="D60" s="5" t="n">
-        <v>194602</v>
+        <v>188030</v>
       </c>
       <c r="E60" s="5" t="n">
-        <v>13564.25</v>
+        <v>7776.063</v>
       </c>
       <c r="F60" s="5" t="n">
         <v>0</v>
@@ -2683,29 +2713,29 @@
         <v>0</v>
       </c>
       <c r="H60" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.2300291</v>
       </c>
       <c r="I60" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.2300291</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B61" s="4" t="n">
         <v>28</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>16252</v>
+        <v>16091</v>
       </c>
       <c r="D61" s="5" t="n">
-        <v>195404</v>
+        <v>189167</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>13564.25</v>
+        <v>7783.969</v>
       </c>
       <c r="F61" s="5" t="n">
         <v>0</v>
@@ -2714,29 +2744,29 @@
         <v>0</v>
       </c>
       <c r="H61" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.2498192</v>
       </c>
       <c r="I61" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.2498192</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B62" s="4" t="n">
         <v>29</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>17009</v>
+        <v>16673</v>
       </c>
       <c r="D62" s="5" t="n">
-        <v>196343</v>
+        <v>189419</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>13569.688</v>
+        <v>7784.547</v>
       </c>
       <c r="F62" s="5" t="n">
         <v>0</v>
@@ -2745,29 +2775,29 @@
         <v>0</v>
       </c>
       <c r="H62" s="6" t="n">
-        <v>0.1918669</v>
+        <v>0.1102495</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.1918669</v>
+        <v>0.1102495</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>Grupo 2</t>
+          <t>Grupo 1</t>
         </is>
       </c>
       <c r="B63" s="4" t="n">
         <v>30</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>17609</v>
+        <v>17268</v>
       </c>
       <c r="D63" s="5" t="n">
-        <v>198460</v>
+        <v>190870</v>
       </c>
       <c r="E63" s="5" t="n">
-        <v>13710.688</v>
+        <v>7842.109</v>
       </c>
       <c r="F63" s="5" t="n">
         <v>0</v>
@@ -2785,20 +2815,20 @@
     <row r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B64" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>654</v>
+        <v>553</v>
       </c>
       <c r="D64" s="5" t="n">
-        <v>531</v>
+        <v>1100</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>1.313</v>
+        <v>21.188</v>
       </c>
       <c r="F64" s="5" t="n">
         <v>0</v>
@@ -2807,29 +2837,29 @@
         <v>0</v>
       </c>
       <c r="H64" s="6" t="n">
-        <v>0.2509308</v>
+        <v>0.1260111</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.2509308</v>
+        <v>0.1260111</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B65" s="4" t="n">
         <v>2</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>1222</v>
+        <v>1175</v>
       </c>
       <c r="D65" s="5" t="n">
-        <v>1386</v>
+        <v>1886</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>10.969</v>
+        <v>61.344</v>
       </c>
       <c r="F65" s="5" t="n">
         <v>0</v>
@@ -2838,29 +2868,29 @@
         <v>0</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>0.2098487</v>
+        <v>0.2289273</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.2098487</v>
+        <v>0.2289273</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B66" s="4" t="n">
         <v>3</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>1788</v>
+        <v>1739</v>
       </c>
       <c r="D66" s="5" t="n">
-        <v>1867</v>
+        <v>2462</v>
       </c>
       <c r="E66" s="5" t="n">
-        <v>38.016</v>
+        <v>61.516</v>
       </c>
       <c r="F66" s="5" t="n">
         <v>0</v>
@@ -2869,29 +2899,29 @@
         <v>0</v>
       </c>
       <c r="H66" s="6" t="n">
-        <v>0.2110814</v>
+        <v>0.199396</v>
       </c>
       <c r="I66" s="6" t="n">
-        <v>0.2110814</v>
+        <v>0.199396</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B67" s="4" t="n">
         <v>4</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>2358</v>
+        <v>2289</v>
       </c>
       <c r="D67" s="5" t="n">
-        <v>2203</v>
+        <v>2602</v>
       </c>
       <c r="E67" s="5" t="n">
-        <v>48.266</v>
+        <v>61.703</v>
       </c>
       <c r="F67" s="5" t="n">
         <v>0</v>
@@ -2900,29 +2930,29 @@
         <v>0</v>
       </c>
       <c r="H67" s="6" t="n">
-        <v>0.2641469</v>
+        <v>0.192526</v>
       </c>
       <c r="I67" s="6" t="n">
-        <v>0.2641469</v>
+        <v>0.192526</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B68" s="4" t="n">
         <v>5</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>2982</v>
+        <v>2815</v>
       </c>
       <c r="D68" s="5" t="n">
-        <v>4382</v>
+        <v>7996</v>
       </c>
       <c r="E68" s="5" t="n">
-        <v>328.75</v>
+        <v>177.078</v>
       </c>
       <c r="F68" s="5" t="n">
         <v>0</v>
@@ -2931,29 +2961,29 @@
         <v>0</v>
       </c>
       <c r="H68" s="6" t="n">
-        <v>0.2788382</v>
+        <v>0.1624159</v>
       </c>
       <c r="I68" s="6" t="n">
-        <v>0.2788382</v>
+        <v>0.1624159</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B69" s="4" t="n">
         <v>6</v>
       </c>
       <c r="C69" s="5" t="n">
-        <v>3537</v>
+        <v>3326</v>
       </c>
       <c r="D69" s="5" t="n">
-        <v>4851</v>
+        <v>34943</v>
       </c>
       <c r="E69" s="5" t="n">
-        <v>347.719</v>
+        <v>327.453</v>
       </c>
       <c r="F69" s="5" t="n">
         <v>0</v>
@@ -2962,29 +2992,29 @@
         <v>0</v>
       </c>
       <c r="H69" s="6" t="n">
-        <v>0.1232496</v>
+        <v>0.1985302</v>
       </c>
       <c r="I69" s="6" t="n">
-        <v>0.1232496</v>
+        <v>0.1985302</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B70" s="4" t="n">
         <v>7</v>
       </c>
       <c r="C70" s="5" t="n">
-        <v>4087</v>
+        <v>3896</v>
       </c>
       <c r="D70" s="5" t="n">
-        <v>28631</v>
+        <v>36925</v>
       </c>
       <c r="E70" s="5" t="n">
-        <v>3465.188</v>
+        <v>381.141</v>
       </c>
       <c r="F70" s="5" t="n">
         <v>0</v>
@@ -2993,29 +3023,29 @@
         <v>0</v>
       </c>
       <c r="H70" s="6" t="n">
-        <v>0.2617761</v>
+        <v>0.2313895</v>
       </c>
       <c r="I70" s="6" t="n">
-        <v>0.2617761</v>
+        <v>0.2313895</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B71" s="4" t="n">
         <v>8</v>
       </c>
       <c r="C71" s="5" t="n">
-        <v>4729</v>
+        <v>4471</v>
       </c>
       <c r="D71" s="5" t="n">
-        <v>28879</v>
+        <v>37591</v>
       </c>
       <c r="E71" s="5" t="n">
-        <v>3465.406</v>
+        <v>393.484</v>
       </c>
       <c r="F71" s="5" t="n">
         <v>0</v>
@@ -3024,29 +3054,29 @@
         <v>0</v>
       </c>
       <c r="H71" s="6" t="n">
-        <v>0.1838224</v>
+        <v>0.233184</v>
       </c>
       <c r="I71" s="6" t="n">
-        <v>0.1838224</v>
+        <v>0.233184</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B72" s="4" t="n">
         <v>9</v>
       </c>
       <c r="C72" s="5" t="n">
-        <v>5320</v>
+        <v>5047</v>
       </c>
       <c r="D72" s="5" t="n">
-        <v>29491</v>
+        <v>37660</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>3479.125</v>
+        <v>393.484</v>
       </c>
       <c r="F72" s="5" t="n">
         <v>0</v>
@@ -3055,29 +3085,29 @@
         <v>0</v>
       </c>
       <c r="H72" s="6" t="n">
-        <v>0.1218389</v>
+        <v>0.1201376</v>
       </c>
       <c r="I72" s="6" t="n">
-        <v>0.1218389</v>
+        <v>0.1201376</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B73" s="4" t="n">
         <v>10</v>
       </c>
       <c r="C73" s="5" t="n">
-        <v>5877</v>
+        <v>5575</v>
       </c>
       <c r="D73" s="5" t="n">
-        <v>76930</v>
+        <v>94259</v>
       </c>
       <c r="E73" s="5" t="n">
-        <v>9230.422</v>
+        <v>4808.094</v>
       </c>
       <c r="F73" s="5" t="n">
         <v>0</v>
@@ -3086,29 +3116,29 @@
         <v>0</v>
       </c>
       <c r="H73" s="6" t="n">
-        <v>0.2667958</v>
+        <v>0.1229662</v>
       </c>
       <c r="I73" s="6" t="n">
-        <v>0.2667958</v>
+        <v>0.1229662</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B74" s="4" t="n">
         <v>11</v>
       </c>
       <c r="C74" s="5" t="n">
-        <v>6422</v>
+        <v>6197</v>
       </c>
       <c r="D74" s="5" t="n">
-        <v>77029</v>
+        <v>95246</v>
       </c>
       <c r="E74" s="5" t="n">
-        <v>9230.422</v>
+        <v>4865.203</v>
       </c>
       <c r="F74" s="5" t="n">
         <v>0</v>
@@ -3117,29 +3147,29 @@
         <v>0</v>
       </c>
       <c r="H74" s="6" t="n">
-        <v>0.2183271</v>
+        <v>0.2826314</v>
       </c>
       <c r="I74" s="6" t="n">
-        <v>0.2183271</v>
+        <v>0.2826314</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B75" s="4" t="n">
         <v>12</v>
       </c>
       <c r="C75" s="5" t="n">
-        <v>7004</v>
+        <v>6774</v>
       </c>
       <c r="D75" s="5" t="n">
-        <v>77439</v>
+        <v>95637</v>
       </c>
       <c r="E75" s="5" t="n">
-        <v>9235.172</v>
+        <v>4865.516</v>
       </c>
       <c r="F75" s="5" t="n">
         <v>0</v>
@@ -3148,29 +3178,29 @@
         <v>0</v>
       </c>
       <c r="H75" s="6" t="n">
-        <v>0.1704796</v>
+        <v>0.2844053</v>
       </c>
       <c r="I75" s="6" t="n">
-        <v>0.1704796</v>
+        <v>0.2844053</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B76" s="4" t="n">
         <v>13</v>
       </c>
       <c r="C76" s="5" t="n">
-        <v>7605</v>
+        <v>7359</v>
       </c>
       <c r="D76" s="5" t="n">
-        <v>78111</v>
+        <v>96792</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>9250.531000000001</v>
+        <v>4877.359</v>
       </c>
       <c r="F76" s="5" t="n">
         <v>0</v>
@@ -3179,29 +3209,29 @@
         <v>0</v>
       </c>
       <c r="H76" s="6" t="n">
-        <v>0.2498192</v>
+        <v>0.2844053</v>
       </c>
       <c r="I76" s="6" t="n">
-        <v>0.2498192</v>
+        <v>0.2844053</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B77" s="4" t="n">
         <v>14</v>
       </c>
       <c r="C77" s="5" t="n">
-        <v>8200</v>
+        <v>7920</v>
       </c>
       <c r="D77" s="5" t="n">
-        <v>78317</v>
+        <v>96910</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>9258.188</v>
+        <v>4880.266</v>
       </c>
       <c r="F77" s="5" t="n">
         <v>0</v>
@@ -3210,29 +3240,29 @@
         <v>0</v>
       </c>
       <c r="H77" s="6" t="n">
-        <v>0.1838224</v>
+        <v>0.1880851</v>
       </c>
       <c r="I77" s="6" t="n">
-        <v>0.1838224</v>
+        <v>0.1880851</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B78" s="4" t="n">
         <v>15</v>
       </c>
       <c r="C78" s="5" t="n">
-        <v>8808</v>
+        <v>8553</v>
       </c>
       <c r="D78" s="5" t="n">
-        <v>79931</v>
+        <v>97248</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>9394.25</v>
+        <v>4880.906</v>
       </c>
       <c r="F78" s="5" t="n">
         <v>0</v>
@@ -3241,29 +3271,29 @@
         <v>0</v>
       </c>
       <c r="H78" s="6" t="n">
-        <v>0.1920985</v>
+        <v>0.1033878</v>
       </c>
       <c r="I78" s="6" t="n">
-        <v>0.1920985</v>
+        <v>0.1033878</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B79" s="4" t="n">
         <v>16</v>
       </c>
       <c r="C79" s="5" t="n">
-        <v>9351</v>
+        <v>9250</v>
       </c>
       <c r="D79" s="5" t="n">
-        <v>80265</v>
+        <v>98483</v>
       </c>
       <c r="E79" s="5" t="n">
-        <v>9394.468999999999</v>
+        <v>4907.063</v>
       </c>
       <c r="F79" s="5" t="n">
         <v>0</v>
@@ -3272,29 +3302,29 @@
         <v>0</v>
       </c>
       <c r="H79" s="6" t="n">
-        <v>0.1146563</v>
+        <v>0.1060832</v>
       </c>
       <c r="I79" s="6" t="n">
-        <v>0.1146563</v>
+        <v>0.1060832</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B80" s="4" t="n">
         <v>17</v>
       </c>
       <c r="C80" s="5" t="n">
-        <v>9966</v>
+        <v>9862</v>
       </c>
       <c r="D80" s="5" t="n">
-        <v>119963</v>
+        <v>164386</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>13801.844</v>
+        <v>11341.281</v>
       </c>
       <c r="F80" s="5" t="n">
         <v>0</v>
@@ -3303,29 +3333,29 @@
         <v>0</v>
       </c>
       <c r="H80" s="6" t="n">
-        <v>0.1980923</v>
+        <v>0.0917698</v>
       </c>
       <c r="I80" s="6" t="n">
-        <v>0.1980923</v>
+        <v>0.0917698</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B81" s="4" t="n">
         <v>18</v>
       </c>
       <c r="C81" s="5" t="n">
-        <v>10518</v>
+        <v>10456</v>
       </c>
       <c r="D81" s="5" t="n">
-        <v>120554</v>
+        <v>177876</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>13813.891</v>
+        <v>12569.578</v>
       </c>
       <c r="F81" s="5" t="n">
         <v>0</v>
@@ -3334,29 +3364,29 @@
         <v>0</v>
       </c>
       <c r="H81" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.2272512</v>
       </c>
       <c r="I81" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.2272512</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B82" s="4" t="n">
         <v>19</v>
       </c>
       <c r="C82" s="5" t="n">
-        <v>11092</v>
+        <v>10996</v>
       </c>
       <c r="D82" s="5" t="n">
-        <v>120898</v>
+        <v>178642</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>13814.109</v>
+        <v>12603.969</v>
       </c>
       <c r="F82" s="5" t="n">
         <v>0</v>
@@ -3365,29 +3395,29 @@
         <v>0</v>
       </c>
       <c r="H82" s="6" t="n">
-        <v>0.1395497</v>
+        <v>0.1987498</v>
       </c>
       <c r="I82" s="6" t="n">
-        <v>0.1395497</v>
+        <v>0.1987498</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B83" s="4" t="n">
         <v>20</v>
       </c>
       <c r="C83" s="5" t="n">
-        <v>11804</v>
+        <v>11596</v>
       </c>
       <c r="D83" s="5" t="n">
-        <v>121445</v>
+        <v>179166</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>13829.688</v>
+        <v>12606.875</v>
       </c>
       <c r="F83" s="5" t="n">
         <v>0</v>
@@ -3396,29 +3426,29 @@
         <v>0</v>
       </c>
       <c r="H83" s="6" t="n">
-        <v>0.2235431</v>
+        <v>0.201175</v>
       </c>
       <c r="I83" s="6" t="n">
-        <v>0.2235431</v>
+        <v>0.201175</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B84" s="4" t="n">
         <v>21</v>
       </c>
       <c r="C84" s="5" t="n">
-        <v>12427</v>
+        <v>12149</v>
       </c>
       <c r="D84" s="5" t="n">
-        <v>121671</v>
+        <v>179746</v>
       </c>
       <c r="E84" s="5" t="n">
-        <v>13831.234</v>
+        <v>12620.625</v>
       </c>
       <c r="F84" s="5" t="n">
         <v>0</v>
@@ -3427,29 +3457,29 @@
         <v>0</v>
       </c>
       <c r="H84" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.2186665</v>
       </c>
       <c r="I84" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.2186665</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B85" s="4" t="n">
         <v>22</v>
       </c>
       <c r="C85" s="5" t="n">
-        <v>13001</v>
+        <v>12664</v>
       </c>
       <c r="D85" s="5" t="n">
-        <v>121990</v>
+        <v>179926</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>13832.281</v>
+        <v>12623.547</v>
       </c>
       <c r="F85" s="5" t="n">
         <v>0</v>
@@ -3458,29 +3488,29 @@
         <v>0</v>
       </c>
       <c r="H85" s="6" t="n">
-        <v>0.2285513</v>
+        <v>0.2634557</v>
       </c>
       <c r="I85" s="6" t="n">
-        <v>0.2285513</v>
+        <v>0.2634557</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B86" s="4" t="n">
         <v>23</v>
       </c>
       <c r="C86" s="5" t="n">
-        <v>13538</v>
+        <v>13282</v>
       </c>
       <c r="D86" s="5" t="n">
-        <v>122134</v>
+        <v>180638</v>
       </c>
       <c r="E86" s="5" t="n">
-        <v>13837.453</v>
+        <v>12636.344</v>
       </c>
       <c r="F86" s="5" t="n">
         <v>0</v>
@@ -3489,29 +3519,29 @@
         <v>0</v>
       </c>
       <c r="H86" s="6" t="n">
-        <v>0.2633335</v>
+        <v>0.2184949</v>
       </c>
       <c r="I86" s="6" t="n">
-        <v>0.2633335</v>
+        <v>0.2184949</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B87" s="4" t="n">
         <v>24</v>
       </c>
       <c r="C87" s="5" t="n">
-        <v>14110</v>
+        <v>13898</v>
       </c>
       <c r="D87" s="5" t="n">
-        <v>122749</v>
+        <v>193549</v>
       </c>
       <c r="E87" s="5" t="n">
-        <v>13841.266</v>
+        <v>13554.313</v>
       </c>
       <c r="F87" s="5" t="n">
         <v>0</v>
@@ -3520,29 +3550,29 @@
         <v>0</v>
       </c>
       <c r="H87" s="6" t="n">
-        <v>0.2755141</v>
+        <v>0.2258766</v>
       </c>
       <c r="I87" s="6" t="n">
-        <v>0.2755141</v>
+        <v>0.2258766</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B88" s="4" t="n">
         <v>25</v>
       </c>
       <c r="C88" s="5" t="n">
-        <v>14755</v>
+        <v>14434</v>
       </c>
       <c r="D88" s="5" t="n">
-        <v>123888</v>
+        <v>193837</v>
       </c>
       <c r="E88" s="5" t="n">
-        <v>13857.031</v>
+        <v>13555.188</v>
       </c>
       <c r="F88" s="5" t="n">
         <v>0</v>
@@ -3551,29 +3581,29 @@
         <v>0</v>
       </c>
       <c r="H88" s="6" t="n">
-        <v>0.2663427</v>
+        <v>0.2176948</v>
       </c>
       <c r="I88" s="6" t="n">
-        <v>0.2663427</v>
+        <v>0.2176948</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B89" s="4" t="n">
         <v>26</v>
       </c>
       <c r="C89" s="5" t="n">
-        <v>15398</v>
+        <v>15100</v>
       </c>
       <c r="D89" s="5" t="n">
-        <v>124568</v>
+        <v>194297</v>
       </c>
       <c r="E89" s="5" t="n">
-        <v>13862.172</v>
+        <v>13558.016</v>
       </c>
       <c r="F89" s="5" t="n">
         <v>0</v>
@@ -3582,29 +3612,29 @@
         <v>0</v>
       </c>
       <c r="H89" s="6" t="n">
-        <v>0.1870038</v>
+        <v>0.208873</v>
       </c>
       <c r="I89" s="6" t="n">
-        <v>0.1870038</v>
+        <v>0.208873</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B90" s="4" t="n">
         <v>27</v>
       </c>
       <c r="C90" s="5" t="n">
-        <v>16000</v>
+        <v>15671</v>
       </c>
       <c r="D90" s="5" t="n">
-        <v>134847</v>
+        <v>194602</v>
       </c>
       <c r="E90" s="5" t="n">
-        <v>15375.422</v>
+        <v>13564.25</v>
       </c>
       <c r="F90" s="5" t="n">
         <v>0</v>
@@ -3613,29 +3643,29 @@
         <v>0</v>
       </c>
       <c r="H90" s="6" t="n">
-        <v>0.2487015</v>
+        <v>0.2844053</v>
       </c>
       <c r="I90" s="6" t="n">
-        <v>0.2487015</v>
+        <v>0.2844053</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B91" s="4" t="n">
         <v>28</v>
       </c>
       <c r="C91" s="5" t="n">
-        <v>16585</v>
+        <v>16252</v>
       </c>
       <c r="D91" s="5" t="n">
-        <v>135004</v>
+        <v>195404</v>
       </c>
       <c r="E91" s="5" t="n">
-        <v>15375.5</v>
+        <v>13564.25</v>
       </c>
       <c r="F91" s="5" t="n">
         <v>0</v>
@@ -3644,29 +3674,29 @@
         <v>0</v>
       </c>
       <c r="H91" s="6" t="n">
-        <v>0.119323</v>
+        <v>0.2844053</v>
       </c>
       <c r="I91" s="6" t="n">
-        <v>0.119323</v>
+        <v>0.2844053</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B92" s="4" t="n">
         <v>29</v>
       </c>
       <c r="C92" s="5" t="n">
-        <v>17195</v>
+        <v>17009</v>
       </c>
       <c r="D92" s="5" t="n">
-        <v>158688</v>
+        <v>196343</v>
       </c>
       <c r="E92" s="5" t="n">
-        <v>18359.891</v>
+        <v>13569.688</v>
       </c>
       <c r="F92" s="5" t="n">
         <v>0</v>
@@ -3675,29 +3705,29 @@
         <v>0</v>
       </c>
       <c r="H92" s="6" t="n">
-        <v>0.2213283</v>
+        <v>0.1918669</v>
       </c>
       <c r="I92" s="6" t="n">
-        <v>0.2213283</v>
+        <v>0.1918669</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="4" t="inlineStr">
         <is>
-          <t>Grupo 3</t>
+          <t>Grupo 2</t>
         </is>
       </c>
       <c r="B93" s="4" t="n">
         <v>30</v>
       </c>
       <c r="C93" s="5" t="n">
-        <v>17767</v>
+        <v>17609</v>
       </c>
       <c r="D93" s="5" t="n">
-        <v>159071</v>
+        <v>198460</v>
       </c>
       <c r="E93" s="5" t="n">
-        <v>18364.703</v>
+        <v>13710.688</v>
       </c>
       <c r="F93" s="5" t="n">
         <v>0</v>
@@ -3715,20 +3745,20 @@
     <row r="94">
       <c r="A94" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B94" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C94" s="5" t="n">
-        <v>632</v>
+        <v>654</v>
       </c>
       <c r="D94" s="5" t="n">
-        <v>187</v>
+        <v>531</v>
       </c>
       <c r="E94" s="5" t="n">
-        <v>0.188</v>
+        <v>1.313</v>
       </c>
       <c r="F94" s="5" t="n">
         <v>0</v>
@@ -3737,16 +3767,16 @@
         <v>0</v>
       </c>
       <c r="H94" s="6" t="n">
-        <v>0.2707355</v>
+        <v>0.2509308</v>
       </c>
       <c r="I94" s="6" t="n">
-        <v>0.2707355</v>
+        <v>0.2509308</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B95" s="4" t="n">
@@ -3756,10 +3786,10 @@
         <v>1222</v>
       </c>
       <c r="D95" s="5" t="n">
-        <v>455</v>
+        <v>1386</v>
       </c>
       <c r="E95" s="5" t="n">
-        <v>7.328</v>
+        <v>10.969</v>
       </c>
       <c r="F95" s="5" t="n">
         <v>0</v>
@@ -3768,29 +3798,29 @@
         <v>0</v>
       </c>
       <c r="H95" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.2098487</v>
       </c>
       <c r="I95" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.2098487</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B96" s="4" t="n">
         <v>3</v>
       </c>
       <c r="C96" s="5" t="n">
-        <v>1880</v>
+        <v>1788</v>
       </c>
       <c r="D96" s="5" t="n">
-        <v>849</v>
+        <v>1867</v>
       </c>
       <c r="E96" s="5" t="n">
-        <v>7.703</v>
+        <v>38.016</v>
       </c>
       <c r="F96" s="5" t="n">
         <v>0</v>
@@ -3799,29 +3829,29 @@
         <v>0</v>
       </c>
       <c r="H96" s="6" t="n">
-        <v>0.2263391</v>
+        <v>0.2110814</v>
       </c>
       <c r="I96" s="6" t="n">
-        <v>0.2263391</v>
+        <v>0.2110814</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B97" s="4" t="n">
         <v>4</v>
       </c>
       <c r="C97" s="5" t="n">
-        <v>2428</v>
+        <v>2358</v>
       </c>
       <c r="D97" s="5" t="n">
-        <v>1250</v>
+        <v>2203</v>
       </c>
       <c r="E97" s="5" t="n">
-        <v>7.703</v>
+        <v>48.266</v>
       </c>
       <c r="F97" s="5" t="n">
         <v>0</v>
@@ -3830,29 +3860,29 @@
         <v>0</v>
       </c>
       <c r="H97" s="6" t="n">
-        <v>0.1161702</v>
+        <v>0.2641469</v>
       </c>
       <c r="I97" s="6" t="n">
-        <v>0.1161702</v>
+        <v>0.2641469</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B98" s="4" t="n">
         <v>5</v>
       </c>
       <c r="C98" s="5" t="n">
-        <v>3017</v>
+        <v>2982</v>
       </c>
       <c r="D98" s="5" t="n">
-        <v>9781</v>
+        <v>4382</v>
       </c>
       <c r="E98" s="5" t="n">
-        <v>1582.563</v>
+        <v>328.75</v>
       </c>
       <c r="F98" s="5" t="n">
         <v>0</v>
@@ -3861,29 +3891,29 @@
         <v>0</v>
       </c>
       <c r="H98" s="6" t="n">
-        <v>0.2195415</v>
+        <v>0.2788382</v>
       </c>
       <c r="I98" s="6" t="n">
-        <v>0.2195415</v>
+        <v>0.2788382</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B99" s="4" t="n">
         <v>6</v>
       </c>
       <c r="C99" s="5" t="n">
-        <v>3653</v>
+        <v>3537</v>
       </c>
       <c r="D99" s="5" t="n">
-        <v>10116</v>
+        <v>4851</v>
       </c>
       <c r="E99" s="5" t="n">
-        <v>1582.766</v>
+        <v>347.719</v>
       </c>
       <c r="F99" s="5" t="n">
         <v>0</v>
@@ -3892,29 +3922,29 @@
         <v>0</v>
       </c>
       <c r="H99" s="6" t="n">
-        <v>0.2489028</v>
+        <v>0.1232496</v>
       </c>
       <c r="I99" s="6" t="n">
-        <v>0.2489028</v>
+        <v>0.1232496</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B100" s="4" t="n">
         <v>7</v>
       </c>
       <c r="C100" s="5" t="n">
-        <v>4184</v>
+        <v>4087</v>
       </c>
       <c r="D100" s="5" t="n">
-        <v>10714</v>
+        <v>28631</v>
       </c>
       <c r="E100" s="5" t="n">
-        <v>1655.453</v>
+        <v>3465.188</v>
       </c>
       <c r="F100" s="5" t="n">
         <v>0</v>
@@ -3923,29 +3953,29 @@
         <v>0</v>
       </c>
       <c r="H100" s="6" t="n">
-        <v>0.2530358</v>
+        <v>0.2617761</v>
       </c>
       <c r="I100" s="6" t="n">
-        <v>0.2530358</v>
+        <v>0.2617761</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B101" s="4" t="n">
         <v>8</v>
       </c>
       <c r="C101" s="5" t="n">
-        <v>4774</v>
+        <v>4729</v>
       </c>
       <c r="D101" s="5" t="n">
-        <v>10974</v>
+        <v>28879</v>
       </c>
       <c r="E101" s="5" t="n">
-        <v>1662.656</v>
+        <v>3465.406</v>
       </c>
       <c r="F101" s="5" t="n">
         <v>0</v>
@@ -3954,29 +3984,29 @@
         <v>0</v>
       </c>
       <c r="H101" s="6" t="n">
-        <v>0.2095464</v>
+        <v>0.1838224</v>
       </c>
       <c r="I101" s="6" t="n">
-        <v>0.2095464</v>
+        <v>0.1838224</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B102" s="4" t="n">
         <v>9</v>
       </c>
       <c r="C102" s="5" t="n">
-        <v>5316</v>
+        <v>5320</v>
       </c>
       <c r="D102" s="5" t="n">
-        <v>11997</v>
+        <v>29491</v>
       </c>
       <c r="E102" s="5" t="n">
-        <v>1662.984</v>
+        <v>3479.125</v>
       </c>
       <c r="F102" s="5" t="n">
         <v>0</v>
@@ -3985,29 +4015,29 @@
         <v>0</v>
       </c>
       <c r="H102" s="6" t="n">
-        <v>0.1755135</v>
+        <v>0.1218389</v>
       </c>
       <c r="I102" s="6" t="n">
-        <v>0.1755135</v>
+        <v>0.1218389</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B103" s="4" t="n">
         <v>10</v>
       </c>
       <c r="C103" s="5" t="n">
-        <v>5909</v>
+        <v>5877</v>
       </c>
       <c r="D103" s="5" t="n">
-        <v>12326</v>
+        <v>76930</v>
       </c>
       <c r="E103" s="5" t="n">
-        <v>1695.375</v>
+        <v>9230.422</v>
       </c>
       <c r="F103" s="5" t="n">
         <v>0</v>
@@ -4016,29 +4046,29 @@
         <v>0</v>
       </c>
       <c r="H103" s="6" t="n">
-        <v>0.2187398</v>
+        <v>0.2667958</v>
       </c>
       <c r="I103" s="6" t="n">
-        <v>0.2187398</v>
+        <v>0.2667958</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B104" s="4" t="n">
         <v>11</v>
       </c>
       <c r="C104" s="5" t="n">
-        <v>6491</v>
+        <v>6422</v>
       </c>
       <c r="D104" s="5" t="n">
-        <v>12585</v>
+        <v>77029</v>
       </c>
       <c r="E104" s="5" t="n">
-        <v>1707.328</v>
+        <v>9230.422</v>
       </c>
       <c r="F104" s="5" t="n">
         <v>0</v>
@@ -4047,29 +4077,29 @@
         <v>0</v>
       </c>
       <c r="H104" s="6" t="n">
-        <v>0.2640905</v>
+        <v>0.2183271</v>
       </c>
       <c r="I104" s="6" t="n">
-        <v>0.2640905</v>
+        <v>0.2183271</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B105" s="4" t="n">
         <v>12</v>
       </c>
       <c r="C105" s="5" t="n">
-        <v>7048</v>
+        <v>7004</v>
       </c>
       <c r="D105" s="5" t="n">
-        <v>13123</v>
+        <v>77439</v>
       </c>
       <c r="E105" s="5" t="n">
-        <v>1723.906</v>
+        <v>9235.172</v>
       </c>
       <c r="F105" s="5" t="n">
         <v>0</v>
@@ -4078,29 +4108,29 @@
         <v>0</v>
       </c>
       <c r="H105" s="6" t="n">
-        <v>0.1206024</v>
+        <v>0.1704796</v>
       </c>
       <c r="I105" s="6" t="n">
-        <v>0.1206024</v>
+        <v>0.1704796</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B106" s="4" t="n">
         <v>13</v>
       </c>
       <c r="C106" s="5" t="n">
-        <v>7615</v>
+        <v>7605</v>
       </c>
       <c r="D106" s="5" t="n">
-        <v>60228</v>
+        <v>78111</v>
       </c>
       <c r="E106" s="5" t="n">
-        <v>10707.078</v>
+        <v>9250.531000000001</v>
       </c>
       <c r="F106" s="5" t="n">
         <v>0</v>
@@ -4109,29 +4139,29 @@
         <v>0</v>
       </c>
       <c r="H106" s="6" t="n">
-        <v>0.1250019</v>
+        <v>0.2498192</v>
       </c>
       <c r="I106" s="6" t="n">
-        <v>0.1250019</v>
+        <v>0.2498192</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B107" s="4" t="n">
         <v>14</v>
       </c>
       <c r="C107" s="5" t="n">
-        <v>8182</v>
+        <v>8200</v>
       </c>
       <c r="D107" s="5" t="n">
-        <v>65693</v>
+        <v>78317</v>
       </c>
       <c r="E107" s="5" t="n">
-        <v>11424.781</v>
+        <v>9258.188</v>
       </c>
       <c r="F107" s="5" t="n">
         <v>0</v>
@@ -4140,29 +4170,29 @@
         <v>0</v>
       </c>
       <c r="H107" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.1838224</v>
       </c>
       <c r="I107" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.1838224</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B108" s="4" t="n">
         <v>15</v>
       </c>
       <c r="C108" s="5" t="n">
-        <v>8719</v>
+        <v>8808</v>
       </c>
       <c r="D108" s="5" t="n">
-        <v>66067</v>
+        <v>79931</v>
       </c>
       <c r="E108" s="5" t="n">
-        <v>11424.781</v>
+        <v>9394.25</v>
       </c>
       <c r="F108" s="5" t="n">
         <v>0</v>
@@ -4171,29 +4201,29 @@
         <v>0</v>
       </c>
       <c r="H108" s="6" t="n">
-        <v>0.1176871</v>
+        <v>0.1920985</v>
       </c>
       <c r="I108" s="6" t="n">
-        <v>0.1176871</v>
+        <v>0.1920985</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B109" s="4" t="n">
         <v>16</v>
       </c>
       <c r="C109" s="5" t="n">
-        <v>9325</v>
+        <v>9351</v>
       </c>
       <c r="D109" s="5" t="n">
-        <v>117309</v>
+        <v>80265</v>
       </c>
       <c r="E109" s="5" t="n">
-        <v>18184.078</v>
+        <v>9394.468999999999</v>
       </c>
       <c r="F109" s="5" t="n">
         <v>0</v>
@@ -4202,29 +4232,29 @@
         <v>0</v>
       </c>
       <c r="H109" s="6" t="n">
-        <v>0.2055215</v>
+        <v>0.1146563</v>
       </c>
       <c r="I109" s="6" t="n">
-        <v>0.2055215</v>
+        <v>0.1146563</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B110" s="4" t="n">
         <v>17</v>
       </c>
       <c r="C110" s="5" t="n">
-        <v>9891</v>
+        <v>9966</v>
       </c>
       <c r="D110" s="5" t="n">
-        <v>117482</v>
+        <v>119963</v>
       </c>
       <c r="E110" s="5" t="n">
-        <v>18184.078</v>
+        <v>13801.844</v>
       </c>
       <c r="F110" s="5" t="n">
         <v>0</v>
@@ -4233,29 +4263,29 @@
         <v>0</v>
       </c>
       <c r="H110" s="6" t="n">
-        <v>0.1249024</v>
+        <v>0.1980923</v>
       </c>
       <c r="I110" s="6" t="n">
-        <v>0.1249024</v>
+        <v>0.1980923</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B111" s="4" t="n">
         <v>18</v>
       </c>
       <c r="C111" s="5" t="n">
-        <v>10449</v>
+        <v>10518</v>
       </c>
       <c r="D111" s="5" t="n">
-        <v>165547</v>
+        <v>120554</v>
       </c>
       <c r="E111" s="5" t="n">
-        <v>26878.344</v>
+        <v>13813.891</v>
       </c>
       <c r="F111" s="5" t="n">
         <v>0</v>
@@ -4264,29 +4294,29 @@
         <v>0</v>
       </c>
       <c r="H111" s="6" t="n">
-        <v>0.12151</v>
+        <v>0.2844053</v>
       </c>
       <c r="I111" s="6" t="n">
-        <v>0.12151</v>
+        <v>0.2844053</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B112" s="4" t="n">
         <v>19</v>
       </c>
       <c r="C112" s="5" t="n">
-        <v>11039</v>
+        <v>11092</v>
       </c>
       <c r="D112" s="5" t="n">
-        <v>197784</v>
+        <v>120898</v>
       </c>
       <c r="E112" s="5" t="n">
-        <v>31095.625</v>
+        <v>13814.109</v>
       </c>
       <c r="F112" s="5" t="n">
         <v>0</v>
@@ -4295,29 +4325,29 @@
         <v>0</v>
       </c>
       <c r="H112" s="6" t="n">
-        <v>0.1979822</v>
+        <v>0.1395497</v>
       </c>
       <c r="I112" s="6" t="n">
-        <v>0.1979822</v>
+        <v>0.1395497</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B113" s="4" t="n">
         <v>20</v>
       </c>
       <c r="C113" s="5" t="n">
-        <v>11623</v>
+        <v>11804</v>
       </c>
       <c r="D113" s="5" t="n">
-        <v>199378</v>
+        <v>121445</v>
       </c>
       <c r="E113" s="5" t="n">
-        <v>31122.781</v>
+        <v>13829.688</v>
       </c>
       <c r="F113" s="5" t="n">
         <v>0</v>
@@ -4326,29 +4356,29 @@
         <v>0</v>
       </c>
       <c r="H113" s="6" t="n">
-        <v>0.223656</v>
+        <v>0.2235431</v>
       </c>
       <c r="I113" s="6" t="n">
-        <v>0.223656</v>
+        <v>0.2235431</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B114" s="4" t="n">
         <v>21</v>
       </c>
       <c r="C114" s="5" t="n">
-        <v>12178</v>
+        <v>12427</v>
       </c>
       <c r="D114" s="5" t="n">
-        <v>200153</v>
+        <v>121671</v>
       </c>
       <c r="E114" s="5" t="n">
-        <v>31144.969</v>
+        <v>13831.234</v>
       </c>
       <c r="F114" s="5" t="n">
         <v>0</v>
@@ -4357,29 +4387,29 @@
         <v>0</v>
       </c>
       <c r="H114" s="6" t="n">
-        <v>0.16747</v>
+        <v>0.2844053</v>
       </c>
       <c r="I114" s="6" t="n">
-        <v>0.16747</v>
+        <v>0.2844053</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B115" s="4" t="n">
         <v>22</v>
       </c>
       <c r="C115" s="5" t="n">
-        <v>12715</v>
+        <v>13001</v>
       </c>
       <c r="D115" s="5" t="n">
-        <v>200402</v>
+        <v>121990</v>
       </c>
       <c r="E115" s="5" t="n">
-        <v>31145.297</v>
+        <v>13832.281</v>
       </c>
       <c r="F115" s="5" t="n">
         <v>0</v>
@@ -4388,29 +4418,29 @@
         <v>0</v>
       </c>
       <c r="H115" s="6" t="n">
-        <v>0.2373027</v>
+        <v>0.2285513</v>
       </c>
       <c r="I115" s="6" t="n">
-        <v>0.2373027</v>
+        <v>0.2285513</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B116" s="4" t="n">
         <v>23</v>
       </c>
       <c r="C116" s="5" t="n">
-        <v>13274</v>
+        <v>13538</v>
       </c>
       <c r="D116" s="5" t="n">
-        <v>201967</v>
+        <v>122134</v>
       </c>
       <c r="E116" s="5" t="n">
-        <v>31234.766</v>
+        <v>13837.453</v>
       </c>
       <c r="F116" s="5" t="n">
         <v>0</v>
@@ -4419,29 +4449,29 @@
         <v>0</v>
       </c>
       <c r="H116" s="6" t="n">
-        <v>0.2300347</v>
+        <v>0.2633335</v>
       </c>
       <c r="I116" s="6" t="n">
-        <v>0.2300347</v>
+        <v>0.2633335</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B117" s="4" t="n">
         <v>24</v>
       </c>
       <c r="C117" s="5" t="n">
-        <v>13806</v>
+        <v>14110</v>
       </c>
       <c r="D117" s="5" t="n">
-        <v>202488</v>
+        <v>122749</v>
       </c>
       <c r="E117" s="5" t="n">
-        <v>31263.094</v>
+        <v>13841.266</v>
       </c>
       <c r="F117" s="5" t="n">
         <v>0</v>
@@ -4450,29 +4480,29 @@
         <v>0</v>
       </c>
       <c r="H117" s="6" t="n">
-        <v>0.2614626</v>
+        <v>0.2755141</v>
       </c>
       <c r="I117" s="6" t="n">
-        <v>0.2614626</v>
+        <v>0.2755141</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B118" s="4" t="n">
         <v>25</v>
       </c>
       <c r="C118" s="5" t="n">
-        <v>14403</v>
+        <v>14755</v>
       </c>
       <c r="D118" s="5" t="n">
-        <v>203001</v>
+        <v>123888</v>
       </c>
       <c r="E118" s="5" t="n">
-        <v>31269.875</v>
+        <v>13857.031</v>
       </c>
       <c r="F118" s="5" t="n">
         <v>0</v>
@@ -4481,29 +4511,29 @@
         <v>0</v>
       </c>
       <c r="H118" s="6" t="n">
-        <v>0.12151</v>
+        <v>0.2663427</v>
       </c>
       <c r="I118" s="6" t="n">
-        <v>0.12151</v>
+        <v>0.2663427</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B119" s="4" t="n">
         <v>26</v>
       </c>
       <c r="C119" s="5" t="n">
-        <v>14947</v>
+        <v>15398</v>
       </c>
       <c r="D119" s="5" t="n">
-        <v>254074</v>
+        <v>124568</v>
       </c>
       <c r="E119" s="5" t="n">
-        <v>37437.781</v>
+        <v>13862.172</v>
       </c>
       <c r="F119" s="5" t="n">
         <v>0</v>
@@ -4512,29 +4542,29 @@
         <v>0</v>
       </c>
       <c r="H119" s="6" t="n">
-        <v>0.2501633</v>
+        <v>0.1870038</v>
       </c>
       <c r="I119" s="6" t="n">
-        <v>0.2501633</v>
+        <v>0.1870038</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B120" s="4" t="n">
         <v>27</v>
       </c>
       <c r="C120" s="5" t="n">
-        <v>15542</v>
+        <v>16000</v>
       </c>
       <c r="D120" s="5" t="n">
-        <v>255077</v>
+        <v>134847</v>
       </c>
       <c r="E120" s="5" t="n">
-        <v>37439.125</v>
+        <v>15375.422</v>
       </c>
       <c r="F120" s="5" t="n">
         <v>0</v>
@@ -4543,29 +4573,29 @@
         <v>0</v>
       </c>
       <c r="H120" s="6" t="n">
-        <v>0.2537298</v>
+        <v>0.2487015</v>
       </c>
       <c r="I120" s="6" t="n">
-        <v>0.2537298</v>
+        <v>0.2487015</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B121" s="4" t="n">
         <v>28</v>
       </c>
       <c r="C121" s="5" t="n">
-        <v>16110</v>
+        <v>16585</v>
       </c>
       <c r="D121" s="5" t="n">
-        <v>255464</v>
+        <v>135004</v>
       </c>
       <c r="E121" s="5" t="n">
-        <v>37459.891</v>
+        <v>15375.5</v>
       </c>
       <c r="F121" s="5" t="n">
         <v>0</v>
@@ -4574,29 +4604,29 @@
         <v>0</v>
       </c>
       <c r="H121" s="6" t="n">
-        <v>0.1260111</v>
+        <v>0.119323</v>
       </c>
       <c r="I121" s="6" t="n">
-        <v>0.1260111</v>
+        <v>0.119323</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B122" s="4" t="n">
         <v>29</v>
       </c>
       <c r="C122" s="5" t="n">
-        <v>16691</v>
+        <v>17195</v>
       </c>
       <c r="D122" s="5" t="n">
-        <v>255682</v>
+        <v>158688</v>
       </c>
       <c r="E122" s="5" t="n">
-        <v>37477.516</v>
+        <v>18359.891</v>
       </c>
       <c r="F122" s="5" t="n">
         <v>0</v>
@@ -4605,29 +4635,29 @@
         <v>0</v>
       </c>
       <c r="H122" s="6" t="n">
-        <v>0.1950825</v>
+        <v>0.2213283</v>
       </c>
       <c r="I122" s="6" t="n">
-        <v>0.1950825</v>
+        <v>0.2213283</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="4" t="inlineStr">
         <is>
-          <t>Grupo 4</t>
+          <t>Grupo 3</t>
         </is>
       </c>
       <c r="B123" s="4" t="n">
         <v>30</v>
       </c>
       <c r="C123" s="5" t="n">
-        <v>17270</v>
+        <v>17767</v>
       </c>
       <c r="D123" s="5" t="n">
-        <v>255870</v>
+        <v>159071</v>
       </c>
       <c r="E123" s="5" t="n">
-        <v>37477.516</v>
+        <v>18364.703</v>
       </c>
       <c r="F123" s="5" t="n">
         <v>0</v>
@@ -4645,20 +4675,20 @@
     <row r="124">
       <c r="A124" s="4" t="inlineStr">
         <is>
-          <t>Grupo 5</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B124" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C124" s="5" t="n">
-        <v>685</v>
+        <v>632</v>
       </c>
       <c r="D124" s="5" t="n">
-        <v>27931</v>
+        <v>187</v>
       </c>
       <c r="E124" s="5" t="n">
-        <v>6431.938</v>
+        <v>0.188</v>
       </c>
       <c r="F124" s="5" t="n">
         <v>0</v>
@@ -4667,29 +4697,29 @@
         <v>0</v>
       </c>
       <c r="H124" s="6" t="n">
-        <v>0.1833829</v>
+        <v>0.2707355</v>
       </c>
       <c r="I124" s="6" t="n">
-        <v>0.1833829</v>
+        <v>0.2707355</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="4" t="inlineStr">
         <is>
-          <t>Grupo 5</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B125" s="4" t="n">
         <v>2</v>
       </c>
       <c r="C125" s="5" t="n">
-        <v>1296</v>
+        <v>1222</v>
       </c>
       <c r="D125" s="5" t="n">
-        <v>28306</v>
+        <v>455</v>
       </c>
       <c r="E125" s="5" t="n">
-        <v>6450.078</v>
+        <v>7.328</v>
       </c>
       <c r="F125" s="5" t="n">
         <v>0</v>
@@ -4698,29 +4728,29 @@
         <v>0</v>
       </c>
       <c r="H125" s="6" t="n">
-        <v>0.1209789</v>
+        <v>0.2844053</v>
       </c>
       <c r="I125" s="6" t="n">
-        <v>0.1209789</v>
+        <v>0.2844053</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="4" t="inlineStr">
         <is>
-          <t>Grupo 5</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B126" s="4" t="n">
         <v>3</v>
       </c>
       <c r="C126" s="5" t="n">
-        <v>1809</v>
+        <v>1880</v>
       </c>
       <c r="D126" s="5" t="n">
-        <v>80803</v>
+        <v>849</v>
       </c>
       <c r="E126" s="5" t="n">
-        <v>18357.672</v>
+        <v>7.703</v>
       </c>
       <c r="F126" s="5" t="n">
         <v>0</v>
@@ -4729,29 +4759,29 @@
         <v>0</v>
       </c>
       <c r="H126" s="6" t="n">
-        <v>0.2206865</v>
+        <v>0.2263391</v>
       </c>
       <c r="I126" s="6" t="n">
-        <v>0.2206865</v>
+        <v>0.2263391</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="4" t="inlineStr">
         <is>
-          <t>Grupo 5</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B127" s="4" t="n">
         <v>4</v>
       </c>
       <c r="C127" s="5" t="n">
-        <v>2364</v>
+        <v>2428</v>
       </c>
       <c r="D127" s="5" t="n">
-        <v>80929</v>
+        <v>1250</v>
       </c>
       <c r="E127" s="5" t="n">
-        <v>18367.469</v>
+        <v>7.703</v>
       </c>
       <c r="F127" s="5" t="n">
         <v>0</v>
@@ -4760,29 +4790,29 @@
         <v>0</v>
       </c>
       <c r="H127" s="6" t="n">
-        <v>0.2277191</v>
+        <v>0.1161702</v>
       </c>
       <c r="I127" s="6" t="n">
-        <v>0.2277191</v>
+        <v>0.1161702</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="4" t="inlineStr">
         <is>
-          <t>Grupo 5</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B128" s="4" t="n">
         <v>5</v>
       </c>
       <c r="C128" s="5" t="n">
-        <v>2907</v>
+        <v>3017</v>
       </c>
       <c r="D128" s="5" t="n">
-        <v>81181</v>
+        <v>9781</v>
       </c>
       <c r="E128" s="5" t="n">
-        <v>18367.625</v>
+        <v>1582.563</v>
       </c>
       <c r="F128" s="5" t="n">
         <v>0</v>
@@ -4791,29 +4821,29 @@
         <v>0</v>
       </c>
       <c r="H128" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.2195415</v>
       </c>
       <c r="I128" s="6" t="n">
-        <v>0.2844053</v>
+        <v>0.2195415</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="4" t="inlineStr">
         <is>
-          <t>Grupo 5</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B129" s="4" t="n">
         <v>6</v>
       </c>
       <c r="C129" s="5" t="n">
-        <v>3598</v>
+        <v>3653</v>
       </c>
       <c r="D129" s="5" t="n">
-        <v>89785</v>
+        <v>10116</v>
       </c>
       <c r="E129" s="5" t="n">
-        <v>18456.672</v>
+        <v>1582.766</v>
       </c>
       <c r="F129" s="5" t="n">
         <v>0</v>
@@ -4822,29 +4852,29 @@
         <v>0</v>
       </c>
       <c r="H129" s="6" t="n">
-        <v>0.2265649</v>
+        <v>0.2489028</v>
       </c>
       <c r="I129" s="6" t="n">
-        <v>0.2265649</v>
+        <v>0.2489028</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="4" t="inlineStr">
         <is>
-          <t>Grupo 5</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B130" s="4" t="n">
         <v>7</v>
       </c>
       <c r="C130" s="5" t="n">
-        <v>4153</v>
+        <v>4184</v>
       </c>
       <c r="D130" s="5" t="n">
-        <v>117147</v>
+        <v>10714</v>
       </c>
       <c r="E130" s="5" t="n">
-        <v>23778.219</v>
+        <v>1655.453</v>
       </c>
       <c r="F130" s="5" t="n">
         <v>0</v>
@@ -4853,29 +4883,29 @@
         <v>0</v>
       </c>
       <c r="H130" s="6" t="n">
-        <v>0.1260111</v>
+        <v>0.2530358</v>
       </c>
       <c r="I130" s="6" t="n">
-        <v>0.1260111</v>
+        <v>0.2530358</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="4" t="inlineStr">
         <is>
-          <t>Grupo 5</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B131" s="4" t="n">
         <v>8</v>
       </c>
       <c r="C131" s="5" t="n">
-        <v>4740</v>
+        <v>4774</v>
       </c>
       <c r="D131" s="5" t="n">
-        <v>119877</v>
+        <v>10974</v>
       </c>
       <c r="E131" s="5" t="n">
-        <v>24339.938</v>
+        <v>1662.656</v>
       </c>
       <c r="F131" s="5" t="n">
         <v>0</v>
@@ -4884,29 +4914,29 @@
         <v>0</v>
       </c>
       <c r="H131" s="6" t="n">
-        <v>0.2316885</v>
+        <v>0.2095464</v>
       </c>
       <c r="I131" s="6" t="n">
-        <v>0.2316885</v>
+        <v>0.2095464</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="4" t="inlineStr">
         <is>
-          <t>Grupo 5</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B132" s="4" t="n">
         <v>9</v>
       </c>
       <c r="C132" s="5" t="n">
-        <v>5275</v>
+        <v>5316</v>
       </c>
       <c r="D132" s="5" t="n">
-        <v>120200</v>
+        <v>11997</v>
       </c>
       <c r="E132" s="5" t="n">
-        <v>24339.938</v>
+        <v>1662.984</v>
       </c>
       <c r="F132" s="5" t="n">
         <v>0</v>
@@ -4915,29 +4945,29 @@
         <v>0</v>
       </c>
       <c r="H132" s="6" t="n">
-        <v>0.294502</v>
+        <v>0.1755135</v>
       </c>
       <c r="I132" s="6" t="n">
-        <v>0.294502</v>
+        <v>0.1755135</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="4" t="inlineStr">
         <is>
-          <t>Grupo 5</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B133" s="4" t="n">
         <v>10</v>
       </c>
       <c r="C133" s="5" t="n">
-        <v>5862</v>
+        <v>5909</v>
       </c>
       <c r="D133" s="5" t="n">
-        <v>139397</v>
+        <v>12326</v>
       </c>
       <c r="E133" s="5" t="n">
-        <v>24492.313</v>
+        <v>1695.375</v>
       </c>
       <c r="F133" s="5" t="n">
         <v>0</v>
@@ -4946,29 +4976,29 @@
         <v>0</v>
       </c>
       <c r="H133" s="6" t="n">
-        <v>0.12151</v>
+        <v>0.2187398</v>
       </c>
       <c r="I133" s="6" t="n">
-        <v>0.12151</v>
+        <v>0.2187398</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="4" t="inlineStr">
         <is>
-          <t>Grupo 5</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B134" s="4" t="n">
         <v>11</v>
       </c>
       <c r="C134" s="5" t="n">
-        <v>6414</v>
+        <v>6491</v>
       </c>
       <c r="D134" s="5" t="n">
-        <v>181121</v>
+        <v>12585</v>
       </c>
       <c r="E134" s="5" t="n">
-        <v>32919.969</v>
+        <v>1707.328</v>
       </c>
       <c r="F134" s="5" t="n">
         <v>0</v>
@@ -4977,29 +5007,29 @@
         <v>0</v>
       </c>
       <c r="H134" s="6" t="n">
-        <v>0.1822086</v>
+        <v>0.2640905</v>
       </c>
       <c r="I134" s="6" t="n">
-        <v>0.1822086</v>
+        <v>0.2640905</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="4" t="inlineStr">
         <is>
-          <t>Grupo 5</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B135" s="4" t="n">
         <v>12</v>
       </c>
       <c r="C135" s="5" t="n">
-        <v>6988</v>
+        <v>7048</v>
       </c>
       <c r="D135" s="5" t="n">
-        <v>183917</v>
+        <v>13123</v>
       </c>
       <c r="E135" s="5" t="n">
-        <v>33243.281</v>
+        <v>1723.906</v>
       </c>
       <c r="F135" s="5" t="n">
         <v>0</v>
@@ -5008,29 +5038,29 @@
         <v>0</v>
       </c>
       <c r="H135" s="6" t="n">
-        <v>0.2793801</v>
+        <v>0.1206024</v>
       </c>
       <c r="I135" s="6" t="n">
-        <v>0.2793801</v>
+        <v>0.1206024</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="4" t="inlineStr">
         <is>
-          <t>Grupo 5</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B136" s="4" t="n">
         <v>13</v>
       </c>
       <c r="C136" s="5" t="n">
-        <v>7586</v>
+        <v>7615</v>
       </c>
       <c r="D136" s="5" t="n">
-        <v>206175</v>
+        <v>60228</v>
       </c>
       <c r="E136" s="5" t="n">
-        <v>33252.563</v>
+        <v>10707.078</v>
       </c>
       <c r="F136" s="5" t="n">
         <v>0</v>
@@ -5039,29 +5069,29 @@
         <v>0</v>
       </c>
       <c r="H136" s="6" t="n">
-        <v>0.1252291</v>
+        <v>0.1250019</v>
       </c>
       <c r="I136" s="6" t="n">
-        <v>0.1252291</v>
+        <v>0.1250019</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="4" t="inlineStr">
         <is>
-          <t>Grupo 5</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B137" s="4" t="n">
         <v>14</v>
       </c>
       <c r="C137" s="5" t="n">
-        <v>8165</v>
+        <v>8182</v>
       </c>
       <c r="D137" s="5" t="n">
-        <v>206506</v>
+        <v>65693</v>
       </c>
       <c r="E137" s="5" t="n">
-        <v>33265.25</v>
+        <v>11424.781</v>
       </c>
       <c r="F137" s="5" t="n">
         <v>0</v>
@@ -5070,29 +5100,29 @@
         <v>0</v>
       </c>
       <c r="H137" s="6" t="n">
-        <v>0.1904234</v>
+        <v>0.2844053</v>
       </c>
       <c r="I137" s="6" t="n">
-        <v>0.1904234</v>
+        <v>0.2844053</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="4" t="inlineStr">
         <is>
-          <t>Grupo 5</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B138" s="4" t="n">
         <v>15</v>
       </c>
       <c r="C138" s="5" t="n">
-        <v>8757</v>
+        <v>8719</v>
       </c>
       <c r="D138" s="5" t="n">
-        <v>206849</v>
+        <v>66067</v>
       </c>
       <c r="E138" s="5" t="n">
-        <v>33293.609</v>
+        <v>11424.781</v>
       </c>
       <c r="F138" s="5" t="n">
         <v>0</v>
@@ -5101,29 +5131,29 @@
         <v>0</v>
       </c>
       <c r="H138" s="6" t="n">
-        <v>0.2459873</v>
+        <v>0.1176871</v>
       </c>
       <c r="I138" s="6" t="n">
-        <v>0.2459873</v>
+        <v>0.1176871</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="4" t="inlineStr">
         <is>
-          <t>Grupo 5</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B139" s="4" t="n">
         <v>16</v>
       </c>
       <c r="C139" s="5" t="n">
-        <v>9324</v>
+        <v>9325</v>
       </c>
       <c r="D139" s="5" t="n">
-        <v>207162</v>
+        <v>117309</v>
       </c>
       <c r="E139" s="5" t="n">
-        <v>33333.141</v>
+        <v>18184.078</v>
       </c>
       <c r="F139" s="5" t="n">
         <v>0</v>
@@ -5132,29 +5162,29 @@
         <v>0</v>
       </c>
       <c r="H139" s="6" t="n">
-        <v>0.2452898</v>
+        <v>0.2055215</v>
       </c>
       <c r="I139" s="6" t="n">
-        <v>0.2452898</v>
+        <v>0.2055215</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="4" t="inlineStr">
         <is>
-          <t>Grupo 5</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B140" s="4" t="n">
         <v>17</v>
       </c>
       <c r="C140" s="5" t="n">
-        <v>9969</v>
+        <v>9891</v>
       </c>
       <c r="D140" s="5" t="n">
-        <v>207494</v>
+        <v>117482</v>
       </c>
       <c r="E140" s="5" t="n">
-        <v>33368.719</v>
+        <v>18184.078</v>
       </c>
       <c r="F140" s="5" t="n">
         <v>0</v>
@@ -5163,29 +5193,29 @@
         <v>0</v>
       </c>
       <c r="H140" s="6" t="n">
-        <v>0.1234443</v>
+        <v>0.1249024</v>
       </c>
       <c r="I140" s="6" t="n">
-        <v>0.1234443</v>
+        <v>0.1249024</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="4" t="inlineStr">
         <is>
-          <t>Grupo 5</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B141" s="4" t="n">
         <v>18</v>
       </c>
       <c r="C141" s="5" t="n">
-        <v>10590</v>
+        <v>10449</v>
       </c>
       <c r="D141" s="5" t="n">
-        <v>226832</v>
+        <v>165547</v>
       </c>
       <c r="E141" s="5" t="n">
-        <v>38083.016</v>
+        <v>26878.344</v>
       </c>
       <c r="F141" s="5" t="n">
         <v>0</v>
@@ -5194,29 +5224,29 @@
         <v>0</v>
       </c>
       <c r="H141" s="6" t="n">
-        <v>0.2363978</v>
+        <v>0.12151</v>
       </c>
       <c r="I141" s="6" t="n">
-        <v>0.2363978</v>
+        <v>0.12151</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="4" t="inlineStr">
         <is>
-          <t>Grupo 5</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B142" s="4" t="n">
         <v>19</v>
       </c>
       <c r="C142" s="5" t="n">
-        <v>11193</v>
+        <v>11039</v>
       </c>
       <c r="D142" s="5" t="n">
-        <v>227036</v>
+        <v>197784</v>
       </c>
       <c r="E142" s="5" t="n">
-        <v>38083.875</v>
+        <v>31095.625</v>
       </c>
       <c r="F142" s="5" t="n">
         <v>0</v>
@@ -5225,29 +5255,29 @@
         <v>0</v>
       </c>
       <c r="H142" s="6" t="n">
-        <v>0.269941</v>
+        <v>0.1979822</v>
       </c>
       <c r="I142" s="6" t="n">
-        <v>0.269941</v>
+        <v>0.1979822</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="4" t="inlineStr">
         <is>
-          <t>Grupo 5</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B143" s="4" t="n">
         <v>20</v>
       </c>
       <c r="C143" s="5" t="n">
-        <v>11828</v>
+        <v>11623</v>
       </c>
       <c r="D143" s="5" t="n">
-        <v>227649</v>
+        <v>199378</v>
       </c>
       <c r="E143" s="5" t="n">
-        <v>38105.266</v>
+        <v>31122.781</v>
       </c>
       <c r="F143" s="5" t="n">
         <v>0</v>
@@ -5256,29 +5286,29 @@
         <v>0</v>
       </c>
       <c r="H143" s="6" t="n">
-        <v>0.2643565</v>
+        <v>0.223656</v>
       </c>
       <c r="I143" s="6" t="n">
-        <v>0.2643565</v>
+        <v>0.223656</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="4" t="inlineStr">
         <is>
-          <t>Grupo 5</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B144" s="4" t="n">
         <v>21</v>
       </c>
       <c r="C144" s="5" t="n">
-        <v>12369</v>
+        <v>12178</v>
       </c>
       <c r="D144" s="5" t="n">
-        <v>228258</v>
+        <v>200153</v>
       </c>
       <c r="E144" s="5" t="n">
-        <v>38124.609</v>
+        <v>31144.969</v>
       </c>
       <c r="F144" s="5" t="n">
         <v>0</v>
@@ -5287,29 +5317,29 @@
         <v>0</v>
       </c>
       <c r="H144" s="6" t="n">
-        <v>0.1202812</v>
+        <v>0.16747</v>
       </c>
       <c r="I144" s="6" t="n">
-        <v>0.1202812</v>
+        <v>0.16747</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="4" t="inlineStr">
         <is>
-          <t>Grupo 5</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B145" s="4" t="n">
         <v>22</v>
       </c>
       <c r="C145" s="5" t="n">
-        <v>12899</v>
+        <v>12715</v>
       </c>
       <c r="D145" s="5" t="n">
-        <v>279238</v>
+        <v>200402</v>
       </c>
       <c r="E145" s="5" t="n">
-        <v>50405.875</v>
+        <v>31145.297</v>
       </c>
       <c r="F145" s="5" t="n">
         <v>0</v>
@@ -5318,29 +5348,29 @@
         <v>0</v>
       </c>
       <c r="H145" s="6" t="n">
-        <v>0.2222444</v>
+        <v>0.2373027</v>
       </c>
       <c r="I145" s="6" t="n">
-        <v>0.2222444</v>
+        <v>0.2373027</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="4" t="inlineStr">
         <is>
-          <t>Grupo 5</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B146" s="4" t="n">
         <v>23</v>
       </c>
       <c r="C146" s="5" t="n">
-        <v>13436</v>
+        <v>13274</v>
       </c>
       <c r="D146" s="5" t="n">
-        <v>284381</v>
+        <v>201967</v>
       </c>
       <c r="E146" s="5" t="n">
-        <v>51554.469</v>
+        <v>31234.766</v>
       </c>
       <c r="F146" s="5" t="n">
         <v>0</v>
@@ -5349,29 +5379,29 @@
         <v>0</v>
       </c>
       <c r="H146" s="6" t="n">
-        <v>0.193604</v>
+        <v>0.2300347</v>
       </c>
       <c r="I146" s="6" t="n">
-        <v>0.193604</v>
+        <v>0.2300347</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="4" t="inlineStr">
         <is>
-          <t>Grupo 5</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B147" s="4" t="n">
         <v>24</v>
       </c>
       <c r="C147" s="5" t="n">
-        <v>14005</v>
+        <v>13806</v>
       </c>
       <c r="D147" s="5" t="n">
-        <v>284692</v>
+        <v>202488</v>
       </c>
       <c r="E147" s="5" t="n">
-        <v>51562.969</v>
+        <v>31263.094</v>
       </c>
       <c r="F147" s="5" t="n">
         <v>0</v>
@@ -5380,29 +5410,29 @@
         <v>0</v>
       </c>
       <c r="H147" s="6" t="n">
-        <v>0.2632921</v>
+        <v>0.2614626</v>
       </c>
       <c r="I147" s="6" t="n">
-        <v>0.2632921</v>
+        <v>0.2614626</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="4" t="inlineStr">
         <is>
-          <t>Grupo 5</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B148" s="4" t="n">
         <v>25</v>
       </c>
       <c r="C148" s="5" t="n">
-        <v>14530</v>
+        <v>14403</v>
       </c>
       <c r="D148" s="5" t="n">
-        <v>284921</v>
+        <v>203001</v>
       </c>
       <c r="E148" s="5" t="n">
-        <v>51571.891</v>
+        <v>31269.875</v>
       </c>
       <c r="F148" s="5" t="n">
         <v>0</v>
@@ -5411,29 +5441,29 @@
         <v>0</v>
       </c>
       <c r="H148" s="6" t="n">
-        <v>0.1840018</v>
+        <v>0.12151</v>
       </c>
       <c r="I148" s="6" t="n">
-        <v>0.1840018</v>
+        <v>0.12151</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="4" t="inlineStr">
         <is>
-          <t>Grupo 5</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B149" s="4" t="n">
         <v>26</v>
       </c>
       <c r="C149" s="5" t="n">
-        <v>15150</v>
+        <v>14947</v>
       </c>
       <c r="D149" s="5" t="n">
-        <v>285385</v>
+        <v>254074</v>
       </c>
       <c r="E149" s="5" t="n">
-        <v>51596.906</v>
+        <v>37437.781</v>
       </c>
       <c r="F149" s="5" t="n">
         <v>0</v>
@@ -5442,29 +5472,29 @@
         <v>0</v>
       </c>
       <c r="H149" s="6" t="n">
-        <v>0.2916649</v>
+        <v>0.2501633</v>
       </c>
       <c r="I149" s="6" t="n">
-        <v>0.2916649</v>
+        <v>0.2501633</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="4" t="inlineStr">
         <is>
-          <t>Grupo 5</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B150" s="4" t="n">
         <v>27</v>
       </c>
       <c r="C150" s="5" t="n">
-        <v>15771</v>
+        <v>15542</v>
       </c>
       <c r="D150" s="5" t="n">
-        <v>319255</v>
+        <v>255077</v>
       </c>
       <c r="E150" s="5" t="n">
-        <v>57935.375</v>
+        <v>37439.125</v>
       </c>
       <c r="F150" s="5" t="n">
         <v>0</v>
@@ -5473,29 +5503,29 @@
         <v>0</v>
       </c>
       <c r="H150" s="6" t="n">
-        <v>0.2448948</v>
+        <v>0.2537298</v>
       </c>
       <c r="I150" s="6" t="n">
-        <v>0.2448948</v>
+        <v>0.2537298</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="4" t="inlineStr">
         <is>
-          <t>Grupo 5</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B151" s="4" t="n">
         <v>28</v>
       </c>
       <c r="C151" s="5" t="n">
-        <v>16426</v>
+        <v>16110</v>
       </c>
       <c r="D151" s="5" t="n">
-        <v>319774</v>
+        <v>255464</v>
       </c>
       <c r="E151" s="5" t="n">
-        <v>57944.328</v>
+        <v>37459.891</v>
       </c>
       <c r="F151" s="5" t="n">
         <v>0</v>
@@ -5504,29 +5534,29 @@
         <v>0</v>
       </c>
       <c r="H151" s="6" t="n">
-        <v>0.2639391</v>
+        <v>0.1260111</v>
       </c>
       <c r="I151" s="6" t="n">
-        <v>0.2639391</v>
+        <v>0.1260111</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="4" t="inlineStr">
         <is>
-          <t>Grupo 5</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B152" s="4" t="n">
         <v>29</v>
       </c>
       <c r="C152" s="5" t="n">
-        <v>17035</v>
+        <v>16691</v>
       </c>
       <c r="D152" s="5" t="n">
-        <v>320214</v>
+        <v>255682</v>
       </c>
       <c r="E152" s="5" t="n">
-        <v>57945.172</v>
+        <v>37477.516</v>
       </c>
       <c r="F152" s="5" t="n">
         <v>0</v>
@@ -5535,40 +5565,970 @@
         <v>0</v>
       </c>
       <c r="H152" s="6" t="n">
-        <v>0.2024876</v>
+        <v>0.1950825</v>
       </c>
       <c r="I152" s="6" t="n">
-        <v>0.2024876</v>
+        <v>0.1950825</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="4" t="inlineStr">
         <is>
-          <t>Grupo 5</t>
+          <t>Grupo 4</t>
         </is>
       </c>
       <c r="B153" s="4" t="n">
         <v>30</v>
       </c>
       <c r="C153" s="5" t="n">
+        <v>17270</v>
+      </c>
+      <c r="D153" s="5" t="n">
+        <v>255870</v>
+      </c>
+      <c r="E153" s="5" t="n">
+        <v>37477.516</v>
+      </c>
+      <c r="F153" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="4" t="inlineStr">
+        <is>
+          <t>Grupo 5</t>
+        </is>
+      </c>
+      <c r="B154" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C154" s="5" t="n">
+        <v>685</v>
+      </c>
+      <c r="D154" s="5" t="n">
+        <v>27931</v>
+      </c>
+      <c r="E154" s="5" t="n">
+        <v>6431.938</v>
+      </c>
+      <c r="F154" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" s="6" t="n">
+        <v>0.1833829</v>
+      </c>
+      <c r="I154" s="6" t="n">
+        <v>0.1833829</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="4" t="inlineStr">
+        <is>
+          <t>Grupo 5</t>
+        </is>
+      </c>
+      <c r="B155" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C155" s="5" t="n">
+        <v>1296</v>
+      </c>
+      <c r="D155" s="5" t="n">
+        <v>28306</v>
+      </c>
+      <c r="E155" s="5" t="n">
+        <v>6450.078</v>
+      </c>
+      <c r="F155" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G155" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" s="6" t="n">
+        <v>0.1209789</v>
+      </c>
+      <c r="I155" s="6" t="n">
+        <v>0.1209789</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="4" t="inlineStr">
+        <is>
+          <t>Grupo 5</t>
+        </is>
+      </c>
+      <c r="B156" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C156" s="5" t="n">
+        <v>1809</v>
+      </c>
+      <c r="D156" s="5" t="n">
+        <v>80803</v>
+      </c>
+      <c r="E156" s="5" t="n">
+        <v>18357.672</v>
+      </c>
+      <c r="F156" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G156" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" s="6" t="n">
+        <v>0.2206865</v>
+      </c>
+      <c r="I156" s="6" t="n">
+        <v>0.2206865</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="4" t="inlineStr">
+        <is>
+          <t>Grupo 5</t>
+        </is>
+      </c>
+      <c r="B157" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C157" s="5" t="n">
+        <v>2364</v>
+      </c>
+      <c r="D157" s="5" t="n">
+        <v>80929</v>
+      </c>
+      <c r="E157" s="5" t="n">
+        <v>18367.469</v>
+      </c>
+      <c r="F157" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G157" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" s="6" t="n">
+        <v>0.2277191</v>
+      </c>
+      <c r="I157" s="6" t="n">
+        <v>0.2277191</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="4" t="inlineStr">
+        <is>
+          <t>Grupo 5</t>
+        </is>
+      </c>
+      <c r="B158" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C158" s="5" t="n">
+        <v>2907</v>
+      </c>
+      <c r="D158" s="5" t="n">
+        <v>81181</v>
+      </c>
+      <c r="E158" s="5" t="n">
+        <v>18367.625</v>
+      </c>
+      <c r="F158" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" s="6" t="n">
+        <v>0.2844053</v>
+      </c>
+      <c r="I158" s="6" t="n">
+        <v>0.2844053</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="4" t="inlineStr">
+        <is>
+          <t>Grupo 5</t>
+        </is>
+      </c>
+      <c r="B159" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C159" s="5" t="n">
+        <v>3598</v>
+      </c>
+      <c r="D159" s="5" t="n">
+        <v>89785</v>
+      </c>
+      <c r="E159" s="5" t="n">
+        <v>18456.672</v>
+      </c>
+      <c r="F159" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G159" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" s="6" t="n">
+        <v>0.2265649</v>
+      </c>
+      <c r="I159" s="6" t="n">
+        <v>0.2265649</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="4" t="inlineStr">
+        <is>
+          <t>Grupo 5</t>
+        </is>
+      </c>
+      <c r="B160" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C160" s="5" t="n">
+        <v>4153</v>
+      </c>
+      <c r="D160" s="5" t="n">
+        <v>117147</v>
+      </c>
+      <c r="E160" s="5" t="n">
+        <v>23778.219</v>
+      </c>
+      <c r="F160" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G160" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" s="6" t="n">
+        <v>0.1260111</v>
+      </c>
+      <c r="I160" s="6" t="n">
+        <v>0.1260111</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="4" t="inlineStr">
+        <is>
+          <t>Grupo 5</t>
+        </is>
+      </c>
+      <c r="B161" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C161" s="5" t="n">
+        <v>4740</v>
+      </c>
+      <c r="D161" s="5" t="n">
+        <v>119877</v>
+      </c>
+      <c r="E161" s="5" t="n">
+        <v>24339.938</v>
+      </c>
+      <c r="F161" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" s="6" t="n">
+        <v>0.2316885</v>
+      </c>
+      <c r="I161" s="6" t="n">
+        <v>0.2316885</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="4" t="inlineStr">
+        <is>
+          <t>Grupo 5</t>
+        </is>
+      </c>
+      <c r="B162" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C162" s="5" t="n">
+        <v>5275</v>
+      </c>
+      <c r="D162" s="5" t="n">
+        <v>120200</v>
+      </c>
+      <c r="E162" s="5" t="n">
+        <v>24339.938</v>
+      </c>
+      <c r="F162" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G162" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" s="6" t="n">
+        <v>0.294502</v>
+      </c>
+      <c r="I162" s="6" t="n">
+        <v>0.294502</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="4" t="inlineStr">
+        <is>
+          <t>Grupo 5</t>
+        </is>
+      </c>
+      <c r="B163" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C163" s="5" t="n">
+        <v>5862</v>
+      </c>
+      <c r="D163" s="5" t="n">
+        <v>139397</v>
+      </c>
+      <c r="E163" s="5" t="n">
+        <v>24492.313</v>
+      </c>
+      <c r="F163" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" s="6" t="n">
+        <v>0.12151</v>
+      </c>
+      <c r="I163" s="6" t="n">
+        <v>0.12151</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="4" t="inlineStr">
+        <is>
+          <t>Grupo 5</t>
+        </is>
+      </c>
+      <c r="B164" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C164" s="5" t="n">
+        <v>6414</v>
+      </c>
+      <c r="D164" s="5" t="n">
+        <v>181121</v>
+      </c>
+      <c r="E164" s="5" t="n">
+        <v>32919.969</v>
+      </c>
+      <c r="F164" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" s="6" t="n">
+        <v>0.1822086</v>
+      </c>
+      <c r="I164" s="6" t="n">
+        <v>0.1822086</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="4" t="inlineStr">
+        <is>
+          <t>Grupo 5</t>
+        </is>
+      </c>
+      <c r="B165" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C165" s="5" t="n">
+        <v>6988</v>
+      </c>
+      <c r="D165" s="5" t="n">
+        <v>183917</v>
+      </c>
+      <c r="E165" s="5" t="n">
+        <v>33243.281</v>
+      </c>
+      <c r="F165" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G165" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" s="6" t="n">
+        <v>0.2793801</v>
+      </c>
+      <c r="I165" s="6" t="n">
+        <v>0.2793801</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="4" t="inlineStr">
+        <is>
+          <t>Grupo 5</t>
+        </is>
+      </c>
+      <c r="B166" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="C166" s="5" t="n">
+        <v>7586</v>
+      </c>
+      <c r="D166" s="5" t="n">
+        <v>206175</v>
+      </c>
+      <c r="E166" s="5" t="n">
+        <v>33252.563</v>
+      </c>
+      <c r="F166" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" s="6" t="n">
+        <v>0.1252291</v>
+      </c>
+      <c r="I166" s="6" t="n">
+        <v>0.1252291</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="4" t="inlineStr">
+        <is>
+          <t>Grupo 5</t>
+        </is>
+      </c>
+      <c r="B167" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="C167" s="5" t="n">
+        <v>8165</v>
+      </c>
+      <c r="D167" s="5" t="n">
+        <v>206506</v>
+      </c>
+      <c r="E167" s="5" t="n">
+        <v>33265.25</v>
+      </c>
+      <c r="F167" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" s="6" t="n">
+        <v>0.1904234</v>
+      </c>
+      <c r="I167" s="6" t="n">
+        <v>0.1904234</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="4" t="inlineStr">
+        <is>
+          <t>Grupo 5</t>
+        </is>
+      </c>
+      <c r="B168" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="C168" s="5" t="n">
+        <v>8757</v>
+      </c>
+      <c r="D168" s="5" t="n">
+        <v>206849</v>
+      </c>
+      <c r="E168" s="5" t="n">
+        <v>33293.609</v>
+      </c>
+      <c r="F168" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G168" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" s="6" t="n">
+        <v>0.2459873</v>
+      </c>
+      <c r="I168" s="6" t="n">
+        <v>0.2459873</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="4" t="inlineStr">
+        <is>
+          <t>Grupo 5</t>
+        </is>
+      </c>
+      <c r="B169" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="C169" s="5" t="n">
+        <v>9324</v>
+      </c>
+      <c r="D169" s="5" t="n">
+        <v>207162</v>
+      </c>
+      <c r="E169" s="5" t="n">
+        <v>33333.141</v>
+      </c>
+      <c r="F169" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G169" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" s="6" t="n">
+        <v>0.2452898</v>
+      </c>
+      <c r="I169" s="6" t="n">
+        <v>0.2452898</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="4" t="inlineStr">
+        <is>
+          <t>Grupo 5</t>
+        </is>
+      </c>
+      <c r="B170" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="C170" s="5" t="n">
+        <v>9969</v>
+      </c>
+      <c r="D170" s="5" t="n">
+        <v>207494</v>
+      </c>
+      <c r="E170" s="5" t="n">
+        <v>33368.719</v>
+      </c>
+      <c r="F170" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G170" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" s="6" t="n">
+        <v>0.1234443</v>
+      </c>
+      <c r="I170" s="6" t="n">
+        <v>0.1234443</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="4" t="inlineStr">
+        <is>
+          <t>Grupo 5</t>
+        </is>
+      </c>
+      <c r="B171" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="C171" s="5" t="n">
+        <v>10590</v>
+      </c>
+      <c r="D171" s="5" t="n">
+        <v>226832</v>
+      </c>
+      <c r="E171" s="5" t="n">
+        <v>38083.016</v>
+      </c>
+      <c r="F171" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G171" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" s="6" t="n">
+        <v>0.2363978</v>
+      </c>
+      <c r="I171" s="6" t="n">
+        <v>0.2363978</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="4" t="inlineStr">
+        <is>
+          <t>Grupo 5</t>
+        </is>
+      </c>
+      <c r="B172" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="C172" s="5" t="n">
+        <v>11193</v>
+      </c>
+      <c r="D172" s="5" t="n">
+        <v>227036</v>
+      </c>
+      <c r="E172" s="5" t="n">
+        <v>38083.875</v>
+      </c>
+      <c r="F172" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G172" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" s="6" t="n">
+        <v>0.269941</v>
+      </c>
+      <c r="I172" s="6" t="n">
+        <v>0.269941</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="4" t="inlineStr">
+        <is>
+          <t>Grupo 5</t>
+        </is>
+      </c>
+      <c r="B173" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C173" s="5" t="n">
+        <v>11828</v>
+      </c>
+      <c r="D173" s="5" t="n">
+        <v>227649</v>
+      </c>
+      <c r="E173" s="5" t="n">
+        <v>38105.266</v>
+      </c>
+      <c r="F173" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G173" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" s="6" t="n">
+        <v>0.2643565</v>
+      </c>
+      <c r="I173" s="6" t="n">
+        <v>0.2643565</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="4" t="inlineStr">
+        <is>
+          <t>Grupo 5</t>
+        </is>
+      </c>
+      <c r="B174" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="C174" s="5" t="n">
+        <v>12369</v>
+      </c>
+      <c r="D174" s="5" t="n">
+        <v>228258</v>
+      </c>
+      <c r="E174" s="5" t="n">
+        <v>38124.609</v>
+      </c>
+      <c r="F174" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G174" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" s="6" t="n">
+        <v>0.1202812</v>
+      </c>
+      <c r="I174" s="6" t="n">
+        <v>0.1202812</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="4" t="inlineStr">
+        <is>
+          <t>Grupo 5</t>
+        </is>
+      </c>
+      <c r="B175" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="C175" s="5" t="n">
+        <v>12899</v>
+      </c>
+      <c r="D175" s="5" t="n">
+        <v>279238</v>
+      </c>
+      <c r="E175" s="5" t="n">
+        <v>50405.875</v>
+      </c>
+      <c r="F175" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G175" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" s="6" t="n">
+        <v>0.2222444</v>
+      </c>
+      <c r="I175" s="6" t="n">
+        <v>0.2222444</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="4" t="inlineStr">
+        <is>
+          <t>Grupo 5</t>
+        </is>
+      </c>
+      <c r="B176" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="C176" s="5" t="n">
+        <v>13436</v>
+      </c>
+      <c r="D176" s="5" t="n">
+        <v>284381</v>
+      </c>
+      <c r="E176" s="5" t="n">
+        <v>51554.469</v>
+      </c>
+      <c r="F176" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" s="6" t="n">
+        <v>0.193604</v>
+      </c>
+      <c r="I176" s="6" t="n">
+        <v>0.193604</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="4" t="inlineStr">
+        <is>
+          <t>Grupo 5</t>
+        </is>
+      </c>
+      <c r="B177" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="C177" s="5" t="n">
+        <v>14005</v>
+      </c>
+      <c r="D177" s="5" t="n">
+        <v>284692</v>
+      </c>
+      <c r="E177" s="5" t="n">
+        <v>51562.969</v>
+      </c>
+      <c r="F177" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G177" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H177" s="6" t="n">
+        <v>0.2632921</v>
+      </c>
+      <c r="I177" s="6" t="n">
+        <v>0.2632921</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="4" t="inlineStr">
+        <is>
+          <t>Grupo 5</t>
+        </is>
+      </c>
+      <c r="B178" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="C178" s="5" t="n">
+        <v>14530</v>
+      </c>
+      <c r="D178" s="5" t="n">
+        <v>284921</v>
+      </c>
+      <c r="E178" s="5" t="n">
+        <v>51571.891</v>
+      </c>
+      <c r="F178" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G178" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" s="6" t="n">
+        <v>0.1840018</v>
+      </c>
+      <c r="I178" s="6" t="n">
+        <v>0.1840018</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="4" t="inlineStr">
+        <is>
+          <t>Grupo 5</t>
+        </is>
+      </c>
+      <c r="B179" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="C179" s="5" t="n">
+        <v>15150</v>
+      </c>
+      <c r="D179" s="5" t="n">
+        <v>285385</v>
+      </c>
+      <c r="E179" s="5" t="n">
+        <v>51596.906</v>
+      </c>
+      <c r="F179" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G179" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H179" s="6" t="n">
+        <v>0.2916649</v>
+      </c>
+      <c r="I179" s="6" t="n">
+        <v>0.2916649</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="4" t="inlineStr">
+        <is>
+          <t>Grupo 5</t>
+        </is>
+      </c>
+      <c r="B180" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="C180" s="5" t="n">
+        <v>15771</v>
+      </c>
+      <c r="D180" s="5" t="n">
+        <v>319255</v>
+      </c>
+      <c r="E180" s="5" t="n">
+        <v>57935.375</v>
+      </c>
+      <c r="F180" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G180" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" s="6" t="n">
+        <v>0.2448948</v>
+      </c>
+      <c r="I180" s="6" t="n">
+        <v>0.2448948</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="4" t="inlineStr">
+        <is>
+          <t>Grupo 5</t>
+        </is>
+      </c>
+      <c r="B181" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="C181" s="5" t="n">
+        <v>16426</v>
+      </c>
+      <c r="D181" s="5" t="n">
+        <v>319774</v>
+      </c>
+      <c r="E181" s="5" t="n">
+        <v>57944.328</v>
+      </c>
+      <c r="F181" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G181" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" s="6" t="n">
+        <v>0.2639391</v>
+      </c>
+      <c r="I181" s="6" t="n">
+        <v>0.2639391</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="4" t="inlineStr">
+        <is>
+          <t>Grupo 5</t>
+        </is>
+      </c>
+      <c r="B182" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="C182" s="5" t="n">
+        <v>17035</v>
+      </c>
+      <c r="D182" s="5" t="n">
+        <v>320214</v>
+      </c>
+      <c r="E182" s="5" t="n">
+        <v>57945.172</v>
+      </c>
+      <c r="F182" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G182" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H182" s="6" t="n">
+        <v>0.2024876</v>
+      </c>
+      <c r="I182" s="6" t="n">
+        <v>0.2024876</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="4" t="inlineStr">
+        <is>
+          <t>Grupo 5</t>
+        </is>
+      </c>
+      <c r="B183" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="C183" s="5" t="n">
         <v>17635</v>
       </c>
-      <c r="D153" s="5" t="n">
+      <c r="D183" s="5" t="n">
         <v>321130</v>
       </c>
-      <c r="E153" s="5" t="n">
+      <c r="E183" s="5" t="n">
         <v>57986.563</v>
       </c>
-      <c r="F153" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G153" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H153" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" s="6" t="n">
+      <c r="F183" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G183" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" s="6" t="n">
         <v>0</v>
       </c>
     </row>
